--- a/user-data/uganda-health-funding/uganda-health-funding.xlsx
+++ b/user-data/uganda-health-funding/uganda-health-funding.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>id</t>
   </si>
@@ -719,9 +719,6 @@
   </si>
   <si>
     <t>Source: Ugandan Ministry</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1109,42 +1106,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
@@ -1160,11 +1157,6 @@
     <row r="17">
       <c r="A17" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-health-funding/uganda-health-funding.xlsx
+++ b/user-data/uganda-health-funding/uganda-health-funding.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -730,7 +730,7 @@
     <t>This data contains information that has been converted from current native currency units (NCU) to constant US Dollars. The NCU values are contained in the 'value-ncu' column, while the converted and deflated values are contained in the 'value' column.</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-health-funding/uganda-health-funding.xlsx
+++ b/user-data/uganda-health-funding/uganda-health-funding.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t>id</t>
   </si>
@@ -712,13 +712,16 @@
     <t>Name: uganda-health-funding</t>
   </si>
   <si>
-    <t>Description: The amount the district government spends on primary healthcare per person</t>
+    <t>Description: Primary Health Spending Per Person</t>
   </si>
   <si>
     <t>Units of measure: USD</t>
   </si>
   <si>
-    <t>Source: Ugandan Ministry</t>
+    <t>Source: Local Government Budgets - Ministry of Finance, Planning and Economic Development</t>
+  </si>
+  <si>
+    <t>Source-link: http://www.budget.go.ug/</t>
   </si>
   <si>
     <t/>
@@ -736,7 +739,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1106,42 +1112,42 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15">
@@ -1157,6 +1163,16 @@
     <row r="17">
       <c r="A17" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-health-funding/uganda-health-funding.xlsx
+++ b/user-data/uganda-health-funding/uganda-health-funding.xlsx
@@ -712,13 +712,13 @@
     <t>Name: uganda-health-funding</t>
   </si>
   <si>
-    <t>Description: Primary Health Spending Per Person</t>
+    <t>Description: Primary health spending per person</t>
   </si>
   <si>
     <t>Units of measure: USD</t>
   </si>
   <si>
-    <t>Source: Local Government Budgets - Ministry of Finance, Planning and Economic Development</t>
+    <t>Source: Local government budgets â€“ Ministry of Finance, Planning and Economic Development</t>
   </si>
   <si>
     <t>Source-link: http://www.budget.go.ug/</t>

--- a/user-data/uganda-health-funding/uganda-health-funding.xlsx
+++ b/user-data/uganda-health-funding/uganda-health-funding.xlsx
@@ -712,7 +712,7 @@
     <t>Name: uganda-health-funding</t>
   </si>
   <si>
-    <t>Description: Primary health spending per person</t>
+    <t>Description: Local government health spending, per person</t>
   </si>
   <si>
     <t>Units of measure: USD</t>

--- a/user-data/uganda-health-funding/uganda-health-funding.xlsx
+++ b/user-data/uganda-health-funding/uganda-health-funding.xlsx
@@ -1217,7 +1217,7 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9778903357392</v>
+        <v>11.9778903357</v>
       </c>
       <c r="E2" t="n">
         <v> 40515</v>
@@ -1234,7 +1234,7 @@
         <v>2016</v>
       </c>
       <c r="D3" t="n">
-        <v>10.9557636661619</v>
+        <v>10.9557636662</v>
       </c>
       <c r="E3" t="n">
         <v> 40515</v>
@@ -1251,7 +1251,7 @@
         <v>2015</v>
       </c>
       <c r="D4" t="n">
-        <v>10.1342737953549</v>
+        <v>10.1342737954</v>
       </c>
       <c r="E4" t="n">
         <v> 34279</v>
@@ -1268,7 +1268,7 @@
         <v>2016</v>
       </c>
       <c r="D5" t="n">
-        <v>9.04962573989323</v>
+        <v>9.0496257399</v>
       </c>
       <c r="E5" t="n">
         <v> 33466</v>
@@ -1285,7 +1285,7 @@
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>5.83388152524107</v>
+        <v>5.8338815252</v>
       </c>
       <c r="E6" t="n">
         <v> 19733</v>
@@ -1302,7 +1302,7 @@
         <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>5.04157121539979</v>
+        <v>5.0415712154</v>
       </c>
       <c r="E7" t="n">
         <v> 18644</v>
@@ -1319,7 +1319,7 @@
         <v>2015</v>
       </c>
       <c r="D8" t="n">
-        <v>2.96320856065937</v>
+        <v>2.9632085607</v>
       </c>
       <c r="E8" t="n">
         <v> 10023</v>
@@ -1336,7 +1336,7 @@
         <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>2.5829804896749</v>
+        <v>2.5829804897</v>
       </c>
       <c r="E9" t="n">
         <v>  9552</v>
@@ -1353,7 +1353,7 @@
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>4.0547146971409</v>
+        <v>4.0547146971</v>
       </c>
       <c r="E10" t="n">
         <v> 13715</v>
@@ -1370,7 +1370,7 @@
         <v>2016</v>
       </c>
       <c r="D11" t="n">
-        <v>3.70870785342245</v>
+        <v>3.7087078534</v>
       </c>
       <c r="E11" t="n">
         <v> 13715</v>
@@ -1387,7 +1387,7 @@
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>3.54591673915479</v>
+        <v>3.5459167392</v>
       </c>
       <c r="E12" t="n">
         <v> 11994</v>
@@ -1404,7 +1404,7 @@
         <v>2016</v>
       </c>
       <c r="D13" t="n">
-        <v>3.19140868290862</v>
+        <v>3.1914086829</v>
       </c>
       <c r="E13" t="n">
         <v> 11802</v>
@@ -1421,7 +1421,7 @@
         <v>2015</v>
       </c>
       <c r="D14" t="n">
-        <v>3.13261078606671</v>
+        <v>3.1326107861</v>
       </c>
       <c r="E14" t="n">
         <v> 10596</v>
@@ -1438,7 +1438,7 @@
         <v>2016</v>
       </c>
       <c r="D15" t="n">
-        <v>2.77848874910067</v>
+        <v>2.7784887491</v>
       </c>
       <c r="E15" t="n">
         <v> 10275</v>
@@ -1455,7 +1455,7 @@
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>5.20327952385562</v>
+        <v>5.2032795239</v>
       </c>
       <c r="E16" t="n">
         <v> 17600</v>
@@ -1472,7 +1472,7 @@
         <v>2016</v>
       </c>
       <c r="D17" t="n">
-        <v>4.75195939542054</v>
+        <v>4.7519593954</v>
       </c>
       <c r="E17" t="n">
         <v> 17573</v>
@@ -1489,7 +1489,7 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>4.82249406779164</v>
+        <v>4.8224940678</v>
       </c>
       <c r="E18" t="n">
         <v> 16312</v>
@@ -1506,7 +1506,7 @@
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>4.40502011901215</v>
+        <v>4.405020119</v>
       </c>
       <c r="E19" t="n">
         <v> 16290</v>
@@ -1523,7 +1523,7 @@
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>2.88190731809912</v>
+        <v>2.8819073181</v>
       </c>
       <c r="E20" t="n">
         <v>  9748</v>
@@ -1540,7 +1540,7 @@
         <v>2016</v>
       </c>
       <c r="D21" t="n">
-        <v>2.60001647908544</v>
+        <v>2.6000164791</v>
       </c>
       <c r="E21" t="n">
         <v>  9615</v>
@@ -1557,7 +1557,7 @@
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>2.8547083569517</v>
+        <v>2.854708357</v>
       </c>
       <c r="E22" t="n">
         <v>  9656</v>
@@ -1574,7 +1574,7 @@
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>2.62678731958773</v>
+        <v>2.6267873196</v>
       </c>
       <c r="E23" t="n">
         <v>  9714</v>
@@ -1591,7 +1591,7 @@
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>3.86964350498558</v>
+        <v>3.869643505</v>
       </c>
       <c r="E24" t="n">
         <v> 13089</v>
@@ -1608,7 +1608,7 @@
         <v>2016</v>
       </c>
       <c r="D25" t="n">
-        <v>3.3030890579333</v>
+        <v>3.3030890579</v>
       </c>
       <c r="E25" t="n">
         <v> 12215</v>
@@ -1625,7 +1625,7 @@
         <v>2015</v>
       </c>
       <c r="D26" t="n">
-        <v>2.83223964991686</v>
+        <v>2.8322396499</v>
       </c>
       <c r="E26" t="n">
         <v>  9580</v>
@@ -1642,7 +1642,7 @@
         <v>2016</v>
       </c>
       <c r="D27" t="n">
-        <v>2.59055204052403</v>
+        <v>2.5905520405</v>
       </c>
       <c r="E27" t="n">
         <v>  9580</v>
@@ -1659,7 +1659,7 @@
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>2.44613265797621</v>
+        <v>2.446132658</v>
       </c>
       <c r="E28" t="n">
         <v>  8274</v>
@@ -1676,7 +1676,7 @@
         <v>2016</v>
       </c>
       <c r="D29" t="n">
-        <v>2.15275415392607</v>
+        <v>2.1527541539</v>
       </c>
       <c r="E29" t="n">
         <v>  7961</v>
@@ -1693,7 +1693,7 @@
         <v>2015</v>
       </c>
       <c r="D30" t="n">
-        <v>3.12758489107208</v>
+        <v>3.1275848911</v>
       </c>
       <c r="E30" t="n">
         <v> 10579</v>
@@ -1710,7 +1710,7 @@
         <v>2016</v>
       </c>
       <c r="D31" t="n">
-        <v>2.85853085807719</v>
+        <v>2.8585308581</v>
       </c>
       <c r="E31" t="n">
         <v> 10571</v>
@@ -1727,7 +1727,7 @@
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>2.70600099328696</v>
+        <v>2.7060009933</v>
       </c>
       <c r="E32" t="n">
         <v>  9153</v>
@@ -1744,7 +1744,7 @@
         <v>2016</v>
       </c>
       <c r="D33" t="n">
-        <v>2.65815517310555</v>
+        <v>2.6581551731</v>
       </c>
       <c r="E33" t="n">
         <v>  9830</v>
@@ -1787,7 +1787,7 @@
         <v>2015</v>
       </c>
       <c r="D36" t="n">
-        <v>8.79827264942859</v>
+        <v>8.7982726494</v>
       </c>
       <c r="E36" t="n">
         <v> 29760</v>
@@ -1804,7 +1804,7 @@
         <v>2016</v>
       </c>
       <c r="D37" t="n">
-        <v>8.02232853718438</v>
+        <v>8.0223285372</v>
       </c>
       <c r="E37" t="n">
         <v> 29667</v>
@@ -1821,7 +1821,7 @@
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>3.53320418122719</v>
+        <v>3.5332041812</v>
       </c>
       <c r="E38" t="n">
         <v> 11951</v>
@@ -1838,7 +1838,7 @@
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>3.37555961606069</v>
+        <v>3.3755596161</v>
       </c>
       <c r="E39" t="n">
         <v> 12483</v>
@@ -1855,7 +1855,7 @@
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>5.82353409436977</v>
+        <v>5.8235340944</v>
       </c>
       <c r="E40" t="n">
         <v> 19698</v>
@@ -1872,7 +1872,7 @@
         <v>2016</v>
       </c>
       <c r="D41" t="n">
-        <v>5.13351147571066</v>
+        <v>5.1335114757</v>
       </c>
       <c r="E41" t="n">
         <v> 18984</v>
@@ -1889,7 +1889,7 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>6.30720257738271</v>
+        <v>6.3072025774</v>
       </c>
       <c r="E42" t="n">
         <v> 21334</v>
@@ -1906,7 +1906,7 @@
         <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>5.52858418251709</v>
+        <v>5.5285841825</v>
       </c>
       <c r="E43" t="n">
         <v> 20445</v>
@@ -1923,7 +1923,7 @@
         <v>2015</v>
       </c>
       <c r="D44" t="n">
-        <v>4.24244665723455</v>
+        <v>4.2424466572</v>
       </c>
       <c r="E44" t="n">
         <v> 14350</v>
@@ -1940,7 +1940,7 @@
         <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>3.73683075657636</v>
+        <v>3.7368307566</v>
       </c>
       <c r="E45" t="n">
         <v> 13819</v>
@@ -1957,7 +1957,7 @@
         <v>2015</v>
       </c>
       <c r="D46" t="n">
-        <v>2.47362726000568</v>
+        <v>2.47362726</v>
       </c>
       <c r="E46" t="n">
         <v>  8367</v>
@@ -1974,7 +1974,7 @@
         <v>2016</v>
       </c>
       <c r="D47" t="n">
-        <v>2.24090863881238</v>
+        <v>2.2409086388</v>
       </c>
       <c r="E47" t="n">
         <v>  8287</v>
@@ -1991,7 +1991,7 @@
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>3.90807681965042</v>
+        <v>3.9080768197</v>
       </c>
       <c r="E48" t="n">
         <v> 13219</v>
@@ -2008,7 +2008,7 @@
         <v>2016</v>
       </c>
       <c r="D49" t="n">
-        <v>3.5745832383807</v>
+        <v>3.5745832384</v>
       </c>
       <c r="E49" t="n">
         <v> 13219</v>
@@ -2025,7 +2025,7 @@
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>5.27778102612901</v>
+        <v>5.2777810261</v>
       </c>
       <c r="E50" t="n">
         <v> 17852</v>
@@ -2042,7 +2042,7 @@
         <v>2016</v>
       </c>
       <c r="D51" t="n">
-        <v>4.82848614150282</v>
+        <v>4.8284861415</v>
       </c>
       <c r="E51" t="n">
         <v> 17856</v>
@@ -2059,7 +2059,7 @@
         <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>5.33099638489571</v>
+        <v>5.3309963849</v>
       </c>
       <c r="E52" t="n">
         <v> 18032</v>
@@ -2076,7 +2076,7 @@
         <v>2016</v>
       </c>
       <c r="D53" t="n">
-        <v>5.28467208016295</v>
+        <v>5.2846720802</v>
       </c>
       <c r="E53" t="n">
         <v> 19543</v>
@@ -2093,7 +2093,7 @@
         <v>2015</v>
       </c>
       <c r="D54" t="n">
-        <v>1.49949055369294</v>
+        <v>1.4994905537</v>
       </c>
       <c r="E54" t="n">
         <v>  5072</v>
@@ -2110,7 +2110,7 @@
         <v>2016</v>
       </c>
       <c r="D55" t="n">
-        <v>1.31717943521843</v>
+        <v>1.3171794352</v>
       </c>
       <c r="E55" t="n">
         <v>  4871</v>
@@ -2127,7 +2127,7 @@
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>4.05530597890497</v>
+        <v>4.0553059789</v>
       </c>
       <c r="E56" t="n">
         <v> 13717</v>
@@ -2144,7 +2144,7 @@
         <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>3.7092486784831</v>
+        <v>3.7092486785</v>
       </c>
       <c r="E57" t="n">
         <v> 13717</v>
@@ -2161,7 +2161,7 @@
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>2.19927252147511</v>
+        <v>2.1992725215</v>
       </c>
       <c r="E58" t="n">
         <v>  7439</v>
@@ -2178,7 +2178,7 @@
         <v>2016</v>
       </c>
       <c r="D59" t="n">
-        <v>2.05783935578161</v>
+        <v>2.0578393558</v>
       </c>
       <c r="E59" t="n">
         <v>  7610</v>
@@ -2195,7 +2195,7 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>4.38760633031484</v>
+        <v>4.3876063303</v>
       </c>
       <c r="E60" t="n">
         <v> 14841</v>
@@ -2212,7 +2212,7 @@
         <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>3.88501682319506</v>
+        <v>3.8850168232</v>
       </c>
       <c r="E61" t="n">
         <v> 14367</v>
@@ -2229,7 +2229,7 @@
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>2.1809427867888</v>
+        <v>2.1809427868</v>
       </c>
       <c r="E62" t="n">
         <v>  7377</v>
@@ -2246,7 +2246,7 @@
         <v>2016</v>
       </c>
       <c r="D63" t="n">
-        <v>1.99483323621563</v>
+        <v>1.9948332362</v>
       </c>
       <c r="E63" t="n">
         <v>  7377</v>
@@ -2263,7 +2263,7 @@
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>3.54650802091886</v>
+        <v>3.5465080209</v>
       </c>
       <c r="E64" t="n">
         <v> 11996</v>
@@ -2280,7 +2280,7 @@
         <v>2016</v>
       </c>
       <c r="D65" t="n">
-        <v>3.30525235817591</v>
+        <v>3.3052523582</v>
       </c>
       <c r="E65" t="n">
         <v> 12223</v>
@@ -2297,7 +2297,7 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>4.72315873142712</v>
+        <v>4.7231587314</v>
       </c>
       <c r="E66" t="n">
         <v> 15976</v>
@@ -2314,7 +2314,7 @@
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>4.29117644374486</v>
+        <v>4.2911764437</v>
       </c>
       <c r="E67" t="n">
         <v> 15869</v>
@@ -2331,7 +2331,7 @@
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>1.90244907590971</v>
+        <v>1.9024490759</v>
       </c>
       <c r="E68" t="n">
         <v>  6435</v>
@@ -2348,7 +2348,7 @@
         <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>1.72333905576823</v>
+        <v>1.7233390558</v>
       </c>
       <c r="E69" t="n">
         <v>  6373</v>
@@ -2365,7 +2365,7 @@
         <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>4.56853855012164</v>
+        <v>4.5685385501</v>
       </c>
       <c r="E70" t="n">
         <v> 15453</v>
@@ -2382,7 +2382,7 @@
         <v>2016</v>
       </c>
       <c r="D71" t="n">
-        <v>4.07890260743888</v>
+        <v>4.0789026074</v>
       </c>
       <c r="E71" t="n">
         <v> 15084</v>
@@ -2399,7 +2399,7 @@
         <v>2015</v>
       </c>
       <c r="D72" t="n">
-        <v>7.46936688467115</v>
+        <v>7.4693668847</v>
       </c>
       <c r="E72" t="n">
         <v> 25265</v>
@@ -2416,7 +2416,7 @@
         <v>2016</v>
       </c>
       <c r="D73" t="n">
-        <v>6.3306277474643</v>
+        <v>6.3306277475</v>
       </c>
       <c r="E73" t="n">
         <v> 23411</v>
@@ -2433,7 +2433,7 @@
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>4.12419030441965</v>
+        <v>4.1241903044</v>
       </c>
       <c r="E74" t="n">
         <v> 13950</v>
@@ -2450,7 +2450,7 @@
         <v>2016</v>
       </c>
       <c r="D75" t="n">
-        <v>3.65597741000886</v>
+        <v>3.65597741</v>
       </c>
       <c r="E75" t="n">
         <v> 13520</v>
@@ -2467,7 +2467,7 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>3.68812000341471</v>
+        <v>3.6881200034</v>
       </c>
       <c r="E76" t="n">
         <v> 12475</v>
@@ -2484,7 +2484,7 @@
         <v>2016</v>
       </c>
       <c r="D77" t="n">
-        <v>3.4026008690933</v>
+        <v>3.4026008691</v>
       </c>
       <c r="E77" t="n">
         <v> 12583</v>
@@ -2501,7 +2501,7 @@
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>4.03845444862885</v>
+        <v>4.0384544486</v>
       </c>
       <c r="E78" t="n">
         <v> 13660</v>
@@ -2518,7 +2518,7 @@
         <v>2016</v>
       </c>
       <c r="D79" t="n">
-        <v>3.65381410976625</v>
+        <v>3.6538141098</v>
       </c>
       <c r="E79" t="n">
         <v> 13512</v>
@@ -2535,7 +2535,7 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>29.2669691172777</v>
+        <v>29.2669691173</v>
       </c>
       <c r="E80" t="n">
         <v> 98995</v>
@@ -2552,7 +2552,7 @@
         <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>30.5547230391369</v>
+        <v>30.5547230391</v>
       </c>
       <c r="E81" t="n">
         <v>112993</v>
@@ -2569,7 +2569,7 @@
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>3.86254812381668</v>
+        <v>3.8625481238</v>
       </c>
       <c r="E82" t="n">
         <v> 13065</v>
@@ -2586,7 +2586,7 @@
         <v>2016</v>
       </c>
       <c r="D83" t="n">
-        <v>3.65678864759984</v>
+        <v>3.6567886476</v>
       </c>
       <c r="E83" t="n">
         <v> 13523</v>
@@ -2603,7 +2603,7 @@
         <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>4.88280480772724</v>
+        <v>4.8828048077</v>
       </c>
       <c r="E84" t="n">
         <v> 16516</v>
@@ -2620,7 +2620,7 @@
         <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>4.43097972192346</v>
+        <v>4.4309797219</v>
       </c>
       <c r="E85" t="n">
         <v> 16386</v>
@@ -2663,7 +2663,7 @@
         <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>3.43800781721119</v>
+        <v>3.4380078172</v>
       </c>
       <c r="E88" t="n">
         <v> 11629</v>
@@ -2680,7 +2680,7 @@
         <v>2016</v>
       </c>
       <c r="D89" t="n">
-        <v>2.53836242217109</v>
+        <v>2.5383624222</v>
       </c>
       <c r="E89" t="n">
         <v>  9387</v>
@@ -2697,7 +2697,7 @@
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>1.59468691770893</v>
+        <v>1.5946869177</v>
       </c>
       <c r="E90" t="n">
         <v>  5394</v>
@@ -2714,7 +2714,7 @@
         <v>2016</v>
       </c>
       <c r="D91" t="n">
-        <v>1.43832424880452</v>
+        <v>1.4383242488</v>
       </c>
       <c r="E91" t="n">
         <v>  5319</v>
@@ -2731,7 +2731,7 @@
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>5.52730193056844</v>
+        <v>5.5273019306</v>
       </c>
       <c r="E92" t="n">
         <v> 18696</v>
@@ -2748,7 +2748,7 @@
         <v>2016</v>
       </c>
       <c r="D93" t="n">
-        <v>5.03697420238425</v>
+        <v>5.0369742024</v>
       </c>
       <c r="E93" t="n">
         <v> 18627</v>
@@ -2765,7 +2765,7 @@
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>11.7650289006724</v>
+        <v>11.7650289007</v>
       </c>
       <c r="E94" t="n">
         <v> 39795</v>
@@ -2782,7 +2782,7 @@
         <v>2016</v>
       </c>
       <c r="D95" t="n">
-        <v>10.6848103107752</v>
+        <v>10.6848103108</v>
       </c>
       <c r="E95" t="n">
         <v> 39513</v>
@@ -2799,7 +2799,7 @@
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>4.95878451441081</v>
+        <v>4.9587845144</v>
       </c>
       <c r="E96" t="n">
         <v> 16773</v>
@@ -2816,7 +2816,7 @@
         <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>4.40069351852693</v>
+        <v>4.4006935185</v>
       </c>
       <c r="E97" t="n">
         <v> 16274</v>
@@ -2833,7 +2833,7 @@
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>5.78184873000252</v>
+        <v>5.78184873</v>
       </c>
       <c r="E98" t="n">
         <v> 19557</v>
@@ -2850,7 +2850,7 @@
         <v>2016</v>
       </c>
       <c r="D99" t="n">
-        <v>5.25898288978197</v>
+        <v>5.2589828898</v>
       </c>
       <c r="E99" t="n">
         <v> 19448</v>
@@ -2867,7 +2867,7 @@
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>3.10659438844743</v>
+        <v>3.1065943884</v>
       </c>
       <c r="E100" t="n">
         <v> 10508</v>
@@ -2884,7 +2884,7 @@
         <v>2016</v>
       </c>
       <c r="D101" t="n">
-        <v>3.23900128824601</v>
+        <v>3.2390012882</v>
       </c>
       <c r="E101" t="n">
         <v> 11978</v>
@@ -2901,7 +2901,7 @@
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>1.56926180185373</v>
+        <v>1.5692618019</v>
       </c>
       <c r="E102" t="n">
         <v>  5308</v>
@@ -2918,7 +2918,7 @@
         <v>2016</v>
       </c>
       <c r="D103" t="n">
-        <v>1.4339976483193</v>
+        <v>1.4339976483</v>
       </c>
       <c r="E103" t="n">
         <v>  5303</v>
@@ -2935,7 +2935,7 @@
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>6.01067477269935</v>
+        <v>6.0106747727</v>
       </c>
       <c r="E104" t="n">
         <v> 20331</v>
@@ -2952,7 +2952,7 @@
         <v>2016</v>
       </c>
       <c r="D105" t="n">
-        <v>4.50669523041477</v>
+        <v>4.5066952304</v>
       </c>
       <c r="E105" t="n">
         <v> 16666</v>
@@ -2969,7 +2969,7 @@
         <v>2015</v>
       </c>
       <c r="D106" t="n">
-        <v>1.83001705981058</v>
+        <v>1.8300170598</v>
       </c>
       <c r="E106" t="n">
         <v>  6190</v>
@@ -2986,7 +2986,7 @@
         <v>2016</v>
       </c>
       <c r="D107" t="n">
-        <v>1.78715641292519</v>
+        <v>1.7871564129</v>
       </c>
       <c r="E107" t="n">
         <v>  6609</v>
@@ -3003,7 +3003,7 @@
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>3.48353651304493</v>
+        <v>3.483536513</v>
       </c>
       <c r="E108" t="n">
         <v> 11783</v>
@@ -3020,7 +3020,7 @@
         <v>2016</v>
       </c>
       <c r="D109" t="n">
-        <v>3.05295746738166</v>
+        <v>3.0529574674</v>
       </c>
       <c r="E109" t="n">
         <v> 11290</v>
@@ -3037,7 +3037,7 @@
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>2.47599238706198</v>
+        <v>2.4759923871</v>
       </c>
       <c r="E110" t="n">
         <v>  8375</v>
@@ -3054,7 +3054,7 @@
         <v>2016</v>
       </c>
       <c r="D111" t="n">
-        <v>2.37638531650576</v>
+        <v>2.3763853165</v>
       </c>
       <c r="E111" t="n">
         <v>  8788</v>
@@ -3071,7 +3071,7 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>6.99988916399599</v>
+        <v>6.999889164</v>
       </c>
       <c r="E112" t="n">
         <v> 23677</v>
@@ -3088,7 +3088,7 @@
         <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>6.34874538699615</v>
+        <v>6.348745387</v>
       </c>
       <c r="E113" t="n">
         <v> 23478</v>
@@ -3105,7 +3105,7 @@
         <v>2015</v>
       </c>
       <c r="D114" t="n">
-        <v>6.35539204115479</v>
+        <v>6.3553920412</v>
       </c>
       <c r="E114" t="n">
         <v> 21497</v>
@@ -3122,7 +3122,7 @@
         <v>2016</v>
       </c>
       <c r="D115" t="n">
-        <v>5.60997835414525</v>
+        <v>5.6099783541</v>
       </c>
       <c r="E115" t="n">
         <v> 20746</v>
@@ -3139,7 +3139,7 @@
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>3.65116489316005</v>
+        <v>3.6511648932</v>
       </c>
       <c r="E116" t="n">
         <v> 12350</v>
@@ -3156,7 +3156,7 @@
         <v>2016</v>
       </c>
       <c r="D117" t="n">
-        <v>3.18410754458982</v>
+        <v>3.1841075446</v>
       </c>
       <c r="E117" t="n">
         <v> 11775</v>
@@ -3173,7 +3173,7 @@
         <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>3.79809841153256</v>
+        <v>3.7980984115</v>
       </c>
       <c r="E118" t="n">
         <v> 12847</v>
@@ -3190,7 +3190,7 @@
         <v>2016</v>
       </c>
       <c r="D119" t="n">
-        <v>3.39502931824417</v>
+        <v>3.3950293182</v>
       </c>
       <c r="E119" t="n">
         <v> 12555</v>
@@ -3207,7 +3207,7 @@
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>3.5816892858813</v>
+        <v>3.5816892859</v>
       </c>
       <c r="E120" t="n">
         <v> 12115</v>
@@ -3224,7 +3224,7 @@
         <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>2.71926840495925</v>
+        <v>2.719268405</v>
       </c>
       <c r="E121" t="n">
         <v> 10056</v>
@@ -3241,7 +3241,7 @@
         <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>5.63077623928148</v>
+        <v>5.6307762393</v>
       </c>
       <c r="E122" t="n">
         <v> 19046</v>
@@ -3258,7 +3258,7 @@
         <v>2016</v>
       </c>
       <c r="D123" t="n">
-        <v>4.40880589443672</v>
+        <v>4.4088058944</v>
       </c>
       <c r="E123" t="n">
         <v> 16304</v>
@@ -3275,7 +3275,7 @@
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>5.18051517593875</v>
+        <v>5.1805151759</v>
       </c>
       <c r="E124" t="n">
         <v> 17523</v>
@@ -3292,7 +3292,7 @@
         <v>2016</v>
       </c>
       <c r="D125" t="n">
-        <v>4.4655925258052</v>
+        <v>4.4655925258</v>
       </c>
       <c r="E125" t="n">
         <v> 16514</v>
@@ -3309,7 +3309,7 @@
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>2.49668724880459</v>
+        <v>2.4966872488</v>
       </c>
       <c r="E126" t="n">
         <v>  8445</v>
@@ -3326,7 +3326,7 @@
         <v>2016</v>
       </c>
       <c r="D127" t="n">
-        <v>2.21900522385597</v>
+        <v>2.2190052239</v>
       </c>
       <c r="E127" t="n">
         <v>  8206</v>
@@ -3343,7 +3343,7 @@
         <v>2015</v>
       </c>
       <c r="D128" t="n">
-        <v>2.45352368002715</v>
+        <v>2.45352368</v>
       </c>
       <c r="E128" t="n">
         <v>  8299</v>
@@ -3360,7 +3360,7 @@
         <v>2016</v>
       </c>
       <c r="D129" t="n">
-        <v>2.14464177801629</v>
+        <v>2.144641778</v>
       </c>
       <c r="E129" t="n">
         <v>  7931</v>
@@ -3377,7 +3377,7 @@
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>2.47333161912364</v>
+        <v>2.4733316191</v>
       </c>
       <c r="E130" t="n">
         <v>  8366</v>
@@ -3394,7 +3394,7 @@
         <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>2.27741433040641</v>
+        <v>2.2774143304</v>
       </c>
       <c r="E131" t="n">
         <v>  8422</v>
@@ -3411,7 +3411,7 @@
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>6.28296002505566</v>
+        <v>6.2829600251</v>
       </c>
       <c r="E132" t="n">
         <v> 21252</v>
@@ -3428,7 +3428,7 @@
         <v>2016</v>
       </c>
       <c r="D133" t="n">
-        <v>5.55156924759481</v>
+        <v>5.5515692476</v>
       </c>
       <c r="E133" t="n">
         <v> 20530</v>
@@ -3445,7 +3445,7 @@
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>3.03534493587646</v>
+        <v>3.0353449359</v>
       </c>
       <c r="E134" t="n">
         <v> 10267</v>
@@ -3462,7 +3462,7 @@
         <v>2016</v>
       </c>
       <c r="D135" t="n">
-        <v>2.56729656291598</v>
+        <v>2.5672965629</v>
       </c>
       <c r="E135" t="n">
         <v>  9494</v>
@@ -3505,7 +3505,7 @@
         <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>3.44658140279027</v>
+        <v>3.4465814028</v>
       </c>
       <c r="E138" t="n">
         <v> 11658</v>
@@ -3522,7 +3522,7 @@
         <v>2016</v>
       </c>
       <c r="D139" t="n">
-        <v>3.05917695557916</v>
+        <v>3.0591769556</v>
       </c>
       <c r="E139" t="n">
         <v> 11313</v>
@@ -3539,7 +3539,7 @@
         <v>2015</v>
       </c>
       <c r="D140" t="n">
-        <v>2.48072264117457</v>
+        <v>2.4807226412</v>
       </c>
       <c r="E140" t="n">
         <v>  8391</v>
@@ -3556,7 +3556,7 @@
         <v>2016</v>
       </c>
       <c r="D141" t="n">
-        <v>2.16465230526042</v>
+        <v>2.1646523053</v>
       </c>
       <c r="E141" t="n">
         <v>  8005</v>
@@ -3573,7 +3573,7 @@
         <v>2015</v>
       </c>
       <c r="D142" t="n">
-        <v>6.98067250666357</v>
+        <v>6.9806725067</v>
       </c>
       <c r="E142" t="n">
         <v> 23612</v>
@@ -3590,7 +3590,7 @@
         <v>2016</v>
       </c>
       <c r="D143" t="n">
-        <v>6.37173045207387</v>
+        <v>6.3717304521</v>
       </c>
       <c r="E143" t="n">
         <v> 23563</v>
@@ -3607,7 +3607,7 @@
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>2.78671095408313</v>
+        <v>2.7867109541</v>
       </c>
       <c r="E144" t="n">
         <v>  9426</v>
@@ -3624,7 +3624,7 @@
         <v>2016</v>
       </c>
       <c r="D145" t="n">
-        <v>2.55864336194555</v>
+        <v>2.5586433619</v>
       </c>
       <c r="E145" t="n">
         <v>  9462</v>
@@ -3641,7 +3641,7 @@
         <v>2015</v>
       </c>
       <c r="D146" t="n">
-        <v>5.96248530892728</v>
+        <v>5.9624853089</v>
       </c>
       <c r="E146" t="n">
         <v> 20168</v>
@@ -3658,7 +3658,7 @@
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>5.44746042341926</v>
+        <v>5.4474604234</v>
       </c>
       <c r="E147" t="n">
         <v> 20145</v>
@@ -3675,7 +3675,7 @@
         <v>2015</v>
       </c>
       <c r="D148" t="n">
-        <v>3.19292152600231</v>
+        <v>3.192921526</v>
       </c>
       <c r="E148" t="n">
         <v> 10800</v>
@@ -3692,7 +3692,7 @@
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>2.83770909324208</v>
+        <v>2.8377090932</v>
       </c>
       <c r="E149" t="n">
         <v> 10494</v>
@@ -3709,7 +3709,7 @@
         <v>2015</v>
       </c>
       <c r="D150" t="n">
-        <v>4.4626991143523</v>
+        <v>4.4626991144</v>
       </c>
       <c r="E150" t="n">
         <v> 15095</v>
@@ -3726,7 +3726,7 @@
         <v>2016</v>
       </c>
       <c r="D151" t="n">
-        <v>3.97614584591496</v>
+        <v>3.9761458459</v>
       </c>
       <c r="E151" t="n">
         <v> 14704</v>
@@ -3743,7 +3743,7 @@
         <v>2015</v>
       </c>
       <c r="D152" t="n">
-        <v>2.03075721871388</v>
+        <v>2.0307572187</v>
       </c>
       <c r="E152" t="n">
         <v>  6869</v>
@@ -3760,7 +3760,7 @@
         <v>2016</v>
       </c>
       <c r="D153" t="n">
-        <v>1.84150933152073</v>
+        <v>1.8415093315</v>
       </c>
       <c r="E153" t="n">
         <v>  6810</v>
@@ -3777,7 +3777,7 @@
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>3.33926376261075</v>
+        <v>3.3392637626</v>
       </c>
       <c r="E154" t="n">
         <v> 11295</v>
@@ -3794,7 +3794,7 @@
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>2.88935788653437</v>
+        <v>2.8893578865</v>
       </c>
       <c r="E155" t="n">
         <v> 10685</v>
@@ -3811,7 +3811,7 @@
         <v>2015</v>
       </c>
       <c r="D156" t="n">
-        <v>2.76601609234052</v>
+        <v>2.7660160923</v>
       </c>
       <c r="E156" t="n">
         <v>  9356</v>
@@ -3828,7 +3828,7 @@
         <v>2016</v>
       </c>
       <c r="D157" t="n">
-        <v>2.5467452106112</v>
+        <v>2.5467452106</v>
       </c>
       <c r="E157" t="n">
         <v>  9418</v>
@@ -3845,7 +3845,7 @@
         <v>2015</v>
       </c>
       <c r="D158" t="n">
-        <v>2.08190309130632</v>
+        <v>2.0819030913</v>
       </c>
       <c r="E158" t="n">
         <v>  7042</v>
@@ -3862,7 +3862,7 @@
         <v>2016</v>
       </c>
       <c r="D159" t="n">
-        <v>1.92398515327019</v>
+        <v>1.9239851533</v>
       </c>
       <c r="E159" t="n">
         <v>  7115</v>
@@ -3931,7 +3931,7 @@
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>9.78364370925875</v>
+        <v>9.7836437093</v>
       </c>
       <c r="E164" t="n">
         <v> 33093</v>
@@ -3948,7 +3948,7 @@
         <v>2016</v>
       </c>
       <c r="D165" t="n">
-        <v>8.79570837391702</v>
+        <v>8.7957083739</v>
       </c>
       <c r="E165" t="n">
         <v> 32527</v>
@@ -3965,7 +3965,7 @@
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>3.52019598241755</v>
+        <v>3.5201959824</v>
       </c>
       <c r="E166" t="n">
         <v> 11907</v>
@@ -3982,7 +3982,7 @@
         <v>2016</v>
       </c>
       <c r="D167" t="n">
-        <v>3.15057639082938</v>
+        <v>3.1505763908</v>
       </c>
       <c r="E167" t="n">
         <v> 11651</v>
@@ -4025,7 +4025,7 @@
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>2.40799498419341</v>
+        <v>2.4079949842</v>
       </c>
       <c r="E170" t="n">
         <v>  8145</v>
@@ -4042,7 +4042,7 @@
         <v>2016</v>
       </c>
       <c r="D171" t="n">
-        <v>1.91479112723911</v>
+        <v>1.9147911272</v>
       </c>
       <c r="E171" t="n">
         <v>  7081</v>
@@ -4059,7 +4059,7 @@
         <v>2015</v>
       </c>
       <c r="D172" t="n">
-        <v>4.87038789068167</v>
+        <v>4.8703878907</v>
       </c>
       <c r="E172" t="n">
         <v> 16474</v>
@@ -4076,7 +4076,7 @@
         <v>2016</v>
       </c>
       <c r="D173" t="n">
-        <v>4.16354172943095</v>
+        <v>4.1635417294</v>
       </c>
       <c r="E173" t="n">
         <v> 15397</v>
@@ -4093,7 +4093,7 @@
         <v>2015</v>
       </c>
       <c r="D174" t="n">
-        <v>5.1967754244508</v>
+        <v>5.1967754245</v>
       </c>
       <c r="E174" t="n">
         <v> 17578</v>
@@ -4110,7 +4110,7 @@
         <v>2016</v>
       </c>
       <c r="D175" t="n">
-        <v>4.7992815882276</v>
+        <v>4.7992815882</v>
       </c>
       <c r="E175" t="n">
         <v> 17748</v>
@@ -4127,7 +4127,7 @@
         <v>2015</v>
       </c>
       <c r="D176" t="n">
-        <v>5.04304216579143</v>
+        <v>5.0430421658</v>
       </c>
       <c r="E176" t="n">
         <v> 17058</v>
@@ -4144,7 +4144,7 @@
         <v>2016</v>
       </c>
       <c r="D177" t="n">
-        <v>4.35364173825019</v>
+        <v>4.3536417383</v>
       </c>
       <c r="E177" t="n">
         <v> 16100</v>
@@ -4161,7 +4161,7 @@
         <v>2015</v>
       </c>
       <c r="D178" t="n">
-        <v>2.37192679658486</v>
+        <v>2.3719267966</v>
       </c>
       <c r="E178" t="n">
         <v>  8023</v>
@@ -4178,7 +4178,7 @@
         <v>2016</v>
       </c>
       <c r="D179" t="n">
-        <v>2.16951973080629</v>
+        <v>2.1695197308</v>
       </c>
       <c r="E179" t="n">
         <v>  8023</v>
@@ -4195,7 +4195,7 @@
         <v>2015</v>
       </c>
       <c r="D180" t="n">
-        <v>2.23977532231421</v>
+        <v>2.2397753223</v>
       </c>
       <c r="E180" t="n">
         <v>  7576</v>
@@ -4212,7 +4212,7 @@
         <v>2016</v>
       </c>
       <c r="D181" t="n">
-        <v>2.02782356491542</v>
+        <v>2.0278235649</v>
       </c>
       <c r="E181" t="n">
         <v>  7499</v>
@@ -4229,7 +4229,7 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>6.13898291550352</v>
+        <v>6.1389829155</v>
       </c>
       <c r="E182" t="n">
         <v> 20765</v>
@@ -4246,7 +4246,7 @@
         <v>2016</v>
       </c>
       <c r="D183" t="n">
-        <v>5.61511619222145</v>
+        <v>5.6151161922</v>
       </c>
       <c r="E183" t="n">
         <v> 20765</v>
@@ -4263,7 +4263,7 @@
         <v>2015</v>
       </c>
       <c r="D184" t="n">
-        <v>3.52433495476607</v>
+        <v>3.5243349548</v>
       </c>
       <c r="E184" t="n">
         <v> 11921</v>
@@ -4280,7 +4280,7 @@
         <v>2016</v>
       </c>
       <c r="D185" t="n">
-        <v>3.0824324331872</v>
+        <v>3.0824324332</v>
       </c>
       <c r="E185" t="n">
         <v> 11399</v>
@@ -4297,7 +4297,7 @@
         <v>2015</v>
       </c>
       <c r="D186" t="n">
-        <v>4.92389889033042</v>
+        <v>4.9238988903</v>
       </c>
       <c r="E186" t="n">
         <v> 16655</v>
@@ -4314,7 +4314,7 @@
         <v>2016</v>
       </c>
       <c r="D187" t="n">
-        <v>4.3744635030853</v>
+        <v>4.3744635031</v>
       </c>
       <c r="E187" t="n">
         <v> 16177</v>
@@ -4331,7 +4331,7 @@
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>9.09568737675806</v>
+        <v>9.0956873768</v>
       </c>
       <c r="E188" t="n">
         <v> 30766</v>
@@ -4348,7 +4348,7 @@
         <v>2016</v>
       </c>
       <c r="D189" t="n">
-        <v>8.27759796581222</v>
+        <v>8.2775979658</v>
       </c>
       <c r="E189" t="n">
         <v> 30611</v>
@@ -4365,7 +4365,7 @@
         <v>2015</v>
       </c>
       <c r="D190" t="n">
-        <v>3.36468887846595</v>
+        <v>3.3646888785</v>
       </c>
       <c r="E190" t="n">
         <v> 11381</v>
@@ -4382,7 +4382,7 @@
         <v>2016</v>
       </c>
       <c r="D191" t="n">
-        <v>3.07675377005035</v>
+        <v>3.0767537701</v>
       </c>
       <c r="E191" t="n">
         <v> 11378</v>
@@ -4399,7 +4399,7 @@
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>7.36559693507607</v>
+        <v>7.3655969351</v>
       </c>
       <c r="E192" t="n">
         <v> 24914</v>
@@ -4416,7 +4416,7 @@
         <v>2016</v>
       </c>
       <c r="D193" t="n">
-        <v>4.82253706583565</v>
+        <v>4.8225370658</v>
       </c>
       <c r="E193" t="n">
         <v> 17834</v>
@@ -4433,7 +4433,7 @@
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>6.18480725221929</v>
+        <v>6.1848072522</v>
       </c>
       <c r="E194" t="n">
         <v> 20920</v>
@@ -4450,7 +4450,7 @@
         <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>5.20841574661099</v>
+        <v>5.2084157466</v>
       </c>
       <c r="E195" t="n">
         <v> 19261</v>
@@ -4467,7 +4467,7 @@
         <v>2015</v>
       </c>
       <c r="D196" t="n">
-        <v>2.69742740770788</v>
+        <v>2.6974274077</v>
       </c>
       <c r="E196" t="n">
         <v>  9124</v>
@@ -4484,7 +4484,7 @@
         <v>2016</v>
       </c>
       <c r="D197" t="n">
-        <v>2.24442400170662</v>
+        <v>2.2444240017</v>
       </c>
       <c r="E197" t="n">
         <v>  8300</v>
@@ -4501,7 +4501,7 @@
         <v>2015</v>
       </c>
       <c r="D198" t="n">
-        <v>6.73085596134209</v>
+        <v>6.7308559613</v>
       </c>
       <c r="E198" t="n">
         <v> 22767</v>
@@ -4518,7 +4518,7 @@
         <v>2016</v>
       </c>
       <c r="D199" t="n">
-        <v>5.55887038591362</v>
+        <v>5.5588703859</v>
       </c>
       <c r="E199" t="n">
         <v> 20557</v>
@@ -4535,7 +4535,7 @@
         <v>2015</v>
       </c>
       <c r="D200" t="n">
-        <v>3.42529525928359</v>
+        <v>3.4252952593</v>
       </c>
       <c r="E200" t="n">
         <v> 11586</v>
@@ -4552,7 +4552,7 @@
         <v>2016</v>
       </c>
       <c r="D201" t="n">
-        <v>3.11650441200829</v>
+        <v>3.116504412</v>
       </c>
       <c r="E201" t="n">
         <v> 11525</v>
@@ -4569,7 +4569,7 @@
         <v>2015</v>
       </c>
       <c r="D202" t="n">
-        <v>5.32892689872145</v>
+        <v>5.3289268987</v>
       </c>
       <c r="E202" t="n">
         <v> 18025</v>
@@ -4586,7 +4586,7 @@
         <v>2016</v>
       </c>
       <c r="D203" t="n">
-        <v>4.86958884611239</v>
+        <v>4.8695888461</v>
       </c>
       <c r="E203" t="n">
         <v> 18008</v>
@@ -4603,7 +4603,7 @@
         <v>2015</v>
       </c>
       <c r="D204" t="n">
-        <v>2.43874163592528</v>
+        <v>2.4387416359</v>
       </c>
       <c r="E204" t="n">
         <v>  8249</v>
@@ -4620,7 +4620,7 @@
         <v>2016</v>
       </c>
       <c r="D205" t="n">
-        <v>2.18898943298977</v>
+        <v>2.188989433</v>
       </c>
       <c r="E205" t="n">
         <v>  8095</v>
@@ -4637,7 +4637,7 @@
         <v>2015</v>
       </c>
       <c r="D206" t="n">
-        <v>4.34000814830685</v>
+        <v>4.3400081483</v>
       </c>
       <c r="E206" t="n">
         <v> 14680</v>
@@ -4654,7 +4654,7 @@
         <v>2016</v>
       </c>
       <c r="D207" t="n">
-        <v>3.82228111615941</v>
+        <v>3.8222811162</v>
       </c>
       <c r="E207" t="n">
         <v> 14135</v>
@@ -4671,7 +4671,7 @@
         <v>2015</v>
       </c>
       <c r="D208" t="n">
-        <v>2.63386461806987</v>
+        <v>2.6338646181</v>
       </c>
       <c r="E208" t="n">
         <v>  8909</v>
@@ -4688,7 +4688,7 @@
         <v>2016</v>
       </c>
       <c r="D209" t="n">
-        <v>2.40910523267522</v>
+        <v>2.4091052327</v>
       </c>
       <c r="E209" t="n">
         <v>  8909</v>
@@ -4705,7 +4705,7 @@
         <v>2015</v>
       </c>
       <c r="D210" t="n">
-        <v>3.97341345458065</v>
+        <v>3.9734134546</v>
       </c>
       <c r="E210" t="n">
         <v> 13440</v>
@@ -4722,7 +4722,7 @@
         <v>2016</v>
       </c>
       <c r="D211" t="n">
-        <v>3.63434440758277</v>
+        <v>3.6343444076</v>
       </c>
       <c r="E211" t="n">
         <v> 13440</v>
@@ -4739,7 +4739,7 @@
         <v>2015</v>
       </c>
       <c r="D212" t="n">
-        <v>3.71324947838787</v>
+        <v>3.7132494784</v>
       </c>
       <c r="E212" t="n">
         <v> 12560</v>
@@ -4756,7 +4756,7 @@
         <v>2016</v>
       </c>
       <c r="D213" t="n">
-        <v>3.3528449635133</v>
+        <v>3.3528449635</v>
       </c>
       <c r="E213" t="n">
         <v> 12399</v>
@@ -4773,7 +4773,7 @@
         <v>2015</v>
       </c>
       <c r="D214" t="n">
-        <v>3.43120807692434</v>
+        <v>3.4312080769</v>
       </c>
       <c r="E214" t="n">
         <v> 11606</v>
@@ -4790,7 +4790,7 @@
         <v>2016</v>
       </c>
       <c r="D215" t="n">
-        <v>2.8844904609885</v>
+        <v>2.884490461</v>
       </c>
       <c r="E215" t="n">
         <v> 10667</v>
@@ -4807,7 +4807,7 @@
         <v>2015</v>
       </c>
       <c r="D216" t="n">
-        <v>2.19897688059307</v>
+        <v>2.1989768806</v>
       </c>
       <c r="E216" t="n">
         <v>  7438</v>
@@ -4824,7 +4824,7 @@
         <v>2016</v>
       </c>
       <c r="D217" t="n">
-        <v>2.03052769021868</v>
+        <v>2.0305276902</v>
       </c>
       <c r="E217" t="n">
         <v>  7509</v>
@@ -4841,7 +4841,7 @@
         <v>2015</v>
       </c>
       <c r="D218" t="n">
-        <v>3.40430475665895</v>
+        <v>3.4043047567</v>
       </c>
       <c r="E218" t="n">
         <v> 11515</v>
@@ -4858,7 +4858,7 @@
         <v>2016</v>
       </c>
       <c r="D219" t="n">
-        <v>3.08540697102079</v>
+        <v>3.085406971</v>
       </c>
       <c r="E219" t="n">
         <v> 11410</v>
@@ -4875,7 +4875,7 @@
         <v>2015</v>
       </c>
       <c r="D220" t="n">
-        <v>1.53289797336315</v>
+        <v>1.5328979734</v>
       </c>
       <c r="E220" t="n">
         <v>  5185</v>
@@ -4892,7 +4892,7 @@
         <v>2016</v>
       </c>
       <c r="D221" t="n">
-        <v>1.38802751816387</v>
+        <v>1.3880275182</v>
       </c>
       <c r="E221" t="n">
         <v>  5133</v>
@@ -4909,7 +4909,7 @@
         <v>2015</v>
       </c>
       <c r="D222" t="n">
-        <v>3.37917528168578</v>
+        <v>3.3791752817</v>
       </c>
       <c r="E222" t="n">
         <v> 11430</v>
@@ -4926,7 +4926,7 @@
         <v>2016</v>
       </c>
       <c r="D223" t="n">
-        <v>3.39881509366874</v>
+        <v>3.3988150937</v>
       </c>
       <c r="E223" t="n">
         <v> 12569</v>
@@ -4943,7 +4943,7 @@
         <v>2015</v>
       </c>
       <c r="D224" t="n">
-        <v>4.15375439262338</v>
+        <v>4.1537543926</v>
       </c>
       <c r="E224" t="n">
         <v> 14050</v>
@@ -4960,7 +4960,7 @@
         <v>2016</v>
       </c>
       <c r="D225" t="n">
-        <v>3.19519445833319</v>
+        <v>3.1951944583</v>
       </c>
       <c r="E225" t="n">
         <v> 11816</v>
@@ -5002,10 +5002,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>11.9778903357392</v>
+        <v>11.9778903357</v>
       </c>
       <c r="D2" t="n">
-        <v>10.9557636661619</v>
+        <v>10.9557636662</v>
       </c>
     </row>
     <row r="3">
@@ -5016,10 +5016,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1342737953549</v>
+        <v>10.1342737954</v>
       </c>
       <c r="D3" t="n">
-        <v>9.04962573989323</v>
+        <v>9.0496257399</v>
       </c>
     </row>
     <row r="4">
@@ -5030,10 +5030,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>5.83388152524107</v>
+        <v>5.8338815252</v>
       </c>
       <c r="D4" t="n">
-        <v>5.04157121539979</v>
+        <v>5.0415712154</v>
       </c>
     </row>
     <row r="5">
@@ -5044,10 +5044,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>2.96320856065937</v>
+        <v>2.9632085607</v>
       </c>
       <c r="D5" t="n">
-        <v>2.5829804896749</v>
+        <v>2.5829804897</v>
       </c>
     </row>
     <row r="6">
@@ -5058,10 +5058,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0547146971409</v>
+        <v>4.0547146971</v>
       </c>
       <c r="D6" t="n">
-        <v>3.70870785342245</v>
+        <v>3.7087078534</v>
       </c>
     </row>
     <row r="7">
@@ -5072,10 +5072,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>3.54591673915479</v>
+        <v>3.5459167392</v>
       </c>
       <c r="D7" t="n">
-        <v>3.19140868290862</v>
+        <v>3.1914086829</v>
       </c>
     </row>
     <row r="8">
@@ -5086,10 +5086,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>3.13261078606671</v>
+        <v>3.1326107861</v>
       </c>
       <c r="D8" t="n">
-        <v>2.77848874910067</v>
+        <v>2.7784887491</v>
       </c>
     </row>
     <row r="9">
@@ -5100,10 +5100,10 @@
         <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>5.20327952385562</v>
+        <v>5.2032795239</v>
       </c>
       <c r="D9" t="n">
-        <v>4.75195939542054</v>
+        <v>4.7519593954</v>
       </c>
     </row>
     <row r="10">
@@ -5114,10 +5114,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>4.82249406779164</v>
+        <v>4.8224940678</v>
       </c>
       <c r="D10" t="n">
-        <v>4.40502011901215</v>
+        <v>4.405020119</v>
       </c>
     </row>
     <row r="11">
@@ -5128,10 +5128,10 @@
         <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>2.88190731809912</v>
+        <v>2.8819073181</v>
       </c>
       <c r="D11" t="n">
-        <v>2.60001647908544</v>
+        <v>2.6000164791</v>
       </c>
     </row>
     <row r="12">
@@ -5142,10 +5142,10 @@
         <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>2.8547083569517</v>
+        <v>2.854708357</v>
       </c>
       <c r="D12" t="n">
-        <v>2.62678731958773</v>
+        <v>2.6267873196</v>
       </c>
     </row>
     <row r="13">
@@ -5156,10 +5156,10 @@
         <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>3.86964350498558</v>
+        <v>3.869643505</v>
       </c>
       <c r="D13" t="n">
-        <v>3.3030890579333</v>
+        <v>3.3030890579</v>
       </c>
     </row>
     <row r="14">
@@ -5170,10 +5170,10 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>2.83223964991686</v>
+        <v>2.8322396499</v>
       </c>
       <c r="D14" t="n">
-        <v>2.59055204052403</v>
+        <v>2.5905520405</v>
       </c>
     </row>
     <row r="15">
@@ -5184,10 +5184,10 @@
         <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>2.44613265797621</v>
+        <v>2.446132658</v>
       </c>
       <c r="D15" t="n">
-        <v>2.15275415392607</v>
+        <v>2.1527541539</v>
       </c>
     </row>
     <row r="16">
@@ -5198,10 +5198,10 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>3.12758489107208</v>
+        <v>3.1275848911</v>
       </c>
       <c r="D16" t="n">
-        <v>2.85853085807719</v>
+        <v>2.8585308581</v>
       </c>
     </row>
     <row r="17">
@@ -5212,10 +5212,10 @@
         <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>2.70600099328696</v>
+        <v>2.7060009933</v>
       </c>
       <c r="D17" t="n">
-        <v>2.65815517310555</v>
+        <v>2.6581551731</v>
       </c>
     </row>
     <row r="18">
@@ -5236,10 +5236,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>8.79827264942859</v>
+        <v>8.7982726494</v>
       </c>
       <c r="D19" t="n">
-        <v>8.02232853718438</v>
+        <v>8.0223285372</v>
       </c>
     </row>
     <row r="20">
@@ -5250,10 +5250,10 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>3.53320418122719</v>
+        <v>3.5332041812</v>
       </c>
       <c r="D20" t="n">
-        <v>3.37555961606069</v>
+        <v>3.3755596161</v>
       </c>
     </row>
     <row r="21">
@@ -5264,10 +5264,10 @@
         <v>44</v>
       </c>
       <c r="C21" t="n">
-        <v>5.82353409436977</v>
+        <v>5.8235340944</v>
       </c>
       <c r="D21" t="n">
-        <v>5.13351147571066</v>
+        <v>5.1335114757</v>
       </c>
     </row>
     <row r="22">
@@ -5278,10 +5278,10 @@
         <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>6.30720257738271</v>
+        <v>6.3072025774</v>
       </c>
       <c r="D22" t="n">
-        <v>5.52858418251709</v>
+        <v>5.5285841825</v>
       </c>
     </row>
     <row r="23">
@@ -5292,10 +5292,10 @@
         <v>48</v>
       </c>
       <c r="C23" t="n">
-        <v>4.24244665723455</v>
+        <v>4.2424466572</v>
       </c>
       <c r="D23" t="n">
-        <v>3.73683075657636</v>
+        <v>3.7368307566</v>
       </c>
     </row>
     <row r="24">
@@ -5306,10 +5306,10 @@
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>2.47362726000568</v>
+        <v>2.47362726</v>
       </c>
       <c r="D24" t="n">
-        <v>2.24090863881238</v>
+        <v>2.2409086388</v>
       </c>
     </row>
     <row r="25">
@@ -5320,10 +5320,10 @@
         <v>52</v>
       </c>
       <c r="C25" t="n">
-        <v>3.90807681965042</v>
+        <v>3.9080768197</v>
       </c>
       <c r="D25" t="n">
-        <v>3.5745832383807</v>
+        <v>3.5745832384</v>
       </c>
     </row>
     <row r="26">
@@ -5334,10 +5334,10 @@
         <v>54</v>
       </c>
       <c r="C26" t="n">
-        <v>5.27778102612901</v>
+        <v>5.2777810261</v>
       </c>
       <c r="D26" t="n">
-        <v>4.82848614150282</v>
+        <v>4.8284861415</v>
       </c>
     </row>
     <row r="27">
@@ -5348,10 +5348,10 @@
         <v>56</v>
       </c>
       <c r="C27" t="n">
-        <v>5.33099638489571</v>
+        <v>5.3309963849</v>
       </c>
       <c r="D27" t="n">
-        <v>5.28467208016295</v>
+        <v>5.2846720802</v>
       </c>
     </row>
     <row r="28">
@@ -5362,10 +5362,10 @@
         <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>1.49949055369294</v>
+        <v>1.4994905537</v>
       </c>
       <c r="D28" t="n">
-        <v>1.31717943521843</v>
+        <v>1.3171794352</v>
       </c>
     </row>
     <row r="29">
@@ -5376,10 +5376,10 @@
         <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>4.05530597890497</v>
+        <v>4.0553059789</v>
       </c>
       <c r="D29" t="n">
-        <v>3.7092486784831</v>
+        <v>3.7092486785</v>
       </c>
     </row>
     <row r="30">
@@ -5390,10 +5390,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>2.19927252147511</v>
+        <v>2.1992725215</v>
       </c>
       <c r="D30" t="n">
-        <v>2.05783935578161</v>
+        <v>2.0578393558</v>
       </c>
     </row>
     <row r="31">
@@ -5404,10 +5404,10 @@
         <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>4.38760633031484</v>
+        <v>4.3876063303</v>
       </c>
       <c r="D31" t="n">
-        <v>3.88501682319506</v>
+        <v>3.8850168232</v>
       </c>
     </row>
     <row r="32">
@@ -5418,10 +5418,10 @@
         <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>2.1809427867888</v>
+        <v>2.1809427868</v>
       </c>
       <c r="D32" t="n">
-        <v>1.99483323621563</v>
+        <v>1.9948332362</v>
       </c>
     </row>
     <row r="33">
@@ -5432,10 +5432,10 @@
         <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>3.54650802091886</v>
+        <v>3.5465080209</v>
       </c>
       <c r="D33" t="n">
-        <v>3.30525235817591</v>
+        <v>3.3052523582</v>
       </c>
     </row>
     <row r="34">
@@ -5446,10 +5446,10 @@
         <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>4.72315873142712</v>
+        <v>4.7231587314</v>
       </c>
       <c r="D34" t="n">
-        <v>4.29117644374486</v>
+        <v>4.2911764437</v>
       </c>
     </row>
     <row r="35">
@@ -5460,10 +5460,10 @@
         <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>1.90244907590971</v>
+        <v>1.9024490759</v>
       </c>
       <c r="D35" t="n">
-        <v>1.72333905576823</v>
+        <v>1.7233390558</v>
       </c>
     </row>
     <row r="36">
@@ -5474,10 +5474,10 @@
         <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>4.56853855012164</v>
+        <v>4.5685385501</v>
       </c>
       <c r="D36" t="n">
-        <v>4.07890260743888</v>
+        <v>4.0789026074</v>
       </c>
     </row>
     <row r="37">
@@ -5488,10 +5488,10 @@
         <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>7.46936688467115</v>
+        <v>7.4693668847</v>
       </c>
       <c r="D37" t="n">
-        <v>6.3306277474643</v>
+        <v>6.3306277475</v>
       </c>
     </row>
     <row r="38">
@@ -5502,10 +5502,10 @@
         <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>4.12419030441965</v>
+        <v>4.1241903044</v>
       </c>
       <c r="D38" t="n">
-        <v>3.65597741000886</v>
+        <v>3.65597741</v>
       </c>
     </row>
     <row r="39">
@@ -5516,10 +5516,10 @@
         <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>3.68812000341471</v>
+        <v>3.6881200034</v>
       </c>
       <c r="D39" t="n">
-        <v>3.4026008690933</v>
+        <v>3.4026008691</v>
       </c>
     </row>
     <row r="40">
@@ -5530,10 +5530,10 @@
         <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>4.03845444862885</v>
+        <v>4.0384544486</v>
       </c>
       <c r="D40" t="n">
-        <v>3.65381410976625</v>
+        <v>3.6538141098</v>
       </c>
     </row>
     <row r="41">
@@ -5544,10 +5544,10 @@
         <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>29.2669691172777</v>
+        <v>29.2669691173</v>
       </c>
       <c r="D41" t="n">
-        <v>30.5547230391369</v>
+        <v>30.5547230391</v>
       </c>
     </row>
     <row r="42">
@@ -5558,10 +5558,10 @@
         <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>3.86254812381668</v>
+        <v>3.8625481238</v>
       </c>
       <c r="D42" t="n">
-        <v>3.65678864759984</v>
+        <v>3.6567886476</v>
       </c>
     </row>
     <row r="43">
@@ -5572,10 +5572,10 @@
         <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>4.88280480772724</v>
+        <v>4.8828048077</v>
       </c>
       <c r="D43" t="n">
-        <v>4.43097972192346</v>
+        <v>4.4309797219</v>
       </c>
     </row>
     <row r="44">
@@ -5596,10 +5596,10 @@
         <v>92</v>
       </c>
       <c r="C45" t="n">
-        <v>3.43800781721119</v>
+        <v>3.4380078172</v>
       </c>
       <c r="D45" t="n">
-        <v>2.53836242217109</v>
+        <v>2.5383624222</v>
       </c>
     </row>
     <row r="46">
@@ -5610,10 +5610,10 @@
         <v>94</v>
       </c>
       <c r="C46" t="n">
-        <v>1.59468691770893</v>
+        <v>1.5946869177</v>
       </c>
       <c r="D46" t="n">
-        <v>1.43832424880452</v>
+        <v>1.4383242488</v>
       </c>
     </row>
     <row r="47">
@@ -5624,10 +5624,10 @@
         <v>96</v>
       </c>
       <c r="C47" t="n">
-        <v>5.52730193056844</v>
+        <v>5.5273019306</v>
       </c>
       <c r="D47" t="n">
-        <v>5.03697420238425</v>
+        <v>5.0369742024</v>
       </c>
     </row>
     <row r="48">
@@ -5638,10 +5638,10 @@
         <v>98</v>
       </c>
       <c r="C48" t="n">
-        <v>11.7650289006724</v>
+        <v>11.7650289007</v>
       </c>
       <c r="D48" t="n">
-        <v>10.6848103107752</v>
+        <v>10.6848103108</v>
       </c>
     </row>
     <row r="49">
@@ -5652,10 +5652,10 @@
         <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>4.95878451441081</v>
+        <v>4.9587845144</v>
       </c>
       <c r="D49" t="n">
-        <v>4.40069351852693</v>
+        <v>4.4006935185</v>
       </c>
     </row>
     <row r="50">
@@ -5666,10 +5666,10 @@
         <v>102</v>
       </c>
       <c r="C50" t="n">
-        <v>5.78184873000252</v>
+        <v>5.78184873</v>
       </c>
       <c r="D50" t="n">
-        <v>5.25898288978197</v>
+        <v>5.2589828898</v>
       </c>
     </row>
     <row r="51">
@@ -5680,10 +5680,10 @@
         <v>104</v>
       </c>
       <c r="C51" t="n">
-        <v>3.10659438844743</v>
+        <v>3.1065943884</v>
       </c>
       <c r="D51" t="n">
-        <v>3.23900128824601</v>
+        <v>3.2390012882</v>
       </c>
     </row>
     <row r="52">
@@ -5694,10 +5694,10 @@
         <v>106</v>
       </c>
       <c r="C52" t="n">
-        <v>1.56926180185373</v>
+        <v>1.5692618019</v>
       </c>
       <c r="D52" t="n">
-        <v>1.4339976483193</v>
+        <v>1.4339976483</v>
       </c>
     </row>
     <row r="53">
@@ -5708,10 +5708,10 @@
         <v>108</v>
       </c>
       <c r="C53" t="n">
-        <v>6.01067477269935</v>
+        <v>6.0106747727</v>
       </c>
       <c r="D53" t="n">
-        <v>4.50669523041477</v>
+        <v>4.5066952304</v>
       </c>
     </row>
     <row r="54">
@@ -5722,10 +5722,10 @@
         <v>110</v>
       </c>
       <c r="C54" t="n">
-        <v>1.83001705981058</v>
+        <v>1.8300170598</v>
       </c>
       <c r="D54" t="n">
-        <v>1.78715641292519</v>
+        <v>1.7871564129</v>
       </c>
     </row>
     <row r="55">
@@ -5736,10 +5736,10 @@
         <v>112</v>
       </c>
       <c r="C55" t="n">
-        <v>3.48353651304493</v>
+        <v>3.483536513</v>
       </c>
       <c r="D55" t="n">
-        <v>3.05295746738166</v>
+        <v>3.0529574674</v>
       </c>
     </row>
     <row r="56">
@@ -5750,10 +5750,10 @@
         <v>114</v>
       </c>
       <c r="C56" t="n">
-        <v>2.47599238706198</v>
+        <v>2.4759923871</v>
       </c>
       <c r="D56" t="n">
-        <v>2.37638531650576</v>
+        <v>2.3763853165</v>
       </c>
     </row>
     <row r="57">
@@ -5764,10 +5764,10 @@
         <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>6.99988916399599</v>
+        <v>6.999889164</v>
       </c>
       <c r="D57" t="n">
-        <v>6.34874538699615</v>
+        <v>6.348745387</v>
       </c>
     </row>
     <row r="58">
@@ -5778,10 +5778,10 @@
         <v>118</v>
       </c>
       <c r="C58" t="n">
-        <v>6.35539204115479</v>
+        <v>6.3553920412</v>
       </c>
       <c r="D58" t="n">
-        <v>5.60997835414525</v>
+        <v>5.6099783541</v>
       </c>
     </row>
     <row r="59">
@@ -5792,10 +5792,10 @@
         <v>120</v>
       </c>
       <c r="C59" t="n">
-        <v>3.65116489316005</v>
+        <v>3.6511648932</v>
       </c>
       <c r="D59" t="n">
-        <v>3.18410754458982</v>
+        <v>3.1841075446</v>
       </c>
     </row>
     <row r="60">
@@ -5806,10 +5806,10 @@
         <v>122</v>
       </c>
       <c r="C60" t="n">
-        <v>3.79809841153256</v>
+        <v>3.7980984115</v>
       </c>
       <c r="D60" t="n">
-        <v>3.39502931824417</v>
+        <v>3.3950293182</v>
       </c>
     </row>
     <row r="61">
@@ -5820,10 +5820,10 @@
         <v>124</v>
       </c>
       <c r="C61" t="n">
-        <v>3.5816892858813</v>
+        <v>3.5816892859</v>
       </c>
       <c r="D61" t="n">
-        <v>2.71926840495925</v>
+        <v>2.719268405</v>
       </c>
     </row>
     <row r="62">
@@ -5834,10 +5834,10 @@
         <v>126</v>
       </c>
       <c r="C62" t="n">
-        <v>5.63077623928148</v>
+        <v>5.6307762393</v>
       </c>
       <c r="D62" t="n">
-        <v>4.40880589443672</v>
+        <v>4.4088058944</v>
       </c>
     </row>
     <row r="63">
@@ -5848,10 +5848,10 @@
         <v>128</v>
       </c>
       <c r="C63" t="n">
-        <v>5.18051517593875</v>
+        <v>5.1805151759</v>
       </c>
       <c r="D63" t="n">
-        <v>4.4655925258052</v>
+        <v>4.4655925258</v>
       </c>
     </row>
     <row r="64">
@@ -5862,10 +5862,10 @@
         <v>130</v>
       </c>
       <c r="C64" t="n">
-        <v>2.49668724880459</v>
+        <v>2.4966872488</v>
       </c>
       <c r="D64" t="n">
-        <v>2.21900522385597</v>
+        <v>2.2190052239</v>
       </c>
     </row>
     <row r="65">
@@ -5876,10 +5876,10 @@
         <v>132</v>
       </c>
       <c r="C65" t="n">
-        <v>2.45352368002715</v>
+        <v>2.45352368</v>
       </c>
       <c r="D65" t="n">
-        <v>2.14464177801629</v>
+        <v>2.144641778</v>
       </c>
     </row>
     <row r="66">
@@ -5890,10 +5890,10 @@
         <v>134</v>
       </c>
       <c r="C66" t="n">
-        <v>2.47333161912364</v>
+        <v>2.4733316191</v>
       </c>
       <c r="D66" t="n">
-        <v>2.27741433040641</v>
+        <v>2.2774143304</v>
       </c>
     </row>
     <row r="67">
@@ -5904,10 +5904,10 @@
         <v>136</v>
       </c>
       <c r="C67" t="n">
-        <v>6.28296002505566</v>
+        <v>6.2829600251</v>
       </c>
       <c r="D67" t="n">
-        <v>5.55156924759481</v>
+        <v>5.5515692476</v>
       </c>
     </row>
     <row r="68">
@@ -5918,10 +5918,10 @@
         <v>138</v>
       </c>
       <c r="C68" t="n">
-        <v>3.03534493587646</v>
+        <v>3.0353449359</v>
       </c>
       <c r="D68" t="n">
-        <v>2.56729656291598</v>
+        <v>2.5672965629</v>
       </c>
     </row>
     <row r="69">
@@ -5942,10 +5942,10 @@
         <v>142</v>
       </c>
       <c r="C70" t="n">
-        <v>3.44658140279027</v>
+        <v>3.4465814028</v>
       </c>
       <c r="D70" t="n">
-        <v>3.05917695557916</v>
+        <v>3.0591769556</v>
       </c>
     </row>
     <row r="71">
@@ -5956,10 +5956,10 @@
         <v>144</v>
       </c>
       <c r="C71" t="n">
-        <v>2.48072264117457</v>
+        <v>2.4807226412</v>
       </c>
       <c r="D71" t="n">
-        <v>2.16465230526042</v>
+        <v>2.1646523053</v>
       </c>
     </row>
     <row r="72">
@@ -5970,10 +5970,10 @@
         <v>146</v>
       </c>
       <c r="C72" t="n">
-        <v>6.98067250666357</v>
+        <v>6.9806725067</v>
       </c>
       <c r="D72" t="n">
-        <v>6.37173045207387</v>
+        <v>6.3717304521</v>
       </c>
     </row>
     <row r="73">
@@ -5984,10 +5984,10 @@
         <v>148</v>
       </c>
       <c r="C73" t="n">
-        <v>2.78671095408313</v>
+        <v>2.7867109541</v>
       </c>
       <c r="D73" t="n">
-        <v>2.55864336194555</v>
+        <v>2.5586433619</v>
       </c>
     </row>
     <row r="74">
@@ -5998,10 +5998,10 @@
         <v>150</v>
       </c>
       <c r="C74" t="n">
-        <v>5.96248530892728</v>
+        <v>5.9624853089</v>
       </c>
       <c r="D74" t="n">
-        <v>5.44746042341926</v>
+        <v>5.4474604234</v>
       </c>
     </row>
     <row r="75">
@@ -6012,10 +6012,10 @@
         <v>152</v>
       </c>
       <c r="C75" t="n">
-        <v>3.19292152600231</v>
+        <v>3.192921526</v>
       </c>
       <c r="D75" t="n">
-        <v>2.83770909324208</v>
+        <v>2.8377090932</v>
       </c>
     </row>
     <row r="76">
@@ -6026,10 +6026,10 @@
         <v>154</v>
       </c>
       <c r="C76" t="n">
-        <v>4.4626991143523</v>
+        <v>4.4626991144</v>
       </c>
       <c r="D76" t="n">
-        <v>3.97614584591496</v>
+        <v>3.9761458459</v>
       </c>
     </row>
     <row r="77">
@@ -6040,10 +6040,10 @@
         <v>156</v>
       </c>
       <c r="C77" t="n">
-        <v>2.03075721871388</v>
+        <v>2.0307572187</v>
       </c>
       <c r="D77" t="n">
-        <v>1.84150933152073</v>
+        <v>1.8415093315</v>
       </c>
     </row>
     <row r="78">
@@ -6054,10 +6054,10 @@
         <v>158</v>
       </c>
       <c r="C78" t="n">
-        <v>3.33926376261075</v>
+        <v>3.3392637626</v>
       </c>
       <c r="D78" t="n">
-        <v>2.88935788653437</v>
+        <v>2.8893578865</v>
       </c>
     </row>
     <row r="79">
@@ -6068,10 +6068,10 @@
         <v>160</v>
       </c>
       <c r="C79" t="n">
-        <v>2.76601609234052</v>
+        <v>2.7660160923</v>
       </c>
       <c r="D79" t="n">
-        <v>2.5467452106112</v>
+        <v>2.5467452106</v>
       </c>
     </row>
     <row r="80">
@@ -6082,10 +6082,10 @@
         <v>162</v>
       </c>
       <c r="C80" t="n">
-        <v>2.08190309130632</v>
+        <v>2.0819030913</v>
       </c>
       <c r="D80" t="n">
-        <v>1.92398515327019</v>
+        <v>1.9239851533</v>
       </c>
     </row>
     <row r="81">
@@ -6116,10 +6116,10 @@
         <v>168</v>
       </c>
       <c r="C83" t="n">
-        <v>9.78364370925875</v>
+        <v>9.7836437093</v>
       </c>
       <c r="D83" t="n">
-        <v>8.79570837391702</v>
+        <v>8.7957083739</v>
       </c>
     </row>
     <row r="84">
@@ -6130,10 +6130,10 @@
         <v>170</v>
       </c>
       <c r="C84" t="n">
-        <v>3.52019598241755</v>
+        <v>3.5201959824</v>
       </c>
       <c r="D84" t="n">
-        <v>3.15057639082938</v>
+        <v>3.1505763908</v>
       </c>
     </row>
     <row r="85">
@@ -6154,10 +6154,10 @@
         <v>174</v>
       </c>
       <c r="C86" t="n">
-        <v>2.40799498419341</v>
+        <v>2.4079949842</v>
       </c>
       <c r="D86" t="n">
-        <v>1.91479112723911</v>
+        <v>1.9147911272</v>
       </c>
     </row>
     <row r="87">
@@ -6168,10 +6168,10 @@
         <v>176</v>
       </c>
       <c r="C87" t="n">
-        <v>4.87038789068167</v>
+        <v>4.8703878907</v>
       </c>
       <c r="D87" t="n">
-        <v>4.16354172943095</v>
+        <v>4.1635417294</v>
       </c>
     </row>
     <row r="88">
@@ -6182,10 +6182,10 @@
         <v>178</v>
       </c>
       <c r="C88" t="n">
-        <v>5.1967754244508</v>
+        <v>5.1967754245</v>
       </c>
       <c r="D88" t="n">
-        <v>4.7992815882276</v>
+        <v>4.7992815882</v>
       </c>
     </row>
     <row r="89">
@@ -6196,10 +6196,10 @@
         <v>180</v>
       </c>
       <c r="C89" t="n">
-        <v>5.04304216579143</v>
+        <v>5.0430421658</v>
       </c>
       <c r="D89" t="n">
-        <v>4.35364173825019</v>
+        <v>4.3536417383</v>
       </c>
     </row>
     <row r="90">
@@ -6210,10 +6210,10 @@
         <v>182</v>
       </c>
       <c r="C90" t="n">
-        <v>2.37192679658486</v>
+        <v>2.3719267966</v>
       </c>
       <c r="D90" t="n">
-        <v>2.16951973080629</v>
+        <v>2.1695197308</v>
       </c>
     </row>
     <row r="91">
@@ -6224,10 +6224,10 @@
         <v>184</v>
       </c>
       <c r="C91" t="n">
-        <v>2.23977532231421</v>
+        <v>2.2397753223</v>
       </c>
       <c r="D91" t="n">
-        <v>2.02782356491542</v>
+        <v>2.0278235649</v>
       </c>
     </row>
     <row r="92">
@@ -6238,10 +6238,10 @@
         <v>186</v>
       </c>
       <c r="C92" t="n">
-        <v>6.13898291550352</v>
+        <v>6.1389829155</v>
       </c>
       <c r="D92" t="n">
-        <v>5.61511619222145</v>
+        <v>5.6151161922</v>
       </c>
     </row>
     <row r="93">
@@ -6252,10 +6252,10 @@
         <v>188</v>
       </c>
       <c r="C93" t="n">
-        <v>3.52433495476607</v>
+        <v>3.5243349548</v>
       </c>
       <c r="D93" t="n">
-        <v>3.0824324331872</v>
+        <v>3.0824324332</v>
       </c>
     </row>
     <row r="94">
@@ -6266,10 +6266,10 @@
         <v>190</v>
       </c>
       <c r="C94" t="n">
-        <v>4.92389889033042</v>
+        <v>4.9238988903</v>
       </c>
       <c r="D94" t="n">
-        <v>4.3744635030853</v>
+        <v>4.3744635031</v>
       </c>
     </row>
     <row r="95">
@@ -6280,10 +6280,10 @@
         <v>192</v>
       </c>
       <c r="C95" t="n">
-        <v>9.09568737675806</v>
+        <v>9.0956873768</v>
       </c>
       <c r="D95" t="n">
-        <v>8.27759796581222</v>
+        <v>8.2775979658</v>
       </c>
     </row>
     <row r="96">
@@ -6294,10 +6294,10 @@
         <v>194</v>
       </c>
       <c r="C96" t="n">
-        <v>3.36468887846595</v>
+        <v>3.3646888785</v>
       </c>
       <c r="D96" t="n">
-        <v>3.07675377005035</v>
+        <v>3.0767537701</v>
       </c>
     </row>
     <row r="97">
@@ -6308,10 +6308,10 @@
         <v>196</v>
       </c>
       <c r="C97" t="n">
-        <v>7.36559693507607</v>
+        <v>7.3655969351</v>
       </c>
       <c r="D97" t="n">
-        <v>4.82253706583565</v>
+        <v>4.8225370658</v>
       </c>
     </row>
     <row r="98">
@@ -6322,10 +6322,10 @@
         <v>198</v>
       </c>
       <c r="C98" t="n">
-        <v>6.18480725221929</v>
+        <v>6.1848072522</v>
       </c>
       <c r="D98" t="n">
-        <v>5.20841574661099</v>
+        <v>5.2084157466</v>
       </c>
     </row>
     <row r="99">
@@ -6336,10 +6336,10 @@
         <v>200</v>
       </c>
       <c r="C99" t="n">
-        <v>2.69742740770788</v>
+        <v>2.6974274077</v>
       </c>
       <c r="D99" t="n">
-        <v>2.24442400170662</v>
+        <v>2.2444240017</v>
       </c>
     </row>
     <row r="100">
@@ -6350,10 +6350,10 @@
         <v>202</v>
       </c>
       <c r="C100" t="n">
-        <v>6.73085596134209</v>
+        <v>6.7308559613</v>
       </c>
       <c r="D100" t="n">
-        <v>5.55887038591362</v>
+        <v>5.5588703859</v>
       </c>
     </row>
     <row r="101">
@@ -6364,10 +6364,10 @@
         <v>204</v>
       </c>
       <c r="C101" t="n">
-        <v>3.42529525928359</v>
+        <v>3.4252952593</v>
       </c>
       <c r="D101" t="n">
-        <v>3.11650441200829</v>
+        <v>3.116504412</v>
       </c>
     </row>
     <row r="102">
@@ -6378,10 +6378,10 @@
         <v>206</v>
       </c>
       <c r="C102" t="n">
-        <v>5.32892689872145</v>
+        <v>5.3289268987</v>
       </c>
       <c r="D102" t="n">
-        <v>4.86958884611239</v>
+        <v>4.8695888461</v>
       </c>
     </row>
     <row r="103">
@@ -6392,10 +6392,10 @@
         <v>208</v>
       </c>
       <c r="C103" t="n">
-        <v>2.43874163592528</v>
+        <v>2.4387416359</v>
       </c>
       <c r="D103" t="n">
-        <v>2.18898943298977</v>
+        <v>2.188989433</v>
       </c>
     </row>
     <row r="104">
@@ -6406,10 +6406,10 @@
         <v>210</v>
       </c>
       <c r="C104" t="n">
-        <v>4.34000814830685</v>
+        <v>4.3400081483</v>
       </c>
       <c r="D104" t="n">
-        <v>3.82228111615941</v>
+        <v>3.8222811162</v>
       </c>
     </row>
     <row r="105">
@@ -6420,10 +6420,10 @@
         <v>212</v>
       </c>
       <c r="C105" t="n">
-        <v>2.63386461806987</v>
+        <v>2.6338646181</v>
       </c>
       <c r="D105" t="n">
-        <v>2.40910523267522</v>
+        <v>2.4091052327</v>
       </c>
     </row>
     <row r="106">
@@ -6434,10 +6434,10 @@
         <v>214</v>
       </c>
       <c r="C106" t="n">
-        <v>3.97341345458065</v>
+        <v>3.9734134546</v>
       </c>
       <c r="D106" t="n">
-        <v>3.63434440758277</v>
+        <v>3.6343444076</v>
       </c>
     </row>
     <row r="107">
@@ -6448,10 +6448,10 @@
         <v>216</v>
       </c>
       <c r="C107" t="n">
-        <v>3.71324947838787</v>
+        <v>3.7132494784</v>
       </c>
       <c r="D107" t="n">
-        <v>3.3528449635133</v>
+        <v>3.3528449635</v>
       </c>
     </row>
     <row r="108">
@@ -6462,10 +6462,10 @@
         <v>218</v>
       </c>
       <c r="C108" t="n">
-        <v>3.43120807692434</v>
+        <v>3.4312080769</v>
       </c>
       <c r="D108" t="n">
-        <v>2.8844904609885</v>
+        <v>2.884490461</v>
       </c>
     </row>
     <row r="109">
@@ -6476,10 +6476,10 @@
         <v>220</v>
       </c>
       <c r="C109" t="n">
-        <v>2.19897688059307</v>
+        <v>2.1989768806</v>
       </c>
       <c r="D109" t="n">
-        <v>2.03052769021868</v>
+        <v>2.0305276902</v>
       </c>
     </row>
     <row r="110">
@@ -6490,10 +6490,10 @@
         <v>222</v>
       </c>
       <c r="C110" t="n">
-        <v>3.40430475665895</v>
+        <v>3.4043047567</v>
       </c>
       <c r="D110" t="n">
-        <v>3.08540697102079</v>
+        <v>3.085406971</v>
       </c>
     </row>
     <row r="111">
@@ -6504,10 +6504,10 @@
         <v>224</v>
       </c>
       <c r="C111" t="n">
-        <v>1.53289797336315</v>
+        <v>1.5328979734</v>
       </c>
       <c r="D111" t="n">
-        <v>1.38802751816387</v>
+        <v>1.3880275182</v>
       </c>
     </row>
     <row r="112">
@@ -6518,10 +6518,10 @@
         <v>226</v>
       </c>
       <c r="C112" t="n">
-        <v>3.37917528168578</v>
+        <v>3.3791752817</v>
       </c>
       <c r="D112" t="n">
-        <v>3.39881509366874</v>
+        <v>3.3988150937</v>
       </c>
     </row>
     <row r="113">
@@ -6532,10 +6532,10 @@
         <v>228</v>
       </c>
       <c r="C113" t="n">
-        <v>4.15375439262338</v>
+        <v>4.1537543926</v>
       </c>
       <c r="D113" t="n">
-        <v>3.19519445833319</v>
+        <v>3.1951944583</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-health-funding/uganda-health-funding.xlsx
+++ b/user-data/uganda-health-funding/uganda-health-funding.xlsx
@@ -748,7 +748,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-health-funding/uganda-health-funding.xlsx
+++ b/user-data/uganda-health-funding/uganda-health-funding.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -34,337 +34,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
@@ -746,22 +1082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1105,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
@@ -777,62 +1113,62 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -870,7 +1206,9 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="n">
         <v>2015</v>
       </c>
@@ -885,7 +1223,9 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="n">
         <v>2016</v>
       </c>
@@ -898,9 +1238,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="n">
         <v>2015</v>
       </c>
@@ -909,9 +1251,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5"/>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" t="n">
         <v>2016</v>
       </c>
@@ -920,9 +1264,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6"/>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" t="n">
         <v>2015</v>
       </c>
@@ -935,9 +1281,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7"/>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" t="n">
         <v>2016</v>
       </c>
@@ -950,9 +1298,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8"/>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" t="n">
         <v>2015</v>
       </c>
@@ -965,9 +1315,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9"/>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" t="n">
         <v>2016</v>
       </c>
@@ -980,9 +1332,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10"/>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" t="n">
         <v>2015</v>
       </c>
@@ -995,9 +1349,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11"/>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" t="n">
         <v>2016</v>
       </c>
@@ -1010,9 +1366,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12"/>
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" t="n">
         <v>2015</v>
       </c>
@@ -1025,9 +1383,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13"/>
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" t="n">
         <v>2016</v>
       </c>
@@ -1040,9 +1400,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14"/>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" t="n">
         <v>2015</v>
       </c>
@@ -1051,9 +1413,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15"/>
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" t="n">
         <v>2016</v>
       </c>
@@ -1062,9 +1426,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16"/>
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" t="n">
         <v>2015</v>
       </c>
@@ -1077,9 +1443,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17"/>
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" t="n">
         <v>2016</v>
       </c>
@@ -1092,9 +1460,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18"/>
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" t="n">
         <v>2015</v>
       </c>
@@ -1107,9 +1477,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19"/>
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" t="n">
         <v>2016</v>
       </c>
@@ -1122,9 +1494,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20"/>
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" t="n">
         <v>2015</v>
       </c>
@@ -1137,9 +1511,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21"/>
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" t="n">
         <v>2016</v>
       </c>
@@ -1152,9 +1528,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22"/>
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" t="n">
         <v>2015</v>
       </c>
@@ -1167,9 +1545,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23"/>
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
       <c r="C23" t="n">
         <v>2016</v>
       </c>
@@ -1182,9 +1562,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24"/>
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" t="n">
         <v>2015</v>
       </c>
@@ -1197,9 +1579,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25"/>
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
       <c r="C25" t="n">
         <v>2016</v>
       </c>
@@ -1212,9 +1596,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26"/>
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
       <c r="C26" t="n">
         <v>2015</v>
       </c>
@@ -1227,9 +1613,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27"/>
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
       <c r="C27" t="n">
         <v>2016</v>
       </c>
@@ -1242,9 +1630,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28"/>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
       <c r="C28" t="n">
         <v>2015</v>
       </c>
@@ -1257,9 +1647,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29"/>
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
       <c r="C29" t="n">
         <v>2016</v>
       </c>
@@ -1272,9 +1664,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30"/>
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" t="n">
         <v>2015</v>
       </c>
@@ -1283,9 +1677,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31"/>
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
       <c r="C31" t="n">
         <v>2016</v>
       </c>
@@ -1294,9 +1690,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32"/>
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
       <c r="C32" t="n">
         <v>2015</v>
       </c>
@@ -1309,9 +1707,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33"/>
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
       <c r="C33" t="n">
         <v>2016</v>
       </c>
@@ -1324,9 +1724,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34"/>
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
       <c r="C34" t="n">
         <v>2015</v>
       </c>
@@ -1339,9 +1741,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35"/>
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
       <c r="C35" t="n">
         <v>2016</v>
       </c>
@@ -1354,9 +1758,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36"/>
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
       <c r="C36" t="n">
         <v>2015</v>
       </c>
@@ -1365,9 +1771,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37"/>
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
       <c r="C37" t="n">
         <v>2016</v>
       </c>
@@ -1376,9 +1784,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38"/>
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
       <c r="C38" t="n">
         <v>2015</v>
       </c>
@@ -1391,9 +1801,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39"/>
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
       <c r="C39" t="n">
         <v>2016</v>
       </c>
@@ -1406,9 +1818,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40"/>
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
       <c r="C40" t="n">
         <v>2015</v>
       </c>
@@ -1421,9 +1835,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41"/>
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
       <c r="C41" t="n">
         <v>2016</v>
       </c>
@@ -1436,9 +1852,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42"/>
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
       <c r="C42" t="n">
         <v>2015</v>
       </c>
@@ -1451,9 +1869,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43"/>
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
       <c r="C43" t="n">
         <v>2016</v>
       </c>
@@ -1466,9 +1886,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44"/>
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
       <c r="C44" t="n">
         <v>2015</v>
       </c>
@@ -1481,9 +1903,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45"/>
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
       <c r="C45" t="n">
         <v>2016</v>
       </c>
@@ -1496,9 +1920,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46"/>
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
       <c r="C46" t="n">
         <v>2015</v>
       </c>
@@ -1511,9 +1937,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47"/>
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
       <c r="C47" t="n">
         <v>2016</v>
       </c>
@@ -1526,9 +1954,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48"/>
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
       <c r="C48" t="n">
         <v>2015</v>
       </c>
@@ -1541,9 +1971,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49"/>
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
       <c r="C49" t="n">
         <v>2016</v>
       </c>
@@ -1556,9 +1988,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50"/>
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
       <c r="C50" t="n">
         <v>2015</v>
       </c>
@@ -1571,9 +2005,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51"/>
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
       <c r="C51" t="n">
         <v>2016</v>
       </c>
@@ -1586,9 +2022,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52"/>
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
       <c r="C52" t="n">
         <v>2015</v>
       </c>
@@ -1601,9 +2039,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53"/>
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
       <c r="C53" t="n">
         <v>2016</v>
       </c>
@@ -1616,9 +2056,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54"/>
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
       <c r="C54" t="n">
         <v>2015</v>
       </c>
@@ -1631,9 +2073,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55"/>
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
       <c r="C55" t="n">
         <v>2016</v>
       </c>
@@ -1646,9 +2090,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56"/>
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
       <c r="C56" t="n">
         <v>2015</v>
       </c>
@@ -1661,9 +2107,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57"/>
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
       <c r="C57" t="n">
         <v>2016</v>
       </c>
@@ -1676,9 +2124,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58"/>
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
       <c r="C58" t="n">
         <v>2015</v>
       </c>
@@ -1691,9 +2141,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59"/>
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
       <c r="C59" t="n">
         <v>2016</v>
       </c>
@@ -1706,9 +2158,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60"/>
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
       <c r="C60" t="n">
         <v>2015</v>
       </c>
@@ -1721,9 +2175,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61"/>
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
       <c r="C61" t="n">
         <v>2016</v>
       </c>
@@ -1736,9 +2192,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62"/>
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
       <c r="C62" t="n">
         <v>2015</v>
       </c>
@@ -1751,9 +2209,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63"/>
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
       <c r="C63" t="n">
         <v>2016</v>
       </c>
@@ -1766,9 +2226,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64"/>
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
       <c r="C64" t="n">
         <v>2015</v>
       </c>
@@ -1781,9 +2243,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65"/>
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
       <c r="C65" t="n">
         <v>2016</v>
       </c>
@@ -1796,9 +2260,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66"/>
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
       <c r="C66" t="n">
         <v>2015</v>
       </c>
@@ -1811,9 +2277,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67"/>
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
       <c r="C67" t="n">
         <v>2016</v>
       </c>
@@ -1826,9 +2294,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68"/>
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
       <c r="C68" t="n">
         <v>2015</v>
       </c>
@@ -1841,9 +2311,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69"/>
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
       <c r="C69" t="n">
         <v>2016</v>
       </c>
@@ -1856,9 +2328,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70"/>
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
       <c r="C70" t="n">
         <v>2015</v>
       </c>
@@ -1871,9 +2345,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71"/>
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
       <c r="C71" t="n">
         <v>2016</v>
       </c>
@@ -1886,9 +2362,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72"/>
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
       <c r="C72" t="n">
         <v>2015</v>
       </c>
@@ -1901,9 +2379,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73"/>
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
       <c r="C73" t="n">
         <v>2016</v>
       </c>
@@ -1916,9 +2396,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74"/>
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
       <c r="C74" t="n">
         <v>2015</v>
       </c>
@@ -1931,9 +2413,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75"/>
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
       <c r="C75" t="n">
         <v>2016</v>
       </c>
@@ -1946,9 +2430,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76"/>
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
       <c r="C76" t="n">
         <v>2015</v>
       </c>
@@ -1961,9 +2447,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77"/>
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
       <c r="C77" t="n">
         <v>2016</v>
       </c>
@@ -1976,9 +2464,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78"/>
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
       <c r="C78" t="n">
         <v>2015</v>
       </c>
@@ -1991,9 +2481,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79"/>
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
       <c r="C79" t="n">
         <v>2016</v>
       </c>
@@ -2006,9 +2498,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80"/>
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
       <c r="C80" t="n">
         <v>2015</v>
       </c>
@@ -2021,9 +2515,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81"/>
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
       <c r="C81" t="n">
         <v>2016</v>
       </c>
@@ -2036,9 +2532,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82"/>
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
       <c r="C82" t="n">
         <v>2015</v>
       </c>
@@ -2051,9 +2549,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83"/>
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
       <c r="C83" t="n">
         <v>2016</v>
       </c>
@@ -2066,9 +2566,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84"/>
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
       <c r="C84" t="n">
         <v>2015</v>
       </c>
@@ -2081,9 +2583,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85"/>
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
       <c r="C85" t="n">
         <v>2016</v>
       </c>
@@ -2096,9 +2600,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86"/>
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
       <c r="C86" t="n">
         <v>2015</v>
       </c>
@@ -2111,9 +2617,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87"/>
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
       <c r="C87" t="n">
         <v>2016</v>
       </c>
@@ -2126,9 +2634,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B88"/>
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
       <c r="C88" t="n">
         <v>2015</v>
       </c>
@@ -2141,9 +2651,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89"/>
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
       <c r="C89" t="n">
         <v>2016</v>
       </c>
@@ -2156,9 +2668,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90"/>
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
       <c r="C90" t="n">
         <v>2015</v>
       </c>
@@ -2171,9 +2685,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91"/>
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
       <c r="C91" t="n">
         <v>2016</v>
       </c>
@@ -2186,9 +2702,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92"/>
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
       <c r="C92" t="n">
         <v>2015</v>
       </c>
@@ -2201,9 +2719,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93"/>
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
       <c r="C93" t="n">
         <v>2016</v>
       </c>
@@ -2216,9 +2736,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94"/>
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
       <c r="C94" t="n">
         <v>2015</v>
       </c>
@@ -2231,9 +2753,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>51</v>
-      </c>
-      <c r="B95"/>
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
       <c r="C95" t="n">
         <v>2016</v>
       </c>
@@ -2246,9 +2770,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>52</v>
-      </c>
-      <c r="B96"/>
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
       <c r="C96" t="n">
         <v>2015</v>
       </c>
@@ -2261,9 +2787,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>52</v>
-      </c>
-      <c r="B97"/>
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
       <c r="C97" t="n">
         <v>2016</v>
       </c>
@@ -2276,9 +2804,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98"/>
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
       <c r="C98" t="n">
         <v>2015</v>
       </c>
@@ -2291,9 +2821,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99"/>
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
       <c r="C99" t="n">
         <v>2016</v>
       </c>
@@ -2306,9 +2838,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100"/>
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
       <c r="C100" t="n">
         <v>2015</v>
       </c>
@@ -2321,9 +2855,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101"/>
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
       <c r="C101" t="n">
         <v>2016</v>
       </c>
@@ -2336,9 +2872,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>55</v>
-      </c>
-      <c r="B102"/>
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
       <c r="C102" t="n">
         <v>2015</v>
       </c>
@@ -2351,9 +2889,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103"/>
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
       <c r="C103" t="n">
         <v>2016</v>
       </c>
@@ -2366,9 +2906,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104"/>
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
       <c r="C104" t="n">
         <v>2015</v>
       </c>
@@ -2381,9 +2923,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105"/>
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
       <c r="C105" t="n">
         <v>2016</v>
       </c>
@@ -2396,9 +2940,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>57</v>
-      </c>
-      <c r="B106"/>
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
       <c r="C106" t="n">
         <v>2015</v>
       </c>
@@ -2407,9 +2953,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107"/>
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
       <c r="C107" t="n">
         <v>2016</v>
       </c>
@@ -2418,9 +2966,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>58</v>
-      </c>
-      <c r="B108"/>
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
       <c r="C108" t="n">
         <v>2015</v>
       </c>
@@ -2433,9 +2983,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B109"/>
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
       <c r="C109" t="n">
         <v>2016</v>
       </c>
@@ -2448,9 +3000,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110"/>
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
       <c r="C110" t="n">
         <v>2015</v>
       </c>
@@ -2463,9 +3017,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B111"/>
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
       <c r="C111" t="n">
         <v>2016</v>
       </c>
@@ -2478,9 +3034,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>60</v>
-      </c>
-      <c r="B112"/>
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
       <c r="C112" t="n">
         <v>2015</v>
       </c>
@@ -2493,9 +3051,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>60</v>
-      </c>
-      <c r="B113"/>
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
       <c r="C113" t="n">
         <v>2016</v>
       </c>
@@ -2508,9 +3068,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>61</v>
-      </c>
-      <c r="B114"/>
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
       <c r="C114" t="n">
         <v>2015</v>
       </c>
@@ -2523,9 +3085,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B115"/>
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
       <c r="C115" t="n">
         <v>2016</v>
       </c>
@@ -2538,9 +3102,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116"/>
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
       <c r="C116" t="n">
         <v>2015</v>
       </c>
@@ -2553,9 +3119,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117"/>
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
       <c r="C117" t="n">
         <v>2016</v>
       </c>
@@ -2568,9 +3136,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118"/>
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
       <c r="C118" t="n">
         <v>2015</v>
       </c>
@@ -2583,9 +3153,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>63</v>
-      </c>
-      <c r="B119"/>
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
       <c r="C119" t="n">
         <v>2016</v>
       </c>
@@ -2598,9 +3170,11 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>64</v>
-      </c>
-      <c r="B120"/>
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
       <c r="C120" t="n">
         <v>2015</v>
       </c>
@@ -2613,9 +3187,11 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>64</v>
-      </c>
-      <c r="B121"/>
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
       <c r="C121" t="n">
         <v>2016</v>
       </c>
@@ -2628,9 +3204,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>65</v>
-      </c>
-      <c r="B122"/>
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
       <c r="C122" t="n">
         <v>2015</v>
       </c>
@@ -2643,9 +3221,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123"/>
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
       <c r="C123" t="n">
         <v>2016</v>
       </c>
@@ -2658,9 +3238,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>66</v>
-      </c>
-      <c r="B124"/>
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
       <c r="C124" t="n">
         <v>2015</v>
       </c>
@@ -2673,9 +3255,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>66</v>
-      </c>
-      <c r="B125"/>
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
       <c r="C125" t="n">
         <v>2016</v>
       </c>
@@ -2688,9 +3272,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>67</v>
-      </c>
-      <c r="B126"/>
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
       <c r="C126" t="n">
         <v>2015</v>
       </c>
@@ -2703,9 +3289,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>67</v>
-      </c>
-      <c r="B127"/>
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
       <c r="C127" t="n">
         <v>2016</v>
       </c>
@@ -2718,9 +3306,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>68</v>
-      </c>
-      <c r="B128"/>
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
       <c r="C128" t="n">
         <v>2015</v>
       </c>
@@ -2729,9 +3319,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B129"/>
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
       <c r="C129" t="n">
         <v>2016</v>
       </c>
@@ -2740,9 +3332,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130"/>
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
       <c r="C130" t="n">
         <v>2015</v>
       </c>
@@ -2755,9 +3349,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131"/>
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
       <c r="C131" t="n">
         <v>2016</v>
       </c>
@@ -2770,9 +3366,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>70</v>
-      </c>
-      <c r="B132"/>
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
       <c r="C132" t="n">
         <v>2015</v>
       </c>
@@ -2785,9 +3383,11 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>70</v>
-      </c>
-      <c r="B133"/>
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
       <c r="C133" t="n">
         <v>2016</v>
       </c>
@@ -2800,9 +3400,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>71</v>
-      </c>
-      <c r="B134"/>
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
       <c r="C134" t="n">
         <v>2015</v>
       </c>
@@ -2815,9 +3417,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>71</v>
-      </c>
-      <c r="B135"/>
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
       <c r="C135" t="n">
         <v>2016</v>
       </c>
@@ -2830,9 +3434,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>72</v>
-      </c>
-      <c r="B136"/>
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
       <c r="C136" t="n">
         <v>2015</v>
       </c>
@@ -2845,9 +3451,11 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>72</v>
-      </c>
-      <c r="B137"/>
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
       <c r="C137" t="n">
         <v>2016</v>
       </c>
@@ -2860,9 +3468,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>73</v>
-      </c>
-      <c r="B138"/>
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
       <c r="C138" t="n">
         <v>2015</v>
       </c>
@@ -2875,9 +3485,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>73</v>
-      </c>
-      <c r="B139"/>
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
       <c r="C139" t="n">
         <v>2016</v>
       </c>
@@ -2890,9 +3502,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140"/>
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
       <c r="C140" t="n">
         <v>2015</v>
       </c>
@@ -2905,9 +3519,11 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141"/>
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
       <c r="C141" t="n">
         <v>2016</v>
       </c>
@@ -2920,9 +3536,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>75</v>
-      </c>
-      <c r="B142"/>
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
       <c r="C142" t="n">
         <v>2015</v>
       </c>
@@ -2935,9 +3553,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>75</v>
-      </c>
-      <c r="B143"/>
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
       <c r="C143" t="n">
         <v>2016</v>
       </c>
@@ -2950,9 +3570,11 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>76</v>
-      </c>
-      <c r="B144"/>
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
       <c r="C144" t="n">
         <v>2015</v>
       </c>
@@ -2965,9 +3587,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>76</v>
-      </c>
-      <c r="B145"/>
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
       <c r="C145" t="n">
         <v>2016</v>
       </c>
@@ -2980,9 +3604,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>77</v>
-      </c>
-      <c r="B146"/>
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
       <c r="C146" t="n">
         <v>2015</v>
       </c>
@@ -2995,9 +3621,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>77</v>
-      </c>
-      <c r="B147"/>
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
       <c r="C147" t="n">
         <v>2016</v>
       </c>
@@ -3010,9 +3638,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>78</v>
-      </c>
-      <c r="B148"/>
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
       <c r="C148" t="n">
         <v>2015</v>
       </c>
@@ -3025,9 +3655,11 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>78</v>
-      </c>
-      <c r="B149"/>
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
       <c r="C149" t="n">
         <v>2016</v>
       </c>
@@ -3040,9 +3672,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>79</v>
-      </c>
-      <c r="B150"/>
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
       <c r="C150" t="n">
         <v>2015</v>
       </c>
@@ -3055,9 +3689,11 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>79</v>
-      </c>
-      <c r="B151"/>
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
       <c r="C151" t="n">
         <v>2016</v>
       </c>
@@ -3070,9 +3706,11 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>80</v>
-      </c>
-      <c r="B152"/>
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
       <c r="C152" t="n">
         <v>2015</v>
       </c>
@@ -3085,9 +3723,11 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>80</v>
-      </c>
-      <c r="B153"/>
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
       <c r="C153" t="n">
         <v>2016</v>
       </c>
@@ -3100,9 +3740,11 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>81</v>
-      </c>
-      <c r="B154"/>
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
       <c r="C154" t="n">
         <v>2015</v>
       </c>
@@ -3115,9 +3757,11 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>81</v>
-      </c>
-      <c r="B155"/>
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
       <c r="C155" t="n">
         <v>2016</v>
       </c>
@@ -3130,9 +3774,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>82</v>
-      </c>
-      <c r="B156"/>
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
       <c r="C156" t="n">
         <v>2015</v>
       </c>
@@ -3145,9 +3791,11 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157"/>
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
       <c r="C157" t="n">
         <v>2016</v>
       </c>
@@ -3160,9 +3808,11 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>83</v>
-      </c>
-      <c r="B158"/>
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
       <c r="C158" t="n">
         <v>2015</v>
       </c>
@@ -3175,9 +3825,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>83</v>
-      </c>
-      <c r="B159"/>
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
       <c r="C159" t="n">
         <v>2016</v>
       </c>
@@ -3190,9 +3842,11 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>84</v>
-      </c>
-      <c r="B160"/>
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
       <c r="C160" t="n">
         <v>2015</v>
       </c>
@@ -3205,9 +3859,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>84</v>
-      </c>
-      <c r="B161"/>
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
       <c r="C161" t="n">
         <v>2016</v>
       </c>
@@ -3220,9 +3876,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>85</v>
-      </c>
-      <c r="B162"/>
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
       <c r="C162" t="n">
         <v>2015</v>
       </c>
@@ -3235,9 +3893,11 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>85</v>
-      </c>
-      <c r="B163"/>
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
       <c r="C163" t="n">
         <v>2016</v>
       </c>
@@ -3250,9 +3910,11 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>86</v>
-      </c>
-      <c r="B164"/>
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
       <c r="C164" t="n">
         <v>2015</v>
       </c>
@@ -3265,9 +3927,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>86</v>
-      </c>
-      <c r="B165"/>
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
       <c r="C165" t="n">
         <v>2016</v>
       </c>
@@ -3280,9 +3944,11 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>87</v>
-      </c>
-      <c r="B166"/>
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
       <c r="C166" t="n">
         <v>2015</v>
       </c>
@@ -3295,9 +3961,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>87</v>
-      </c>
-      <c r="B167"/>
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
       <c r="C167" t="n">
         <v>2016</v>
       </c>
@@ -3310,9 +3978,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>88</v>
-      </c>
-      <c r="B168"/>
+        <v>171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
       <c r="C168" t="n">
         <v>2015</v>
       </c>
@@ -3325,9 +3995,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>88</v>
-      </c>
-      <c r="B169"/>
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
       <c r="C169" t="n">
         <v>2016</v>
       </c>
@@ -3340,9 +4012,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>89</v>
-      </c>
-      <c r="B170"/>
+        <v>173</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
       <c r="C170" t="n">
         <v>2015</v>
       </c>
@@ -3355,9 +4029,11 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>89</v>
-      </c>
-      <c r="B171"/>
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>174</v>
+      </c>
       <c r="C171" t="n">
         <v>2016</v>
       </c>
@@ -3370,9 +4046,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>90</v>
-      </c>
-      <c r="B172"/>
+        <v>175</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
       <c r="C172" t="n">
         <v>2015</v>
       </c>
@@ -3385,9 +4063,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>90</v>
-      </c>
-      <c r="B173"/>
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
       <c r="C173" t="n">
         <v>2016</v>
       </c>
@@ -3400,9 +4080,11 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>91</v>
-      </c>
-      <c r="B174"/>
+        <v>177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
       <c r="C174" t="n">
         <v>2015</v>
       </c>
@@ -3415,9 +4097,11 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>91</v>
-      </c>
-      <c r="B175"/>
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
       <c r="C175" t="n">
         <v>2016</v>
       </c>
@@ -3430,9 +4114,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>92</v>
-      </c>
-      <c r="B176"/>
+        <v>179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
       <c r="C176" t="n">
         <v>2015</v>
       </c>
@@ -3445,9 +4131,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>92</v>
-      </c>
-      <c r="B177"/>
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
       <c r="C177" t="n">
         <v>2016</v>
       </c>
@@ -3460,9 +4148,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>93</v>
-      </c>
-      <c r="B178"/>
+        <v>181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
       <c r="C178" t="n">
         <v>2015</v>
       </c>
@@ -3475,9 +4165,11 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>93</v>
-      </c>
-      <c r="B179"/>
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
       <c r="C179" t="n">
         <v>2016</v>
       </c>
@@ -3490,9 +4182,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>94</v>
-      </c>
-      <c r="B180"/>
+        <v>183</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
       <c r="C180" t="n">
         <v>2015</v>
       </c>
@@ -3505,9 +4199,11 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>94</v>
-      </c>
-      <c r="B181"/>
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>184</v>
+      </c>
       <c r="C181" t="n">
         <v>2016</v>
       </c>
@@ -3520,9 +4216,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>95</v>
-      </c>
-      <c r="B182"/>
+        <v>185</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
       <c r="C182" t="n">
         <v>2015</v>
       </c>
@@ -3535,9 +4233,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>95</v>
-      </c>
-      <c r="B183"/>
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
       <c r="C183" t="n">
         <v>2016</v>
       </c>
@@ -3550,9 +4250,11 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>96</v>
-      </c>
-      <c r="B184"/>
+        <v>187</v>
+      </c>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
       <c r="C184" t="n">
         <v>2015</v>
       </c>
@@ -3565,9 +4267,11 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>96</v>
-      </c>
-      <c r="B185"/>
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
       <c r="C185" t="n">
         <v>2016</v>
       </c>
@@ -3580,9 +4284,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>97</v>
-      </c>
-      <c r="B186"/>
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
       <c r="C186" t="n">
         <v>2015</v>
       </c>
@@ -3595,9 +4301,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>97</v>
-      </c>
-      <c r="B187"/>
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
       <c r="C187" t="n">
         <v>2016</v>
       </c>
@@ -3610,9 +4318,11 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>98</v>
-      </c>
-      <c r="B188"/>
+        <v>191</v>
+      </c>
+      <c r="B188" t="s">
+        <v>192</v>
+      </c>
       <c r="C188" t="n">
         <v>2015</v>
       </c>
@@ -3625,9 +4335,11 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>98</v>
-      </c>
-      <c r="B189"/>
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>192</v>
+      </c>
       <c r="C189" t="n">
         <v>2016</v>
       </c>
@@ -3640,9 +4352,11 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>99</v>
-      </c>
-      <c r="B190"/>
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>194</v>
+      </c>
       <c r="C190" t="n">
         <v>2015</v>
       </c>
@@ -3655,9 +4369,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>99</v>
-      </c>
-      <c r="B191"/>
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
       <c r="C191" t="n">
         <v>2016</v>
       </c>
@@ -3670,9 +4386,11 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>100</v>
-      </c>
-      <c r="B192"/>
+        <v>195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
       <c r="C192" t="n">
         <v>2015</v>
       </c>
@@ -3685,9 +4403,11 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>100</v>
-      </c>
-      <c r="B193"/>
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
       <c r="C193" t="n">
         <v>2016</v>
       </c>
@@ -3700,9 +4420,11 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>101</v>
-      </c>
-      <c r="B194"/>
+        <v>197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
       <c r="C194" t="n">
         <v>2015</v>
       </c>
@@ -3715,9 +4437,11 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>101</v>
-      </c>
-      <c r="B195"/>
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>198</v>
+      </c>
       <c r="C195" t="n">
         <v>2016</v>
       </c>
@@ -3730,9 +4454,11 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>102</v>
-      </c>
-      <c r="B196"/>
+        <v>199</v>
+      </c>
+      <c r="B196" t="s">
+        <v>200</v>
+      </c>
       <c r="C196" t="n">
         <v>2015</v>
       </c>
@@ -3745,9 +4471,11 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>102</v>
-      </c>
-      <c r="B197"/>
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>200</v>
+      </c>
       <c r="C197" t="n">
         <v>2016</v>
       </c>
@@ -3760,9 +4488,11 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>103</v>
-      </c>
-      <c r="B198"/>
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
       <c r="C198" t="n">
         <v>2015</v>
       </c>
@@ -3775,9 +4505,11 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>103</v>
-      </c>
-      <c r="B199"/>
+        <v>201</v>
+      </c>
+      <c r="B199" t="s">
+        <v>202</v>
+      </c>
       <c r="C199" t="n">
         <v>2016</v>
       </c>
@@ -3790,9 +4522,11 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>104</v>
-      </c>
-      <c r="B200"/>
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
       <c r="C200" t="n">
         <v>2015</v>
       </c>
@@ -3805,9 +4539,11 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>104</v>
-      </c>
-      <c r="B201"/>
+        <v>203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>204</v>
+      </c>
       <c r="C201" t="n">
         <v>2016</v>
       </c>
@@ -3820,9 +4556,11 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>105</v>
-      </c>
-      <c r="B202"/>
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>206</v>
+      </c>
       <c r="C202" t="n">
         <v>2015</v>
       </c>
@@ -3835,9 +4573,11 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>105</v>
-      </c>
-      <c r="B203"/>
+        <v>205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>206</v>
+      </c>
       <c r="C203" t="n">
         <v>2016</v>
       </c>
@@ -3850,9 +4590,11 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>106</v>
-      </c>
-      <c r="B204"/>
+        <v>207</v>
+      </c>
+      <c r="B204" t="s">
+        <v>208</v>
+      </c>
       <c r="C204" t="n">
         <v>2015</v>
       </c>
@@ -3865,9 +4607,11 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>106</v>
-      </c>
-      <c r="B205"/>
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>208</v>
+      </c>
       <c r="C205" t="n">
         <v>2016</v>
       </c>
@@ -3880,9 +4624,11 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>107</v>
-      </c>
-      <c r="B206"/>
+        <v>209</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
       <c r="C206" t="n">
         <v>2015</v>
       </c>
@@ -3895,9 +4641,11 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>107</v>
-      </c>
-      <c r="B207"/>
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
       <c r="C207" t="n">
         <v>2016</v>
       </c>
@@ -3910,9 +4658,11 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>108</v>
-      </c>
-      <c r="B208"/>
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
       <c r="C208" t="n">
         <v>2015</v>
       </c>
@@ -3925,9 +4675,11 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>108</v>
-      </c>
-      <c r="B209"/>
+        <v>211</v>
+      </c>
+      <c r="B209" t="s">
+        <v>212</v>
+      </c>
       <c r="C209" t="n">
         <v>2016</v>
       </c>
@@ -3940,9 +4692,11 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>109</v>
-      </c>
-      <c r="B210"/>
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>214</v>
+      </c>
       <c r="C210" t="n">
         <v>2015</v>
       </c>
@@ -3955,9 +4709,11 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>109</v>
-      </c>
-      <c r="B211"/>
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
       <c r="C211" t="n">
         <v>2016</v>
       </c>
@@ -3970,9 +4726,11 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>110</v>
-      </c>
-      <c r="B212"/>
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
       <c r="C212" t="n">
         <v>2015</v>
       </c>
@@ -3985,9 +4743,11 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>110</v>
-      </c>
-      <c r="B213"/>
+        <v>215</v>
+      </c>
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
       <c r="C213" t="n">
         <v>2016</v>
       </c>
@@ -4000,9 +4760,11 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>111</v>
-      </c>
-      <c r="B214"/>
+        <v>217</v>
+      </c>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
       <c r="C214" t="n">
         <v>2015</v>
       </c>
@@ -4015,9 +4777,11 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>111</v>
-      </c>
-      <c r="B215"/>
+        <v>217</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
       <c r="C215" t="n">
         <v>2016</v>
       </c>
@@ -4030,9 +4794,11 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>112</v>
-      </c>
-      <c r="B216"/>
+        <v>219</v>
+      </c>
+      <c r="B216" t="s">
+        <v>220</v>
+      </c>
       <c r="C216" t="n">
         <v>2015</v>
       </c>
@@ -4045,9 +4811,11 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>112</v>
-      </c>
-      <c r="B217"/>
+        <v>219</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
       <c r="C217" t="n">
         <v>2016</v>
       </c>
@@ -4060,9 +4828,11 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>113</v>
-      </c>
-      <c r="B218"/>
+        <v>221</v>
+      </c>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
       <c r="C218" t="n">
         <v>2015</v>
       </c>
@@ -4075,9 +4845,11 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>113</v>
-      </c>
-      <c r="B219"/>
+        <v>221</v>
+      </c>
+      <c r="B219" t="s">
+        <v>222</v>
+      </c>
       <c r="C219" t="n">
         <v>2016</v>
       </c>
@@ -4090,9 +4862,11 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>114</v>
-      </c>
-      <c r="B220"/>
+        <v>223</v>
+      </c>
+      <c r="B220" t="s">
+        <v>224</v>
+      </c>
       <c r="C220" t="n">
         <v>2015</v>
       </c>
@@ -4105,9 +4879,11 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>114</v>
-      </c>
-      <c r="B221"/>
+        <v>223</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
       <c r="C221" t="n">
         <v>2016</v>
       </c>
@@ -4120,9 +4896,11 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>115</v>
-      </c>
-      <c r="B222"/>
+        <v>225</v>
+      </c>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
       <c r="C222" t="n">
         <v>2015</v>
       </c>
@@ -4135,9 +4913,11 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>115</v>
-      </c>
-      <c r="B223"/>
+        <v>225</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
       <c r="C223" t="n">
         <v>2016</v>
       </c>
@@ -4150,9 +4930,11 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>116</v>
-      </c>
-      <c r="B224"/>
+        <v>227</v>
+      </c>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
       <c r="C224" t="n">
         <v>2015</v>
       </c>
@@ -4165,9 +4947,11 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>116</v>
-      </c>
-      <c r="B225"/>
+        <v>227</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
       <c r="C225" t="n">
         <v>2016</v>
       </c>
@@ -4197,10 +4981,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2">
@@ -4216,14 +5000,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
         <v>6.0106747727</v>
@@ -4234,7 +5018,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>3.4465814028</v>
@@ -4245,7 +5029,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>3.192921526</v>
@@ -4256,7 +5040,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>3.5201959824</v>
@@ -4267,14 +5051,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B9" t="n">
         <v>2.4079949842</v>
@@ -4285,7 +5069,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>5.0430421658</v>
@@ -4296,7 +5080,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>5.3289268987</v>
@@ -4307,7 +5091,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B12" t="n">
         <v>2.1989768806</v>
@@ -4318,7 +5102,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B13" t="n">
         <v>3.1065943884</v>
@@ -4329,7 +5113,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B14" t="n">
         <v>1.5328979734</v>
@@ -4340,7 +5124,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B15" t="n">
         <v>6.9806725067</v>
@@ -4351,14 +5135,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>5.1967754245</v>
@@ -4369,7 +5153,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B18" t="n">
         <v>3.1275848911</v>
@@ -4380,14 +5164,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B20" t="n">
         <v>5.2777810261</v>
@@ -4398,7 +5182,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B21" t="n">
         <v>5.3309963849</v>
@@ -4409,7 +5193,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B22" t="n">
         <v>2.1992725215</v>
@@ -4420,7 +5204,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B23" t="n">
         <v>4.8828048077</v>
@@ -4431,7 +5215,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B24" t="n">
         <v>2.4966872488</v>
@@ -4442,7 +5226,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B25" t="n">
         <v>2.4807226412</v>
@@ -4453,7 +5237,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B26" t="n">
         <v>2.8322396499</v>
@@ -4464,7 +5248,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B27" t="n">
         <v>2.47362726</v>
@@ -4475,7 +5259,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B28" t="n">
         <v>4.7231587314</v>
@@ -4486,7 +5270,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B29" t="n">
         <v>4.5685385501</v>
@@ -4497,7 +5281,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="B30" t="n">
         <v>3.4380078172</v>
@@ -4508,7 +5292,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B31" t="n">
         <v>11.7650289007</v>
@@ -4519,7 +5303,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B32" t="n">
         <v>5.78184873</v>
@@ -4530,7 +5314,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n">
         <v>5.6307762393</v>
@@ -4541,7 +5325,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B34" t="n">
         <v>3.3392637626</v>
@@ -4552,7 +5336,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B35" t="n">
         <v>3.4252952593</v>
@@ -4563,7 +5347,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B36" t="n">
         <v>3.4312080769</v>
@@ -4574,7 +5358,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B37" t="n">
         <v>3.4043047567</v>
@@ -4585,7 +5369,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B38" t="n">
         <v>4.0384544486</v>
@@ -4596,7 +5380,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B39" t="n">
         <v>2.0307572187</v>
@@ -4607,7 +5391,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B40" t="n">
         <v>3.7132494784</v>
@@ -4618,7 +5402,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B41" t="n">
         <v>3.1326107861</v>
@@ -4629,7 +5413,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B42" t="n">
         <v>2.854708357</v>
@@ -4640,7 +5424,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B43" t="n">
         <v>3.869643505</v>
@@ -4651,7 +5435,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B44" t="n">
         <v>2.7060009933</v>
@@ -4662,7 +5446,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B45" t="n">
         <v>8.7982726494</v>
@@ -4673,7 +5457,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B46" t="n">
         <v>3.9080768197</v>
@@ -4684,7 +5468,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B47" t="n">
         <v>3.8625481238</v>
@@ -4695,7 +5479,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="B48" t="n">
         <v>2.7867109541</v>
@@ -4706,7 +5490,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B49" t="n">
         <v>2.2397753223</v>
@@ -4717,7 +5501,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="B50" t="n">
         <v>3.5332041812</v>
@@ -4728,7 +5512,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="B51" t="n">
         <v>1.4994905537</v>
@@ -4739,7 +5523,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B52" t="n">
         <v>1.8300170598</v>
@@ -4750,7 +5534,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B53" t="n">
         <v>5.1805151759</v>
@@ -4761,14 +5545,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B55" t="n">
         <v>2.3719267966</v>
@@ -4779,7 +5563,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="B56" t="n">
         <v>4.9238988903</v>
@@ -4790,7 +5574,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B57" t="n">
         <v>2.6338646181</v>
@@ -4801,7 +5585,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B58" t="n">
         <v>10.1342737954</v>
@@ -4812,7 +5596,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B59" t="n">
         <v>4.8224940678</v>
@@ -4823,7 +5607,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="B60" t="n">
         <v>2.8819073181</v>
@@ -4834,7 +5618,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="B61" t="n">
         <v>4.3876063303</v>
@@ -4845,7 +5629,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B62" t="n">
         <v>6.3553920412</v>
@@ -4856,7 +5640,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="B63" t="n">
         <v>3.5816892859</v>
@@ -4867,7 +5651,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B64" t="n">
         <v>3.0353449359</v>
@@ -4878,14 +5662,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="B66" t="n">
         <v>9.7836437093</v>
@@ -4896,7 +5680,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="B67" t="n">
         <v>3.5243349548</v>
@@ -4907,7 +5691,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="B68" t="n">
         <v>4.8703878907</v>
@@ -4918,7 +5702,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B69" t="n">
         <v>6.7308559613</v>
@@ -4929,7 +5713,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="B70" t="n">
         <v>3.3791752817</v>
@@ -4940,7 +5724,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="B71" t="n">
         <v>11.9778903357</v>
@@ -4951,7 +5735,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="B72" t="n">
         <v>4.0547146971</v>
@@ -4962,7 +5746,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B73" t="n">
         <v>5.2032795239</v>
@@ -4973,7 +5757,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="B74" t="n">
         <v>4.0553059789</v>
@@ -4984,7 +5768,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="B75" t="n">
         <v>7.4693668847</v>
@@ -4995,7 +5779,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B76" t="n">
         <v>3.6511648932</v>
@@ -5006,7 +5790,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="B77" t="n">
         <v>5.9624853089</v>
@@ -5017,7 +5801,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="B78" t="n">
         <v>2.6974274077</v>
@@ -5028,7 +5812,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="B79" t="n">
         <v>5.8338815252</v>
@@ -5039,7 +5823,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="B80" t="n">
         <v>2.9632085607</v>
@@ -5050,7 +5834,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="B81" t="n">
         <v>3.5459167392</v>
@@ -5061,7 +5845,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B82" t="n">
         <v>3.7980984115</v>
@@ -5072,7 +5856,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="B83" t="n">
         <v>6.2829600251</v>
@@ -5083,7 +5867,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="B84" t="n">
         <v>6.1389829155</v>
@@ -5094,7 +5878,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B85" t="n">
         <v>7.3655969351</v>
@@ -5105,7 +5889,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="B86" t="n">
         <v>6.1848072522</v>
@@ -5116,7 +5900,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="B87" t="n">
         <v>4.1537543926</v>
@@ -5127,7 +5911,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="B88" t="n">
         <v>6.3072025774</v>
@@ -5138,7 +5922,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="B89" t="n">
         <v>4.2424466572</v>
@@ -5149,7 +5933,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="B90" t="n">
         <v>2.1809427868</v>
@@ -5160,7 +5944,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="B91" t="n">
         <v>4.1241903044</v>
@@ -5171,7 +5955,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B92" t="n">
         <v>3.6881200034</v>
@@ -5182,7 +5966,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>187</v>
       </c>
       <c r="B93" t="n">
         <v>4.9587845144</v>
@@ -5193,7 +5977,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="B94" t="n">
         <v>1.5692618019</v>
@@ -5204,7 +5988,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="B95" t="n">
         <v>6.999889164</v>
@@ -5215,7 +5999,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="B96" t="n">
         <v>4.4626991144</v>
@@ -5226,7 +6010,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="B97" t="n">
         <v>2.7660160923</v>
@@ -5237,7 +6021,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="B98" t="n">
         <v>3.3646888785</v>
@@ -5248,7 +6032,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="B99" t="n">
         <v>4.3400081483</v>
@@ -5259,7 +6043,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="B100" t="n">
         <v>1.5946869177</v>
@@ -5270,7 +6054,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="B101" t="n">
         <v>5.5273019306</v>
@@ -5281,7 +6065,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="B102" t="n">
         <v>2.4733316191</v>
@@ -5292,7 +6076,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="B103" t="n">
         <v>5.8235340944</v>
@@ -5303,7 +6087,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="B104" t="n">
         <v>3.5465080209</v>
@@ -5314,7 +6098,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="B105" t="n">
         <v>1.9024490759</v>
@@ -5325,7 +6109,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="B106" t="n">
         <v>3.483536513</v>
@@ -5336,7 +6120,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="B107" t="n">
         <v>2.446132658</v>
@@ -5347,7 +6131,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="B108" t="n">
         <v>2.4759923871</v>
@@ -5358,7 +6142,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="B109" t="n">
         <v>2.45352368</v>
@@ -5369,7 +6153,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="B110" t="n">
         <v>2.0819030913</v>
@@ -5380,7 +6164,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="B111" t="n">
         <v>9.0956873768</v>
@@ -5391,7 +6175,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>225</v>
       </c>
       <c r="B112" t="n">
         <v>2.4387416359</v>
@@ -5402,7 +6186,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="B113" t="n">
         <v>3.9734134546</v>

--- a/user-data/uganda-health-funding/uganda-health-funding.xlsx
+++ b/user-data/uganda-health-funding/uganda-health-funding.xlsx
@@ -31,36 +31,498 @@
     <t xml:space="preserve">value-ncu</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -79,28 +541,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -109,598 +691,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
@@ -1213,10 +1213,10 @@
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>29.2669691173</v>
+        <v>11.9778903357</v>
       </c>
       <c r="E2" t="n">
-        <v>98995</v>
+        <v>40515</v>
       </c>
     </row>
     <row r="3">
@@ -1230,10 +1230,10 @@
         <v>2016</v>
       </c>
       <c r="D3" t="n">
-        <v>30.5547230391</v>
+        <v>10.9557636662</v>
       </c>
       <c r="E3" t="n">
-        <v>112993</v>
+        <v>40515</v>
       </c>
     </row>
     <row r="4">
@@ -1246,8 +1246,12 @@
       <c r="C4" t="n">
         <v>2015</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="D4" t="n">
+        <v>10.1342737954</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34279</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1259,8 +1263,12 @@
       <c r="C5" t="n">
         <v>2016</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="D5" t="n">
+        <v>9.0496257399</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33466</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -1273,10 +1281,10 @@
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>6.0106747727</v>
+        <v>5.8338815252</v>
       </c>
       <c r="E6" t="n">
-        <v>20331</v>
+        <v>19733</v>
       </c>
     </row>
     <row r="7">
@@ -1290,10 +1298,10 @@
         <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>4.5066952304</v>
+        <v>5.0415712154</v>
       </c>
       <c r="E7" t="n">
-        <v>16666</v>
+        <v>18644</v>
       </c>
     </row>
     <row r="8">
@@ -1307,10 +1315,10 @@
         <v>2015</v>
       </c>
       <c r="D8" t="n">
-        <v>3.4465814028</v>
+        <v>2.9632085607</v>
       </c>
       <c r="E8" t="n">
-        <v>11658</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="9">
@@ -1324,10 +1332,10 @@
         <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>3.0591769556</v>
+        <v>2.5829804897</v>
       </c>
       <c r="E9" t="n">
-        <v>11313</v>
+        <v>9552</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1349,10 @@
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>3.192921526</v>
+        <v>4.0547146971</v>
       </c>
       <c r="E10" t="n">
-        <v>10800</v>
+        <v>13715</v>
       </c>
     </row>
     <row r="11">
@@ -1358,10 +1366,10 @@
         <v>2016</v>
       </c>
       <c r="D11" t="n">
-        <v>2.8377090932</v>
+        <v>3.7087078534</v>
       </c>
       <c r="E11" t="n">
-        <v>10494</v>
+        <v>13715</v>
       </c>
     </row>
     <row r="12">
@@ -1375,10 +1383,10 @@
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>3.5201959824</v>
+        <v>3.5459167392</v>
       </c>
       <c r="E12" t="n">
-        <v>11907</v>
+        <v>11994</v>
       </c>
     </row>
     <row r="13">
@@ -1392,10 +1400,10 @@
         <v>2016</v>
       </c>
       <c r="D13" t="n">
-        <v>3.1505763908</v>
+        <v>3.1914086829</v>
       </c>
       <c r="E13" t="n">
-        <v>11651</v>
+        <v>11802</v>
       </c>
     </row>
     <row r="14">
@@ -1408,8 +1416,12 @@
       <c r="C14" t="n">
         <v>2015</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D14" t="n">
+        <v>3.1326107861</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10596</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1421,8 +1433,12 @@
       <c r="C15" t="n">
         <v>2016</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="D15" t="n">
+        <v>2.7784887491</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10275</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1435,10 +1451,10 @@
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>2.4079949842</v>
+        <v>5.2032795239</v>
       </c>
       <c r="E16" t="n">
-        <v>8145</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="17">
@@ -1452,10 +1468,10 @@
         <v>2016</v>
       </c>
       <c r="D17" t="n">
-        <v>1.9147911272</v>
+        <v>4.7519593954</v>
       </c>
       <c r="E17" t="n">
-        <v>7081</v>
+        <v>17573</v>
       </c>
     </row>
     <row r="18">
@@ -1469,10 +1485,10 @@
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>5.0430421658</v>
+        <v>4.8224940678</v>
       </c>
       <c r="E18" t="n">
-        <v>17058</v>
+        <v>16312</v>
       </c>
     </row>
     <row r="19">
@@ -1486,10 +1502,10 @@
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>4.3536417383</v>
+        <v>4.405020119</v>
       </c>
       <c r="E19" t="n">
-        <v>16100</v>
+        <v>16290</v>
       </c>
     </row>
     <row r="20">
@@ -1503,10 +1519,10 @@
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>5.3289268987</v>
+        <v>2.8819073181</v>
       </c>
       <c r="E20" t="n">
-        <v>18025</v>
+        <v>9748</v>
       </c>
     </row>
     <row r="21">
@@ -1520,10 +1536,10 @@
         <v>2016</v>
       </c>
       <c r="D21" t="n">
-        <v>4.8695888461</v>
+        <v>2.6000164791</v>
       </c>
       <c r="E21" t="n">
-        <v>18008</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="22">
@@ -1537,10 +1553,10 @@
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>2.1989768806</v>
+        <v>2.854708357</v>
       </c>
       <c r="E22" t="n">
-        <v>7438</v>
+        <v>9656</v>
       </c>
     </row>
     <row r="23">
@@ -1554,10 +1570,10 @@
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>2.0305276902</v>
+        <v>2.6267873196</v>
       </c>
       <c r="E23" t="n">
-        <v>7509</v>
+        <v>9714</v>
       </c>
     </row>
     <row r="24">
@@ -1571,10 +1587,10 @@
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>3.1065943884</v>
+        <v>3.869643505</v>
       </c>
       <c r="E24" t="n">
-        <v>10508</v>
+        <v>13089</v>
       </c>
     </row>
     <row r="25">
@@ -1588,10 +1604,10 @@
         <v>2016</v>
       </c>
       <c r="D25" t="n">
-        <v>3.2390012882</v>
+        <v>3.3030890579</v>
       </c>
       <c r="E25" t="n">
-        <v>11978</v>
+        <v>12215</v>
       </c>
     </row>
     <row r="26">
@@ -1605,10 +1621,10 @@
         <v>2015</v>
       </c>
       <c r="D26" t="n">
-        <v>1.5328979734</v>
+        <v>2.8322396499</v>
       </c>
       <c r="E26" t="n">
-        <v>5185</v>
+        <v>9580</v>
       </c>
     </row>
     <row r="27">
@@ -1622,10 +1638,10 @@
         <v>2016</v>
       </c>
       <c r="D27" t="n">
-        <v>1.3880275182</v>
+        <v>2.5905520405</v>
       </c>
       <c r="E27" t="n">
-        <v>5133</v>
+        <v>9580</v>
       </c>
     </row>
     <row r="28">
@@ -1639,10 +1655,10 @@
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>6.9806725067</v>
+        <v>2.446132658</v>
       </c>
       <c r="E28" t="n">
-        <v>23612</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="29">
@@ -1656,10 +1672,10 @@
         <v>2016</v>
       </c>
       <c r="D29" t="n">
-        <v>6.3717304521</v>
+        <v>2.1527541539</v>
       </c>
       <c r="E29" t="n">
-        <v>23563</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="30">
@@ -1672,8 +1688,12 @@
       <c r="C30" t="n">
         <v>2015</v>
       </c>
-      <c r="D30"/>
-      <c r="E30"/>
+      <c r="D30" t="n">
+        <v>3.1275848911</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10579</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1685,8 +1705,12 @@
       <c r="C31" t="n">
         <v>2016</v>
       </c>
-      <c r="D31"/>
-      <c r="E31"/>
+      <c r="D31" t="n">
+        <v>2.8585308581</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10571</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1699,10 +1723,10 @@
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>5.1967754245</v>
+        <v>2.7060009933</v>
       </c>
       <c r="E32" t="n">
-        <v>17578</v>
+        <v>9153</v>
       </c>
     </row>
     <row r="33">
@@ -1716,10 +1740,10 @@
         <v>2016</v>
       </c>
       <c r="D33" t="n">
-        <v>4.7992815882</v>
+        <v>2.6581551731</v>
       </c>
       <c r="E33" t="n">
-        <v>17748</v>
+        <v>9830</v>
       </c>
     </row>
     <row r="34">
@@ -1732,12 +1756,8 @@
       <c r="C34" t="n">
         <v>2015</v>
       </c>
-      <c r="D34" t="n">
-        <v>3.1275848911</v>
-      </c>
-      <c r="E34" t="n">
-        <v>10579</v>
-      </c>
+      <c r="D34"/>
+      <c r="E34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -1749,12 +1769,8 @@
       <c r="C35" t="n">
         <v>2016</v>
       </c>
-      <c r="D35" t="n">
-        <v>2.8585308581</v>
-      </c>
-      <c r="E35" t="n">
-        <v>10571</v>
-      </c>
+      <c r="D35"/>
+      <c r="E35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1766,8 +1782,12 @@
       <c r="C36" t="n">
         <v>2015</v>
       </c>
-      <c r="D36"/>
-      <c r="E36"/>
+      <c r="D36" t="n">
+        <v>8.7982726494</v>
+      </c>
+      <c r="E36" t="n">
+        <v>29760</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1779,8 +1799,12 @@
       <c r="C37" t="n">
         <v>2016</v>
       </c>
-      <c r="D37"/>
-      <c r="E37"/>
+      <c r="D37" t="n">
+        <v>8.0223285372</v>
+      </c>
+      <c r="E37" t="n">
+        <v>29667</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -1793,10 +1817,10 @@
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>5.2777810261</v>
+        <v>3.5332041812</v>
       </c>
       <c r="E38" t="n">
-        <v>17852</v>
+        <v>11951</v>
       </c>
     </row>
     <row r="39">
@@ -1810,10 +1834,10 @@
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>4.8284861415</v>
+        <v>3.3755596161</v>
       </c>
       <c r="E39" t="n">
-        <v>17856</v>
+        <v>12483</v>
       </c>
     </row>
     <row r="40">
@@ -1827,10 +1851,10 @@
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>5.3309963849</v>
+        <v>5.8235340944</v>
       </c>
       <c r="E40" t="n">
-        <v>18032</v>
+        <v>19698</v>
       </c>
     </row>
     <row r="41">
@@ -1844,10 +1868,10 @@
         <v>2016</v>
       </c>
       <c r="D41" t="n">
-        <v>5.2846720802</v>
+        <v>5.1335114757</v>
       </c>
       <c r="E41" t="n">
-        <v>19543</v>
+        <v>18984</v>
       </c>
     </row>
     <row r="42">
@@ -1861,10 +1885,10 @@
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>2.1992725215</v>
+        <v>6.3072025774</v>
       </c>
       <c r="E42" t="n">
-        <v>7439</v>
+        <v>21334</v>
       </c>
     </row>
     <row r="43">
@@ -1878,10 +1902,10 @@
         <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>2.0578393558</v>
+        <v>5.5285841825</v>
       </c>
       <c r="E43" t="n">
-        <v>7610</v>
+        <v>20445</v>
       </c>
     </row>
     <row r="44">
@@ -1895,10 +1919,10 @@
         <v>2015</v>
       </c>
       <c r="D44" t="n">
-        <v>4.8828048077</v>
+        <v>4.2424466572</v>
       </c>
       <c r="E44" t="n">
-        <v>16516</v>
+        <v>14350</v>
       </c>
     </row>
     <row r="45">
@@ -1912,10 +1936,10 @@
         <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>4.4309797219</v>
+        <v>3.7368307566</v>
       </c>
       <c r="E45" t="n">
-        <v>16386</v>
+        <v>13819</v>
       </c>
     </row>
     <row r="46">
@@ -1929,10 +1953,10 @@
         <v>2015</v>
       </c>
       <c r="D46" t="n">
-        <v>2.4966872488</v>
+        <v>2.47362726</v>
       </c>
       <c r="E46" t="n">
-        <v>8445</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="47">
@@ -1946,10 +1970,10 @@
         <v>2016</v>
       </c>
       <c r="D47" t="n">
-        <v>2.2190052239</v>
+        <v>2.2409086388</v>
       </c>
       <c r="E47" t="n">
-        <v>8206</v>
+        <v>8287</v>
       </c>
     </row>
     <row r="48">
@@ -1963,10 +1987,10 @@
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>2.4807226412</v>
+        <v>3.9080768197</v>
       </c>
       <c r="E48" t="n">
-        <v>8391</v>
+        <v>13219</v>
       </c>
     </row>
     <row r="49">
@@ -1980,10 +2004,10 @@
         <v>2016</v>
       </c>
       <c r="D49" t="n">
-        <v>2.1646523053</v>
+        <v>3.5745832384</v>
       </c>
       <c r="E49" t="n">
-        <v>8005</v>
+        <v>13219</v>
       </c>
     </row>
     <row r="50">
@@ -1997,10 +2021,10 @@
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>2.8322396499</v>
+        <v>5.2777810261</v>
       </c>
       <c r="E50" t="n">
-        <v>9580</v>
+        <v>17852</v>
       </c>
     </row>
     <row r="51">
@@ -2014,10 +2038,10 @@
         <v>2016</v>
       </c>
       <c r="D51" t="n">
-        <v>2.5905520405</v>
+        <v>4.8284861415</v>
       </c>
       <c r="E51" t="n">
-        <v>9580</v>
+        <v>17856</v>
       </c>
     </row>
     <row r="52">
@@ -2031,10 +2055,10 @@
         <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>2.47362726</v>
+        <v>5.3309963849</v>
       </c>
       <c r="E52" t="n">
-        <v>8367</v>
+        <v>18032</v>
       </c>
     </row>
     <row r="53">
@@ -2048,10 +2072,10 @@
         <v>2016</v>
       </c>
       <c r="D53" t="n">
-        <v>2.2409086388</v>
+        <v>5.2846720802</v>
       </c>
       <c r="E53" t="n">
-        <v>8287</v>
+        <v>19543</v>
       </c>
     </row>
     <row r="54">
@@ -2065,10 +2089,10 @@
         <v>2015</v>
       </c>
       <c r="D54" t="n">
-        <v>4.7231587314</v>
+        <v>1.4994905537</v>
       </c>
       <c r="E54" t="n">
-        <v>15976</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="55">
@@ -2082,10 +2106,10 @@
         <v>2016</v>
       </c>
       <c r="D55" t="n">
-        <v>4.2911764437</v>
+        <v>1.3171794352</v>
       </c>
       <c r="E55" t="n">
-        <v>15869</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="56">
@@ -2099,10 +2123,10 @@
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>4.5685385501</v>
+        <v>4.0553059789</v>
       </c>
       <c r="E56" t="n">
-        <v>15453</v>
+        <v>13717</v>
       </c>
     </row>
     <row r="57">
@@ -2116,10 +2140,10 @@
         <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>4.0789026074</v>
+        <v>3.7092486785</v>
       </c>
       <c r="E57" t="n">
-        <v>15084</v>
+        <v>13717</v>
       </c>
     </row>
     <row r="58">
@@ -2133,10 +2157,10 @@
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>3.4380078172</v>
+        <v>2.1992725215</v>
       </c>
       <c r="E58" t="n">
-        <v>11629</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="59">
@@ -2150,10 +2174,10 @@
         <v>2016</v>
       </c>
       <c r="D59" t="n">
-        <v>2.5383624222</v>
+        <v>2.0578393558</v>
       </c>
       <c r="E59" t="n">
-        <v>9387</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="60">
@@ -2167,10 +2191,10 @@
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>11.7650289007</v>
+        <v>4.3876063303</v>
       </c>
       <c r="E60" t="n">
-        <v>39795</v>
+        <v>14841</v>
       </c>
     </row>
     <row r="61">
@@ -2184,10 +2208,10 @@
         <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>10.6848103108</v>
+        <v>3.8850168232</v>
       </c>
       <c r="E61" t="n">
-        <v>39513</v>
+        <v>14367</v>
       </c>
     </row>
     <row r="62">
@@ -2201,10 +2225,10 @@
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>5.78184873</v>
+        <v>2.1809427868</v>
       </c>
       <c r="E62" t="n">
-        <v>19557</v>
+        <v>7377</v>
       </c>
     </row>
     <row r="63">
@@ -2218,10 +2242,10 @@
         <v>2016</v>
       </c>
       <c r="D63" t="n">
-        <v>5.2589828898</v>
+        <v>1.9948332362</v>
       </c>
       <c r="E63" t="n">
-        <v>19448</v>
+        <v>7377</v>
       </c>
     </row>
     <row r="64">
@@ -2235,10 +2259,10 @@
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>5.6307762393</v>
+        <v>3.5465080209</v>
       </c>
       <c r="E64" t="n">
-        <v>19046</v>
+        <v>11996</v>
       </c>
     </row>
     <row r="65">
@@ -2252,10 +2276,10 @@
         <v>2016</v>
       </c>
       <c r="D65" t="n">
-        <v>4.4088058944</v>
+        <v>3.3052523582</v>
       </c>
       <c r="E65" t="n">
-        <v>16304</v>
+        <v>12223</v>
       </c>
     </row>
     <row r="66">
@@ -2269,10 +2293,10 @@
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>3.3392637626</v>
+        <v>4.7231587314</v>
       </c>
       <c r="E66" t="n">
-        <v>11295</v>
+        <v>15976</v>
       </c>
     </row>
     <row r="67">
@@ -2286,10 +2310,10 @@
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>2.8893578865</v>
+        <v>4.2911764437</v>
       </c>
       <c r="E67" t="n">
-        <v>10685</v>
+        <v>15869</v>
       </c>
     </row>
     <row r="68">
@@ -2303,10 +2327,10 @@
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>3.4252952593</v>
+        <v>1.9024490759</v>
       </c>
       <c r="E68" t="n">
-        <v>11586</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="69">
@@ -2320,10 +2344,10 @@
         <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>3.116504412</v>
+        <v>1.7233390558</v>
       </c>
       <c r="E69" t="n">
-        <v>11525</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="70">
@@ -2337,10 +2361,10 @@
         <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>3.4312080769</v>
+        <v>4.5685385501</v>
       </c>
       <c r="E70" t="n">
-        <v>11606</v>
+        <v>15453</v>
       </c>
     </row>
     <row r="71">
@@ -2354,10 +2378,10 @@
         <v>2016</v>
       </c>
       <c r="D71" t="n">
-        <v>2.884490461</v>
+        <v>4.0789026074</v>
       </c>
       <c r="E71" t="n">
-        <v>10667</v>
+        <v>15084</v>
       </c>
     </row>
     <row r="72">
@@ -2371,10 +2395,10 @@
         <v>2015</v>
       </c>
       <c r="D72" t="n">
-        <v>3.4043047567</v>
+        <v>7.4693668847</v>
       </c>
       <c r="E72" t="n">
-        <v>11515</v>
+        <v>25265</v>
       </c>
     </row>
     <row r="73">
@@ -2388,10 +2412,10 @@
         <v>2016</v>
       </c>
       <c r="D73" t="n">
-        <v>3.085406971</v>
+        <v>6.3306277475</v>
       </c>
       <c r="E73" t="n">
-        <v>11410</v>
+        <v>23411</v>
       </c>
     </row>
     <row r="74">
@@ -2405,10 +2429,10 @@
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>4.0384544486</v>
+        <v>4.1241903044</v>
       </c>
       <c r="E74" t="n">
-        <v>13660</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="75">
@@ -2422,10 +2446,10 @@
         <v>2016</v>
       </c>
       <c r="D75" t="n">
-        <v>3.6538141098</v>
+        <v>3.65597741</v>
       </c>
       <c r="E75" t="n">
-        <v>13512</v>
+        <v>13520</v>
       </c>
     </row>
     <row r="76">
@@ -2439,10 +2463,10 @@
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>2.0307572187</v>
+        <v>3.6881200034</v>
       </c>
       <c r="E76" t="n">
-        <v>6869</v>
+        <v>12475</v>
       </c>
     </row>
     <row r="77">
@@ -2456,10 +2480,10 @@
         <v>2016</v>
       </c>
       <c r="D77" t="n">
-        <v>1.8415093315</v>
+        <v>3.4026008691</v>
       </c>
       <c r="E77" t="n">
-        <v>6810</v>
+        <v>12583</v>
       </c>
     </row>
     <row r="78">
@@ -2473,10 +2497,10 @@
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>3.7132494784</v>
+        <v>4.0384544486</v>
       </c>
       <c r="E78" t="n">
-        <v>12560</v>
+        <v>13660</v>
       </c>
     </row>
     <row r="79">
@@ -2490,10 +2514,10 @@
         <v>2016</v>
       </c>
       <c r="D79" t="n">
-        <v>3.3528449635</v>
+        <v>3.6538141098</v>
       </c>
       <c r="E79" t="n">
-        <v>12399</v>
+        <v>13512</v>
       </c>
     </row>
     <row r="80">
@@ -2507,10 +2531,10 @@
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>3.1326107861</v>
+        <v>29.2669691173</v>
       </c>
       <c r="E80" t="n">
-        <v>10596</v>
+        <v>98995</v>
       </c>
     </row>
     <row r="81">
@@ -2524,10 +2548,10 @@
         <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>2.7784887491</v>
+        <v>30.5547230391</v>
       </c>
       <c r="E81" t="n">
-        <v>10275</v>
+        <v>112993</v>
       </c>
     </row>
     <row r="82">
@@ -2541,10 +2565,10 @@
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>2.854708357</v>
+        <v>3.8625481238</v>
       </c>
       <c r="E82" t="n">
-        <v>9656</v>
+        <v>13065</v>
       </c>
     </row>
     <row r="83">
@@ -2558,10 +2582,10 @@
         <v>2016</v>
       </c>
       <c r="D83" t="n">
-        <v>2.6267873196</v>
+        <v>3.6567886476</v>
       </c>
       <c r="E83" t="n">
-        <v>9714</v>
+        <v>13523</v>
       </c>
     </row>
     <row r="84">
@@ -2575,10 +2599,10 @@
         <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>3.869643505</v>
+        <v>4.8828048077</v>
       </c>
       <c r="E84" t="n">
-        <v>13089</v>
+        <v>16516</v>
       </c>
     </row>
     <row r="85">
@@ -2592,10 +2616,10 @@
         <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>3.3030890579</v>
+        <v>4.4309797219</v>
       </c>
       <c r="E85" t="n">
-        <v>12215</v>
+        <v>16386</v>
       </c>
     </row>
     <row r="86">
@@ -2608,12 +2632,8 @@
       <c r="C86" t="n">
         <v>2015</v>
       </c>
-      <c r="D86" t="n">
-        <v>2.7060009933</v>
-      </c>
-      <c r="E86" t="n">
-        <v>9153</v>
-      </c>
+      <c r="D86"/>
+      <c r="E86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -2625,12 +2645,8 @@
       <c r="C87" t="n">
         <v>2016</v>
       </c>
-      <c r="D87" t="n">
-        <v>2.6581551731</v>
-      </c>
-      <c r="E87" t="n">
-        <v>9830</v>
-      </c>
+      <c r="D87"/>
+      <c r="E87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -2643,10 +2659,10 @@
         <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>8.7982726494</v>
+        <v>3.4380078172</v>
       </c>
       <c r="E88" t="n">
-        <v>29760</v>
+        <v>11629</v>
       </c>
     </row>
     <row r="89">
@@ -2660,10 +2676,10 @@
         <v>2016</v>
       </c>
       <c r="D89" t="n">
-        <v>8.0223285372</v>
+        <v>2.5383624222</v>
       </c>
       <c r="E89" t="n">
-        <v>29667</v>
+        <v>9387</v>
       </c>
     </row>
     <row r="90">
@@ -2677,10 +2693,10 @@
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>3.9080768197</v>
+        <v>1.5946869177</v>
       </c>
       <c r="E90" t="n">
-        <v>13219</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="91">
@@ -2694,10 +2710,10 @@
         <v>2016</v>
       </c>
       <c r="D91" t="n">
-        <v>3.5745832384</v>
+        <v>1.4383242488</v>
       </c>
       <c r="E91" t="n">
-        <v>13219</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="92">
@@ -2711,10 +2727,10 @@
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>3.8625481238</v>
+        <v>5.5273019306</v>
       </c>
       <c r="E92" t="n">
-        <v>13065</v>
+        <v>18696</v>
       </c>
     </row>
     <row r="93">
@@ -2728,10 +2744,10 @@
         <v>2016</v>
       </c>
       <c r="D93" t="n">
-        <v>3.6567886476</v>
+        <v>5.0369742024</v>
       </c>
       <c r="E93" t="n">
-        <v>13523</v>
+        <v>18627</v>
       </c>
     </row>
     <row r="94">
@@ -2745,10 +2761,10 @@
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>2.7867109541</v>
+        <v>11.7650289007</v>
       </c>
       <c r="E94" t="n">
-        <v>9426</v>
+        <v>39795</v>
       </c>
     </row>
     <row r="95">
@@ -2762,10 +2778,10 @@
         <v>2016</v>
       </c>
       <c r="D95" t="n">
-        <v>2.5586433619</v>
+        <v>10.6848103108</v>
       </c>
       <c r="E95" t="n">
-        <v>9462</v>
+        <v>39513</v>
       </c>
     </row>
     <row r="96">
@@ -2779,10 +2795,10 @@
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>2.2397753223</v>
+        <v>4.9587845144</v>
       </c>
       <c r="E96" t="n">
-        <v>7576</v>
+        <v>16773</v>
       </c>
     </row>
     <row r="97">
@@ -2796,10 +2812,10 @@
         <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>2.0278235649</v>
+        <v>4.4006935185</v>
       </c>
       <c r="E97" t="n">
-        <v>7499</v>
+        <v>16274</v>
       </c>
     </row>
     <row r="98">
@@ -2813,10 +2829,10 @@
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>3.5332041812</v>
+        <v>5.78184873</v>
       </c>
       <c r="E98" t="n">
-        <v>11951</v>
+        <v>19557</v>
       </c>
     </row>
     <row r="99">
@@ -2830,10 +2846,10 @@
         <v>2016</v>
       </c>
       <c r="D99" t="n">
-        <v>3.3755596161</v>
+        <v>5.2589828898</v>
       </c>
       <c r="E99" t="n">
-        <v>12483</v>
+        <v>19448</v>
       </c>
     </row>
     <row r="100">
@@ -2847,10 +2863,10 @@
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>1.4994905537</v>
+        <v>3.1065943884</v>
       </c>
       <c r="E100" t="n">
-        <v>5072</v>
+        <v>10508</v>
       </c>
     </row>
     <row r="101">
@@ -2864,10 +2880,10 @@
         <v>2016</v>
       </c>
       <c r="D101" t="n">
-        <v>1.3171794352</v>
+        <v>3.2390012882</v>
       </c>
       <c r="E101" t="n">
-        <v>4871</v>
+        <v>11978</v>
       </c>
     </row>
     <row r="102">
@@ -2881,10 +2897,10 @@
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>1.8300170598</v>
+        <v>1.5692618019</v>
       </c>
       <c r="E102" t="n">
-        <v>6190</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="103">
@@ -2898,10 +2914,10 @@
         <v>2016</v>
       </c>
       <c r="D103" t="n">
-        <v>1.7871564129</v>
+        <v>1.4339976483</v>
       </c>
       <c r="E103" t="n">
-        <v>6609</v>
+        <v>5303</v>
       </c>
     </row>
     <row r="104">
@@ -2915,10 +2931,10 @@
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>5.1805151759</v>
+        <v>6.0106747727</v>
       </c>
       <c r="E104" t="n">
-        <v>17523</v>
+        <v>20331</v>
       </c>
     </row>
     <row r="105">
@@ -2932,10 +2948,10 @@
         <v>2016</v>
       </c>
       <c r="D105" t="n">
-        <v>4.4655925258</v>
+        <v>4.5066952304</v>
       </c>
       <c r="E105" t="n">
-        <v>16514</v>
+        <v>16666</v>
       </c>
     </row>
     <row r="106">
@@ -2948,8 +2964,12 @@
       <c r="C106" t="n">
         <v>2015</v>
       </c>
-      <c r="D106"/>
-      <c r="E106"/>
+      <c r="D106" t="n">
+        <v>1.8300170598</v>
+      </c>
+      <c r="E106" t="n">
+        <v>6190</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -2961,8 +2981,12 @@
       <c r="C107" t="n">
         <v>2016</v>
       </c>
-      <c r="D107"/>
-      <c r="E107"/>
+      <c r="D107" t="n">
+        <v>1.7871564129</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6609</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
@@ -2975,10 +2999,10 @@
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>2.3719267966</v>
+        <v>3.483536513</v>
       </c>
       <c r="E108" t="n">
-        <v>8023</v>
+        <v>11783</v>
       </c>
     </row>
     <row r="109">
@@ -2992,10 +3016,10 @@
         <v>2016</v>
       </c>
       <c r="D109" t="n">
-        <v>2.1695197308</v>
+        <v>3.0529574674</v>
       </c>
       <c r="E109" t="n">
-        <v>8023</v>
+        <v>11290</v>
       </c>
     </row>
     <row r="110">
@@ -3009,10 +3033,10 @@
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>4.9238988903</v>
+        <v>2.4759923871</v>
       </c>
       <c r="E110" t="n">
-        <v>16655</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="111">
@@ -3026,10 +3050,10 @@
         <v>2016</v>
       </c>
       <c r="D111" t="n">
-        <v>4.3744635031</v>
+        <v>2.3763853165</v>
       </c>
       <c r="E111" t="n">
-        <v>16177</v>
+        <v>8788</v>
       </c>
     </row>
     <row r="112">
@@ -3043,10 +3067,10 @@
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>2.6338646181</v>
+        <v>6.999889164</v>
       </c>
       <c r="E112" t="n">
-        <v>8909</v>
+        <v>23677</v>
       </c>
     </row>
     <row r="113">
@@ -3060,10 +3084,10 @@
         <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>2.4091052327</v>
+        <v>6.348745387</v>
       </c>
       <c r="E113" t="n">
-        <v>8909</v>
+        <v>23478</v>
       </c>
     </row>
     <row r="114">
@@ -3077,10 +3101,10 @@
         <v>2015</v>
       </c>
       <c r="D114" t="n">
-        <v>10.1342737954</v>
+        <v>6.3553920412</v>
       </c>
       <c r="E114" t="n">
-        <v>34279</v>
+        <v>21497</v>
       </c>
     </row>
     <row r="115">
@@ -3094,10 +3118,10 @@
         <v>2016</v>
       </c>
       <c r="D115" t="n">
-        <v>9.0496257399</v>
+        <v>5.6099783541</v>
       </c>
       <c r="E115" t="n">
-        <v>33466</v>
+        <v>20746</v>
       </c>
     </row>
     <row r="116">
@@ -3111,10 +3135,10 @@
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>4.8224940678</v>
+        <v>3.6511648932</v>
       </c>
       <c r="E116" t="n">
-        <v>16312</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="117">
@@ -3128,10 +3152,10 @@
         <v>2016</v>
       </c>
       <c r="D117" t="n">
-        <v>4.405020119</v>
+        <v>3.1841075446</v>
       </c>
       <c r="E117" t="n">
-        <v>16290</v>
+        <v>11775</v>
       </c>
     </row>
     <row r="118">
@@ -3145,10 +3169,10 @@
         <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>2.8819073181</v>
+        <v>3.7980984115</v>
       </c>
       <c r="E118" t="n">
-        <v>9748</v>
+        <v>12847</v>
       </c>
     </row>
     <row r="119">
@@ -3162,10 +3186,10 @@
         <v>2016</v>
       </c>
       <c r="D119" t="n">
-        <v>2.6000164791</v>
+        <v>3.3950293182</v>
       </c>
       <c r="E119" t="n">
-        <v>9615</v>
+        <v>12555</v>
       </c>
     </row>
     <row r="120">
@@ -3179,10 +3203,10 @@
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>4.3876063303</v>
+        <v>3.5816892859</v>
       </c>
       <c r="E120" t="n">
-        <v>14841</v>
+        <v>12115</v>
       </c>
     </row>
     <row r="121">
@@ -3196,10 +3220,10 @@
         <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>3.8850168232</v>
+        <v>2.719268405</v>
       </c>
       <c r="E121" t="n">
-        <v>14367</v>
+        <v>10056</v>
       </c>
     </row>
     <row r="122">
@@ -3213,10 +3237,10 @@
         <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>6.3553920412</v>
+        <v>5.6307762393</v>
       </c>
       <c r="E122" t="n">
-        <v>21497</v>
+        <v>19046</v>
       </c>
     </row>
     <row r="123">
@@ -3230,10 +3254,10 @@
         <v>2016</v>
       </c>
       <c r="D123" t="n">
-        <v>5.6099783541</v>
+        <v>4.4088058944</v>
       </c>
       <c r="E123" t="n">
-        <v>20746</v>
+        <v>16304</v>
       </c>
     </row>
     <row r="124">
@@ -3247,10 +3271,10 @@
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>3.5816892859</v>
+        <v>5.1805151759</v>
       </c>
       <c r="E124" t="n">
-        <v>12115</v>
+        <v>17523</v>
       </c>
     </row>
     <row r="125">
@@ -3264,10 +3288,10 @@
         <v>2016</v>
       </c>
       <c r="D125" t="n">
-        <v>2.719268405</v>
+        <v>4.4655925258</v>
       </c>
       <c r="E125" t="n">
-        <v>10056</v>
+        <v>16514</v>
       </c>
     </row>
     <row r="126">
@@ -3281,10 +3305,10 @@
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>3.0353449359</v>
+        <v>2.4966872488</v>
       </c>
       <c r="E126" t="n">
-        <v>10267</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="127">
@@ -3298,10 +3322,10 @@
         <v>2016</v>
       </c>
       <c r="D127" t="n">
-        <v>2.5672965629</v>
+        <v>2.2190052239</v>
       </c>
       <c r="E127" t="n">
-        <v>9494</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="128">
@@ -3314,8 +3338,12 @@
       <c r="C128" t="n">
         <v>2015</v>
       </c>
-      <c r="D128"/>
-      <c r="E128"/>
+      <c r="D128" t="n">
+        <v>2.45352368</v>
+      </c>
+      <c r="E128" t="n">
+        <v>8299</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -3327,8 +3355,12 @@
       <c r="C129" t="n">
         <v>2016</v>
       </c>
-      <c r="D129"/>
-      <c r="E129"/>
+      <c r="D129" t="n">
+        <v>2.144641778</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7931</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
@@ -3341,10 +3373,10 @@
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>9.7836437093</v>
+        <v>2.4733316191</v>
       </c>
       <c r="E130" t="n">
-        <v>33093</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="131">
@@ -3358,10 +3390,10 @@
         <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>8.7957083739</v>
+        <v>2.2774143304</v>
       </c>
       <c r="E131" t="n">
-        <v>32527</v>
+        <v>8422</v>
       </c>
     </row>
     <row r="132">
@@ -3375,10 +3407,10 @@
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>3.5243349548</v>
+        <v>6.2829600251</v>
       </c>
       <c r="E132" t="n">
-        <v>11921</v>
+        <v>21252</v>
       </c>
     </row>
     <row r="133">
@@ -3392,10 +3424,10 @@
         <v>2016</v>
       </c>
       <c r="D133" t="n">
-        <v>3.0824324332</v>
+        <v>5.5515692476</v>
       </c>
       <c r="E133" t="n">
-        <v>11399</v>
+        <v>20530</v>
       </c>
     </row>
     <row r="134">
@@ -3409,10 +3441,10 @@
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>4.8703878907</v>
+        <v>3.0353449359</v>
       </c>
       <c r="E134" t="n">
-        <v>16474</v>
+        <v>10267</v>
       </c>
     </row>
     <row r="135">
@@ -3426,10 +3458,10 @@
         <v>2016</v>
       </c>
       <c r="D135" t="n">
-        <v>4.1635417294</v>
+        <v>2.5672965629</v>
       </c>
       <c r="E135" t="n">
-        <v>15397</v>
+        <v>9494</v>
       </c>
     </row>
     <row r="136">
@@ -3442,12 +3474,8 @@
       <c r="C136" t="n">
         <v>2015</v>
       </c>
-      <c r="D136" t="n">
-        <v>6.7308559613</v>
-      </c>
-      <c r="E136" t="n">
-        <v>22767</v>
-      </c>
+      <c r="D136"/>
+      <c r="E136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -3459,12 +3487,8 @@
       <c r="C137" t="n">
         <v>2016</v>
       </c>
-      <c r="D137" t="n">
-        <v>5.5588703859</v>
-      </c>
-      <c r="E137" t="n">
-        <v>20557</v>
-      </c>
+      <c r="D137"/>
+      <c r="E137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
@@ -3477,10 +3501,10 @@
         <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>3.3791752817</v>
+        <v>3.4465814028</v>
       </c>
       <c r="E138" t="n">
-        <v>11430</v>
+        <v>11658</v>
       </c>
     </row>
     <row r="139">
@@ -3494,10 +3518,10 @@
         <v>2016</v>
       </c>
       <c r="D139" t="n">
-        <v>3.3988150937</v>
+        <v>3.0591769556</v>
       </c>
       <c r="E139" t="n">
-        <v>12569</v>
+        <v>11313</v>
       </c>
     </row>
     <row r="140">
@@ -3511,10 +3535,10 @@
         <v>2015</v>
       </c>
       <c r="D140" t="n">
-        <v>11.9778903357</v>
+        <v>2.4807226412</v>
       </c>
       <c r="E140" t="n">
-        <v>40515</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="141">
@@ -3528,10 +3552,10 @@
         <v>2016</v>
       </c>
       <c r="D141" t="n">
-        <v>10.9557636662</v>
+        <v>2.1646523053</v>
       </c>
       <c r="E141" t="n">
-        <v>40515</v>
+        <v>8005</v>
       </c>
     </row>
     <row r="142">
@@ -3545,10 +3569,10 @@
         <v>2015</v>
       </c>
       <c r="D142" t="n">
-        <v>4.0547146971</v>
+        <v>6.9806725067</v>
       </c>
       <c r="E142" t="n">
-        <v>13715</v>
+        <v>23612</v>
       </c>
     </row>
     <row r="143">
@@ -3562,10 +3586,10 @@
         <v>2016</v>
       </c>
       <c r="D143" t="n">
-        <v>3.7087078534</v>
+        <v>6.3717304521</v>
       </c>
       <c r="E143" t="n">
-        <v>13715</v>
+        <v>23563</v>
       </c>
     </row>
     <row r="144">
@@ -3579,10 +3603,10 @@
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>5.2032795239</v>
+        <v>2.7867109541</v>
       </c>
       <c r="E144" t="n">
-        <v>17600</v>
+        <v>9426</v>
       </c>
     </row>
     <row r="145">
@@ -3596,10 +3620,10 @@
         <v>2016</v>
       </c>
       <c r="D145" t="n">
-        <v>4.7519593954</v>
+        <v>2.5586433619</v>
       </c>
       <c r="E145" t="n">
-        <v>17573</v>
+        <v>9462</v>
       </c>
     </row>
     <row r="146">
@@ -3613,10 +3637,10 @@
         <v>2015</v>
       </c>
       <c r="D146" t="n">
-        <v>4.0553059789</v>
+        <v>5.9624853089</v>
       </c>
       <c r="E146" t="n">
-        <v>13717</v>
+        <v>20168</v>
       </c>
     </row>
     <row r="147">
@@ -3630,10 +3654,10 @@
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>3.7092486785</v>
+        <v>5.4474604234</v>
       </c>
       <c r="E147" t="n">
-        <v>13717</v>
+        <v>20145</v>
       </c>
     </row>
     <row r="148">
@@ -3647,10 +3671,10 @@
         <v>2015</v>
       </c>
       <c r="D148" t="n">
-        <v>7.4693668847</v>
+        <v>3.192921526</v>
       </c>
       <c r="E148" t="n">
-        <v>25265</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="149">
@@ -3664,10 +3688,10 @@
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>6.3306277475</v>
+        <v>2.8377090932</v>
       </c>
       <c r="E149" t="n">
-        <v>23411</v>
+        <v>10494</v>
       </c>
     </row>
     <row r="150">
@@ -3681,10 +3705,10 @@
         <v>2015</v>
       </c>
       <c r="D150" t="n">
-        <v>3.6511648932</v>
+        <v>4.4626991144</v>
       </c>
       <c r="E150" t="n">
-        <v>12350</v>
+        <v>15095</v>
       </c>
     </row>
     <row r="151">
@@ -3698,10 +3722,10 @@
         <v>2016</v>
       </c>
       <c r="D151" t="n">
-        <v>3.1841075446</v>
+        <v>3.9761458459</v>
       </c>
       <c r="E151" t="n">
-        <v>11775</v>
+        <v>14704</v>
       </c>
     </row>
     <row r="152">
@@ -3715,10 +3739,10 @@
         <v>2015</v>
       </c>
       <c r="D152" t="n">
-        <v>5.9624853089</v>
+        <v>2.0307572187</v>
       </c>
       <c r="E152" t="n">
-        <v>20168</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="153">
@@ -3732,10 +3756,10 @@
         <v>2016</v>
       </c>
       <c r="D153" t="n">
-        <v>5.4474604234</v>
+        <v>1.8415093315</v>
       </c>
       <c r="E153" t="n">
-        <v>20145</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="154">
@@ -3749,10 +3773,10 @@
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>2.6974274077</v>
+        <v>3.3392637626</v>
       </c>
       <c r="E154" t="n">
-        <v>9124</v>
+        <v>11295</v>
       </c>
     </row>
     <row r="155">
@@ -3766,10 +3790,10 @@
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>2.2444240017</v>
+        <v>2.8893578865</v>
       </c>
       <c r="E155" t="n">
-        <v>8300</v>
+        <v>10685</v>
       </c>
     </row>
     <row r="156">
@@ -3783,10 +3807,10 @@
         <v>2015</v>
       </c>
       <c r="D156" t="n">
-        <v>5.8338815252</v>
+        <v>2.7660160923</v>
       </c>
       <c r="E156" t="n">
-        <v>19733</v>
+        <v>9356</v>
       </c>
     </row>
     <row r="157">
@@ -3800,10 +3824,10 @@
         <v>2016</v>
       </c>
       <c r="D157" t="n">
-        <v>5.0415712154</v>
+        <v>2.5467452106</v>
       </c>
       <c r="E157" t="n">
-        <v>18644</v>
+        <v>9418</v>
       </c>
     </row>
     <row r="158">
@@ -3817,10 +3841,10 @@
         <v>2015</v>
       </c>
       <c r="D158" t="n">
-        <v>2.9632085607</v>
+        <v>2.0819030913</v>
       </c>
       <c r="E158" t="n">
-        <v>10023</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="159">
@@ -3834,10 +3858,10 @@
         <v>2016</v>
       </c>
       <c r="D159" t="n">
-        <v>2.5829804897</v>
+        <v>1.9239851533</v>
       </c>
       <c r="E159" t="n">
-        <v>9552</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="160">
@@ -3850,12 +3874,8 @@
       <c r="C160" t="n">
         <v>2015</v>
       </c>
-      <c r="D160" t="n">
-        <v>3.5459167392</v>
-      </c>
-      <c r="E160" t="n">
-        <v>11994</v>
-      </c>
+      <c r="D160"/>
+      <c r="E160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -3867,12 +3887,8 @@
       <c r="C161" t="n">
         <v>2016</v>
       </c>
-      <c r="D161" t="n">
-        <v>3.1914086829</v>
-      </c>
-      <c r="E161" t="n">
-        <v>11802</v>
-      </c>
+      <c r="D161"/>
+      <c r="E161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
@@ -3884,12 +3900,8 @@
       <c r="C162" t="n">
         <v>2015</v>
       </c>
-      <c r="D162" t="n">
-        <v>3.7980984115</v>
-      </c>
-      <c r="E162" t="n">
-        <v>12847</v>
-      </c>
+      <c r="D162"/>
+      <c r="E162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -3901,12 +3913,8 @@
       <c r="C163" t="n">
         <v>2016</v>
       </c>
-      <c r="D163" t="n">
-        <v>3.3950293182</v>
-      </c>
-      <c r="E163" t="n">
-        <v>12555</v>
-      </c>
+      <c r="D163"/>
+      <c r="E163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
@@ -3919,10 +3927,10 @@
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>6.2829600251</v>
+        <v>9.7836437093</v>
       </c>
       <c r="E164" t="n">
-        <v>21252</v>
+        <v>33093</v>
       </c>
     </row>
     <row r="165">
@@ -3936,10 +3944,10 @@
         <v>2016</v>
       </c>
       <c r="D165" t="n">
-        <v>5.5515692476</v>
+        <v>8.7957083739</v>
       </c>
       <c r="E165" t="n">
-        <v>20530</v>
+        <v>32527</v>
       </c>
     </row>
     <row r="166">
@@ -3953,10 +3961,10 @@
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>6.1389829155</v>
+        <v>3.5201959824</v>
       </c>
       <c r="E166" t="n">
-        <v>20765</v>
+        <v>11907</v>
       </c>
     </row>
     <row r="167">
@@ -3970,10 +3978,10 @@
         <v>2016</v>
       </c>
       <c r="D167" t="n">
-        <v>5.6151161922</v>
+        <v>3.1505763908</v>
       </c>
       <c r="E167" t="n">
-        <v>20765</v>
+        <v>11651</v>
       </c>
     </row>
     <row r="168">
@@ -3986,12 +3994,8 @@
       <c r="C168" t="n">
         <v>2015</v>
       </c>
-      <c r="D168" t="n">
-        <v>7.3655969351</v>
-      </c>
-      <c r="E168" t="n">
-        <v>24914</v>
-      </c>
+      <c r="D168"/>
+      <c r="E168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
@@ -4003,12 +4007,8 @@
       <c r="C169" t="n">
         <v>2016</v>
       </c>
-      <c r="D169" t="n">
-        <v>4.8225370658</v>
-      </c>
-      <c r="E169" t="n">
-        <v>17834</v>
-      </c>
+      <c r="D169"/>
+      <c r="E169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
@@ -4021,10 +4021,10 @@
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>6.1848072522</v>
+        <v>2.4079949842</v>
       </c>
       <c r="E170" t="n">
-        <v>20920</v>
+        <v>8145</v>
       </c>
     </row>
     <row r="171">
@@ -4038,10 +4038,10 @@
         <v>2016</v>
       </c>
       <c r="D171" t="n">
-        <v>5.2084157466</v>
+        <v>1.9147911272</v>
       </c>
       <c r="E171" t="n">
-        <v>19261</v>
+        <v>7081</v>
       </c>
     </row>
     <row r="172">
@@ -4055,10 +4055,10 @@
         <v>2015</v>
       </c>
       <c r="D172" t="n">
-        <v>4.1537543926</v>
+        <v>4.8703878907</v>
       </c>
       <c r="E172" t="n">
-        <v>14050</v>
+        <v>16474</v>
       </c>
     </row>
     <row r="173">
@@ -4072,10 +4072,10 @@
         <v>2016</v>
       </c>
       <c r="D173" t="n">
-        <v>3.1951944583</v>
+        <v>4.1635417294</v>
       </c>
       <c r="E173" t="n">
-        <v>11816</v>
+        <v>15397</v>
       </c>
     </row>
     <row r="174">
@@ -4089,10 +4089,10 @@
         <v>2015</v>
       </c>
       <c r="D174" t="n">
-        <v>6.3072025774</v>
+        <v>5.1967754245</v>
       </c>
       <c r="E174" t="n">
-        <v>21334</v>
+        <v>17578</v>
       </c>
     </row>
     <row r="175">
@@ -4106,10 +4106,10 @@
         <v>2016</v>
       </c>
       <c r="D175" t="n">
-        <v>5.5285841825</v>
+        <v>4.7992815882</v>
       </c>
       <c r="E175" t="n">
-        <v>20445</v>
+        <v>17748</v>
       </c>
     </row>
     <row r="176">
@@ -4123,10 +4123,10 @@
         <v>2015</v>
       </c>
       <c r="D176" t="n">
-        <v>4.2424466572</v>
+        <v>5.0430421658</v>
       </c>
       <c r="E176" t="n">
-        <v>14350</v>
+        <v>17058</v>
       </c>
     </row>
     <row r="177">
@@ -4140,10 +4140,10 @@
         <v>2016</v>
       </c>
       <c r="D177" t="n">
-        <v>3.7368307566</v>
+        <v>4.3536417383</v>
       </c>
       <c r="E177" t="n">
-        <v>13819</v>
+        <v>16100</v>
       </c>
     </row>
     <row r="178">
@@ -4157,10 +4157,10 @@
         <v>2015</v>
       </c>
       <c r="D178" t="n">
-        <v>2.1809427868</v>
+        <v>2.3719267966</v>
       </c>
       <c r="E178" t="n">
-        <v>7377</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="179">
@@ -4174,10 +4174,10 @@
         <v>2016</v>
       </c>
       <c r="D179" t="n">
-        <v>1.9948332362</v>
+        <v>2.1695197308</v>
       </c>
       <c r="E179" t="n">
-        <v>7377</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="180">
@@ -4191,10 +4191,10 @@
         <v>2015</v>
       </c>
       <c r="D180" t="n">
-        <v>4.1241903044</v>
+        <v>2.2397753223</v>
       </c>
       <c r="E180" t="n">
-        <v>13950</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="181">
@@ -4208,10 +4208,10 @@
         <v>2016</v>
       </c>
       <c r="D181" t="n">
-        <v>3.65597741</v>
+        <v>2.0278235649</v>
       </c>
       <c r="E181" t="n">
-        <v>13520</v>
+        <v>7499</v>
       </c>
     </row>
     <row r="182">
@@ -4225,10 +4225,10 @@
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>3.6881200034</v>
+        <v>6.1389829155</v>
       </c>
       <c r="E182" t="n">
-        <v>12475</v>
+        <v>20765</v>
       </c>
     </row>
     <row r="183">
@@ -4242,10 +4242,10 @@
         <v>2016</v>
       </c>
       <c r="D183" t="n">
-        <v>3.4026008691</v>
+        <v>5.6151161922</v>
       </c>
       <c r="E183" t="n">
-        <v>12583</v>
+        <v>20765</v>
       </c>
     </row>
     <row r="184">
@@ -4259,10 +4259,10 @@
         <v>2015</v>
       </c>
       <c r="D184" t="n">
-        <v>4.9587845144</v>
+        <v>3.5243349548</v>
       </c>
       <c r="E184" t="n">
-        <v>16773</v>
+        <v>11921</v>
       </c>
     </row>
     <row r="185">
@@ -4276,10 +4276,10 @@
         <v>2016</v>
       </c>
       <c r="D185" t="n">
-        <v>4.4006935185</v>
+        <v>3.0824324332</v>
       </c>
       <c r="E185" t="n">
-        <v>16274</v>
+        <v>11399</v>
       </c>
     </row>
     <row r="186">
@@ -4293,10 +4293,10 @@
         <v>2015</v>
       </c>
       <c r="D186" t="n">
-        <v>1.5692618019</v>
+        <v>4.9238988903</v>
       </c>
       <c r="E186" t="n">
-        <v>5308</v>
+        <v>16655</v>
       </c>
     </row>
     <row r="187">
@@ -4310,10 +4310,10 @@
         <v>2016</v>
       </c>
       <c r="D187" t="n">
-        <v>1.4339976483</v>
+        <v>4.3744635031</v>
       </c>
       <c r="E187" t="n">
-        <v>5303</v>
+        <v>16177</v>
       </c>
     </row>
     <row r="188">
@@ -4327,10 +4327,10 @@
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>6.999889164</v>
+        <v>9.0956873768</v>
       </c>
       <c r="E188" t="n">
-        <v>23677</v>
+        <v>30766</v>
       </c>
     </row>
     <row r="189">
@@ -4344,10 +4344,10 @@
         <v>2016</v>
       </c>
       <c r="D189" t="n">
-        <v>6.348745387</v>
+        <v>8.2775979658</v>
       </c>
       <c r="E189" t="n">
-        <v>23478</v>
+        <v>30611</v>
       </c>
     </row>
     <row r="190">
@@ -4361,10 +4361,10 @@
         <v>2015</v>
       </c>
       <c r="D190" t="n">
-        <v>4.4626991144</v>
+        <v>3.3646888785</v>
       </c>
       <c r="E190" t="n">
-        <v>15095</v>
+        <v>11381</v>
       </c>
     </row>
     <row r="191">
@@ -4378,10 +4378,10 @@
         <v>2016</v>
       </c>
       <c r="D191" t="n">
-        <v>3.9761458459</v>
+        <v>3.0767537701</v>
       </c>
       <c r="E191" t="n">
-        <v>14704</v>
+        <v>11378</v>
       </c>
     </row>
     <row r="192">
@@ -4395,10 +4395,10 @@
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>2.7660160923</v>
+        <v>7.3655969351</v>
       </c>
       <c r="E192" t="n">
-        <v>9356</v>
+        <v>24914</v>
       </c>
     </row>
     <row r="193">
@@ -4412,10 +4412,10 @@
         <v>2016</v>
       </c>
       <c r="D193" t="n">
-        <v>2.5467452106</v>
+        <v>4.8225370658</v>
       </c>
       <c r="E193" t="n">
-        <v>9418</v>
+        <v>17834</v>
       </c>
     </row>
     <row r="194">
@@ -4429,10 +4429,10 @@
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>3.3646888785</v>
+        <v>6.1848072522</v>
       </c>
       <c r="E194" t="n">
-        <v>11381</v>
+        <v>20920</v>
       </c>
     </row>
     <row r="195">
@@ -4446,10 +4446,10 @@
         <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>3.0767537701</v>
+        <v>5.2084157466</v>
       </c>
       <c r="E195" t="n">
-        <v>11378</v>
+        <v>19261</v>
       </c>
     </row>
     <row r="196">
@@ -4463,10 +4463,10 @@
         <v>2015</v>
       </c>
       <c r="D196" t="n">
-        <v>4.3400081483</v>
+        <v>2.6974274077</v>
       </c>
       <c r="E196" t="n">
-        <v>14680</v>
+        <v>9124</v>
       </c>
     </row>
     <row r="197">
@@ -4480,10 +4480,10 @@
         <v>2016</v>
       </c>
       <c r="D197" t="n">
-        <v>3.8222811162</v>
+        <v>2.2444240017</v>
       </c>
       <c r="E197" t="n">
-        <v>14135</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="198">
@@ -4497,10 +4497,10 @@
         <v>2015</v>
       </c>
       <c r="D198" t="n">
-        <v>1.5946869177</v>
+        <v>6.7308559613</v>
       </c>
       <c r="E198" t="n">
-        <v>5394</v>
+        <v>22767</v>
       </c>
     </row>
     <row r="199">
@@ -4514,10 +4514,10 @@
         <v>2016</v>
       </c>
       <c r="D199" t="n">
-        <v>1.4383242488</v>
+        <v>5.5588703859</v>
       </c>
       <c r="E199" t="n">
-        <v>5319</v>
+        <v>20557</v>
       </c>
     </row>
     <row r="200">
@@ -4531,10 +4531,10 @@
         <v>2015</v>
       </c>
       <c r="D200" t="n">
-        <v>5.5273019306</v>
+        <v>3.4252952593</v>
       </c>
       <c r="E200" t="n">
-        <v>18696</v>
+        <v>11586</v>
       </c>
     </row>
     <row r="201">
@@ -4548,10 +4548,10 @@
         <v>2016</v>
       </c>
       <c r="D201" t="n">
-        <v>5.0369742024</v>
+        <v>3.116504412</v>
       </c>
       <c r="E201" t="n">
-        <v>18627</v>
+        <v>11525</v>
       </c>
     </row>
     <row r="202">
@@ -4565,10 +4565,10 @@
         <v>2015</v>
       </c>
       <c r="D202" t="n">
-        <v>2.4733316191</v>
+        <v>5.3289268987</v>
       </c>
       <c r="E202" t="n">
-        <v>8366</v>
+        <v>18025</v>
       </c>
     </row>
     <row r="203">
@@ -4582,10 +4582,10 @@
         <v>2016</v>
       </c>
       <c r="D203" t="n">
-        <v>2.2774143304</v>
+        <v>4.8695888461</v>
       </c>
       <c r="E203" t="n">
-        <v>8422</v>
+        <v>18008</v>
       </c>
     </row>
     <row r="204">
@@ -4599,10 +4599,10 @@
         <v>2015</v>
       </c>
       <c r="D204" t="n">
-        <v>5.8235340944</v>
+        <v>2.4387416359</v>
       </c>
       <c r="E204" t="n">
-        <v>19698</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="205">
@@ -4616,10 +4616,10 @@
         <v>2016</v>
       </c>
       <c r="D205" t="n">
-        <v>5.1335114757</v>
+        <v>2.188989433</v>
       </c>
       <c r="E205" t="n">
-        <v>18984</v>
+        <v>8095</v>
       </c>
     </row>
     <row r="206">
@@ -4633,10 +4633,10 @@
         <v>2015</v>
       </c>
       <c r="D206" t="n">
-        <v>3.5465080209</v>
+        <v>4.3400081483</v>
       </c>
       <c r="E206" t="n">
-        <v>11996</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="207">
@@ -4650,10 +4650,10 @@
         <v>2016</v>
       </c>
       <c r="D207" t="n">
-        <v>3.3052523582</v>
+        <v>3.8222811162</v>
       </c>
       <c r="E207" t="n">
-        <v>12223</v>
+        <v>14135</v>
       </c>
     </row>
     <row r="208">
@@ -4667,10 +4667,10 @@
         <v>2015</v>
       </c>
       <c r="D208" t="n">
-        <v>1.9024490759</v>
+        <v>2.6338646181</v>
       </c>
       <c r="E208" t="n">
-        <v>6435</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="209">
@@ -4684,10 +4684,10 @@
         <v>2016</v>
       </c>
       <c r="D209" t="n">
-        <v>1.7233390558</v>
+        <v>2.4091052327</v>
       </c>
       <c r="E209" t="n">
-        <v>6373</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="210">
@@ -4701,10 +4701,10 @@
         <v>2015</v>
       </c>
       <c r="D210" t="n">
-        <v>3.483536513</v>
+        <v>3.9734134546</v>
       </c>
       <c r="E210" t="n">
-        <v>11783</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="211">
@@ -4718,10 +4718,10 @@
         <v>2016</v>
       </c>
       <c r="D211" t="n">
-        <v>3.0529574674</v>
+        <v>3.6343444076</v>
       </c>
       <c r="E211" t="n">
-        <v>11290</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="212">
@@ -4735,10 +4735,10 @@
         <v>2015</v>
       </c>
       <c r="D212" t="n">
-        <v>2.446132658</v>
+        <v>3.7132494784</v>
       </c>
       <c r="E212" t="n">
-        <v>8274</v>
+        <v>12560</v>
       </c>
     </row>
     <row r="213">
@@ -4752,10 +4752,10 @@
         <v>2016</v>
       </c>
       <c r="D213" t="n">
-        <v>2.1527541539</v>
+        <v>3.3528449635</v>
       </c>
       <c r="E213" t="n">
-        <v>7961</v>
+        <v>12399</v>
       </c>
     </row>
     <row r="214">
@@ -4769,10 +4769,10 @@
         <v>2015</v>
       </c>
       <c r="D214" t="n">
-        <v>2.4759923871</v>
+        <v>3.4312080769</v>
       </c>
       <c r="E214" t="n">
-        <v>8375</v>
+        <v>11606</v>
       </c>
     </row>
     <row r="215">
@@ -4786,10 +4786,10 @@
         <v>2016</v>
       </c>
       <c r="D215" t="n">
-        <v>2.3763853165</v>
+        <v>2.884490461</v>
       </c>
       <c r="E215" t="n">
-        <v>8788</v>
+        <v>10667</v>
       </c>
     </row>
     <row r="216">
@@ -4803,10 +4803,10 @@
         <v>2015</v>
       </c>
       <c r="D216" t="n">
-        <v>2.45352368</v>
+        <v>2.1989768806</v>
       </c>
       <c r="E216" t="n">
-        <v>8299</v>
+        <v>7438</v>
       </c>
     </row>
     <row r="217">
@@ -4820,10 +4820,10 @@
         <v>2016</v>
       </c>
       <c r="D217" t="n">
-        <v>2.144641778</v>
+        <v>2.0305276902</v>
       </c>
       <c r="E217" t="n">
-        <v>7931</v>
+        <v>7509</v>
       </c>
     </row>
     <row r="218">
@@ -4837,10 +4837,10 @@
         <v>2015</v>
       </c>
       <c r="D218" t="n">
-        <v>2.0819030913</v>
+        <v>3.4043047567</v>
       </c>
       <c r="E218" t="n">
-        <v>7042</v>
+        <v>11515</v>
       </c>
     </row>
     <row r="219">
@@ -4854,10 +4854,10 @@
         <v>2016</v>
       </c>
       <c r="D219" t="n">
-        <v>1.9239851533</v>
+        <v>3.085406971</v>
       </c>
       <c r="E219" t="n">
-        <v>7115</v>
+        <v>11410</v>
       </c>
     </row>
     <row r="220">
@@ -4871,10 +4871,10 @@
         <v>2015</v>
       </c>
       <c r="D220" t="n">
-        <v>9.0956873768</v>
+        <v>1.5328979734</v>
       </c>
       <c r="E220" t="n">
-        <v>30766</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="221">
@@ -4888,10 +4888,10 @@
         <v>2016</v>
       </c>
       <c r="D221" t="n">
-        <v>8.2775979658</v>
+        <v>1.3880275182</v>
       </c>
       <c r="E221" t="n">
-        <v>30611</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="222">
@@ -4905,10 +4905,10 @@
         <v>2015</v>
       </c>
       <c r="D222" t="n">
-        <v>2.4387416359</v>
+        <v>3.3791752817</v>
       </c>
       <c r="E222" t="n">
-        <v>8249</v>
+        <v>11430</v>
       </c>
     </row>
     <row r="223">
@@ -4922,10 +4922,10 @@
         <v>2016</v>
       </c>
       <c r="D223" t="n">
-        <v>2.188989433</v>
+        <v>3.3988150937</v>
       </c>
       <c r="E223" t="n">
-        <v>8095</v>
+        <v>12569</v>
       </c>
     </row>
     <row r="224">
@@ -4939,10 +4939,10 @@
         <v>2015</v>
       </c>
       <c r="D224" t="n">
-        <v>3.9734134546</v>
+        <v>4.1537543926</v>
       </c>
       <c r="E224" t="n">
-        <v>13440</v>
+        <v>14050</v>
       </c>
     </row>
     <row r="225">
@@ -4956,10 +4956,10 @@
         <v>2016</v>
       </c>
       <c r="D225" t="n">
-        <v>3.6343444076</v>
+        <v>3.1951944583</v>
       </c>
       <c r="E225" t="n">
-        <v>13440</v>
+        <v>11816</v>
       </c>
     </row>
   </sheetData>
@@ -4981,9 +4981,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>229</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4991,1208 +4994,1544 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>29.2669691173</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>30.5547230391</v>
+        <v>11.9778903357</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.9557636662</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.1342737954</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.0496257399</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n">
-        <v>6.0106747727</v>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5066952304</v>
+        <v>5.8338815252</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.0415712154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="n">
-        <v>3.4465814028</v>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0591769556</v>
+        <v>2.9632085607</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.5829804897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
-        <v>3.192921526</v>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.8377090932</v>
+        <v>4.0547146971</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.7087078534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="n">
-        <v>3.5201959824</v>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>3.1505763908</v>
+        <v>3.5459167392</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.1914086829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.1326107861</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.7784887491</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="n">
-        <v>2.4079949842</v>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>1.9147911272</v>
+        <v>5.2032795239</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.7519593954</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="n">
-        <v>5.0430421658</v>
+      <c r="B10" t="s">
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>4.3536417383</v>
+        <v>4.8224940678</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.405020119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="n">
-        <v>5.3289268987</v>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>4.8695888461</v>
+        <v>2.8819073181</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.6000164791</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="n">
-        <v>2.1989768806</v>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0305276902</v>
+        <v>2.854708357</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.6267873196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="n">
-        <v>3.1065943884</v>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>3.2390012882</v>
+        <v>3.869643505</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.3030890579</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="n">
-        <v>1.5328979734</v>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>1.3880275182</v>
+        <v>2.8322396499</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.5905520405</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="n">
-        <v>6.9806725067</v>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>6.3717304521</v>
+        <v>2.446132658</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.1527541539</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>33</v>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.1275848911</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.8585308581</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="n">
-        <v>5.1967754245</v>
+      <c r="B17" t="s">
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>4.7992815882</v>
+        <v>2.7060009933</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.6581551731</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="n">
-        <v>3.1275848911</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.8585308581</v>
-      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.7982726494</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8.0223285372</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="n">
-        <v>5.2777810261</v>
+      <c r="B20" t="s">
+        <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>4.8284861415</v>
+        <v>3.5332041812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.3755596161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="n">
-        <v>5.3309963849</v>
+      <c r="B21" t="s">
+        <v>44</v>
       </c>
       <c r="C21" t="n">
-        <v>5.2846720802</v>
+        <v>5.8235340944</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.1335114757</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="n">
-        <v>2.1992725215</v>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0578393558</v>
+        <v>6.3072025774</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.5285841825</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="n">
-        <v>4.8828048077</v>
+      <c r="B23" t="s">
+        <v>48</v>
       </c>
       <c r="C23" t="n">
-        <v>4.4309797219</v>
+        <v>4.2424466572</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.7368307566</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24" t="n">
-        <v>2.4966872488</v>
+      <c r="B24" t="s">
+        <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>2.2190052239</v>
+        <v>2.47362726</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.2409086388</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="n">
-        <v>2.4807226412</v>
+      <c r="B25" t="s">
+        <v>52</v>
       </c>
       <c r="C25" t="n">
-        <v>2.1646523053</v>
+        <v>3.9080768197</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.5745832384</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="n">
-        <v>2.8322396499</v>
+      <c r="B26" t="s">
+        <v>54</v>
       </c>
       <c r="C26" t="n">
-        <v>2.5905520405</v>
+        <v>5.2777810261</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.8284861415</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" t="n">
-        <v>2.47362726</v>
+      <c r="B27" t="s">
+        <v>56</v>
       </c>
       <c r="C27" t="n">
-        <v>2.2409086388</v>
+        <v>5.3309963849</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.2846720802</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="n">
-        <v>4.7231587314</v>
+      <c r="B28" t="s">
+        <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>4.2911764437</v>
+        <v>1.4994905537</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.3171794352</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="n">
-        <v>4.5685385501</v>
+      <c r="B29" t="s">
+        <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>4.0789026074</v>
+        <v>4.0553059789</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.7092486785</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" t="n">
-        <v>3.4380078172</v>
+      <c r="B30" t="s">
+        <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>2.5383624222</v>
+        <v>2.1992725215</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.0578393558</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="n">
-        <v>11.7650289007</v>
+      <c r="B31" t="s">
+        <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>10.6848103108</v>
+        <v>4.3876063303</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.8850168232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="n">
-        <v>5.78184873</v>
+      <c r="B32" t="s">
+        <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>5.2589828898</v>
+        <v>2.1809427868</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.9948332362</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="n">
-        <v>5.6307762393</v>
+      <c r="B33" t="s">
+        <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>4.4088058944</v>
+        <v>3.5465080209</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.3052523582</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="n">
-        <v>3.3392637626</v>
+      <c r="B34" t="s">
+        <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>2.8893578865</v>
+        <v>4.7231587314</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.2911764437</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="n">
-        <v>3.4252952593</v>
+      <c r="B35" t="s">
+        <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>3.116504412</v>
+        <v>1.9024490759</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.7233390558</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="n">
-        <v>3.4312080769</v>
+      <c r="B36" t="s">
+        <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>2.884490461</v>
+        <v>4.5685385501</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.0789026074</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="n">
-        <v>3.4043047567</v>
+      <c r="B37" t="s">
+        <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>3.085406971</v>
+        <v>7.4693668847</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.3306277475</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="n">
-        <v>4.0384544486</v>
+      <c r="B38" t="s">
+        <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>3.6538141098</v>
+        <v>4.1241903044</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.65597741</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="n">
-        <v>2.0307572187</v>
+      <c r="B39" t="s">
+        <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>1.8415093315</v>
+        <v>3.6881200034</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.4026008691</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="n">
-        <v>3.7132494784</v>
+      <c r="B40" t="s">
+        <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>3.3528449635</v>
+        <v>4.0384544486</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.6538141098</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="n">
-        <v>3.1326107861</v>
+      <c r="B41" t="s">
+        <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>2.7784887491</v>
+        <v>29.2669691173</v>
+      </c>
+      <c r="D41" t="n">
+        <v>30.5547230391</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="n">
-        <v>2.854708357</v>
+      <c r="B42" t="s">
+        <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>2.6267873196</v>
+        <v>3.8625481238</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.6567886476</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>87</v>
       </c>
-      <c r="B43" t="n">
-        <v>3.869643505</v>
+      <c r="B43" t="s">
+        <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>3.3030890579</v>
+        <v>4.8828048077</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.4309797219</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>89</v>
       </c>
-      <c r="B44" t="n">
-        <v>2.7060009933</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.6581551731</v>
-      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>91</v>
       </c>
-      <c r="B45" t="n">
-        <v>8.7982726494</v>
+      <c r="B45" t="s">
+        <v>92</v>
       </c>
       <c r="C45" t="n">
-        <v>8.0223285372</v>
+        <v>3.4380078172</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.5383624222</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="n">
-        <v>3.9080768197</v>
+      <c r="B46" t="s">
+        <v>94</v>
       </c>
       <c r="C46" t="n">
-        <v>3.5745832384</v>
+        <v>1.5946869177</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.4383242488</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="n">
-        <v>3.8625481238</v>
+      <c r="B47" t="s">
+        <v>96</v>
       </c>
       <c r="C47" t="n">
-        <v>3.6567886476</v>
+        <v>5.5273019306</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.0369742024</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="n">
-        <v>2.7867109541</v>
+      <c r="B48" t="s">
+        <v>98</v>
       </c>
       <c r="C48" t="n">
-        <v>2.5586433619</v>
+        <v>11.7650289007</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10.6848103108</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="n">
-        <v>2.2397753223</v>
+      <c r="B49" t="s">
+        <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>2.0278235649</v>
+        <v>4.9587845144</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.4006935185</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="n">
-        <v>3.5332041812</v>
+      <c r="B50" t="s">
+        <v>102</v>
       </c>
       <c r="C50" t="n">
-        <v>3.3755596161</v>
+        <v>5.78184873</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.2589828898</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="n">
-        <v>1.4994905537</v>
+      <c r="B51" t="s">
+        <v>104</v>
       </c>
       <c r="C51" t="n">
-        <v>1.3171794352</v>
+        <v>3.1065943884</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.2390012882</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="n">
-        <v>1.8300170598</v>
+      <c r="B52" t="s">
+        <v>106</v>
       </c>
       <c r="C52" t="n">
-        <v>1.7871564129</v>
+        <v>1.5692618019</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.4339976483</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>107</v>
       </c>
-      <c r="B53" t="n">
-        <v>5.1805151759</v>
+      <c r="B53" t="s">
+        <v>108</v>
       </c>
       <c r="C53" t="n">
-        <v>4.4655925258</v>
+        <v>6.0106747727</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.5066952304</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="B54"/>
-      <c r="C54"/>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.8300170598</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.7871564129</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="n">
-        <v>2.3719267966</v>
+      <c r="B55" t="s">
+        <v>112</v>
       </c>
       <c r="C55" t="n">
-        <v>2.1695197308</v>
+        <v>3.483536513</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.0529574674</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="n">
-        <v>4.9238988903</v>
+      <c r="B56" t="s">
+        <v>114</v>
       </c>
       <c r="C56" t="n">
-        <v>4.3744635031</v>
+        <v>2.4759923871</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.3763853165</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="n">
-        <v>2.6338646181</v>
+      <c r="B57" t="s">
+        <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>2.4091052327</v>
+        <v>6.999889164</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6.348745387</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>117</v>
       </c>
-      <c r="B58" t="n">
-        <v>10.1342737954</v>
+      <c r="B58" t="s">
+        <v>118</v>
       </c>
       <c r="C58" t="n">
-        <v>9.0496257399</v>
+        <v>6.3553920412</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.6099783541</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>119</v>
       </c>
-      <c r="B59" t="n">
-        <v>4.8224940678</v>
+      <c r="B59" t="s">
+        <v>120</v>
       </c>
       <c r="C59" t="n">
-        <v>4.405020119</v>
+        <v>3.6511648932</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.1841075446</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>121</v>
       </c>
-      <c r="B60" t="n">
-        <v>2.8819073181</v>
+      <c r="B60" t="s">
+        <v>122</v>
       </c>
       <c r="C60" t="n">
-        <v>2.6000164791</v>
+        <v>3.7980984115</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.3950293182</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>123</v>
       </c>
-      <c r="B61" t="n">
-        <v>4.3876063303</v>
+      <c r="B61" t="s">
+        <v>124</v>
       </c>
       <c r="C61" t="n">
-        <v>3.8850168232</v>
+        <v>3.5816892859</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.719268405</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>125</v>
       </c>
-      <c r="B62" t="n">
-        <v>6.3553920412</v>
+      <c r="B62" t="s">
+        <v>126</v>
       </c>
       <c r="C62" t="n">
-        <v>5.6099783541</v>
+        <v>5.6307762393</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.4088058944</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>127</v>
       </c>
-      <c r="B63" t="n">
-        <v>3.5816892859</v>
+      <c r="B63" t="s">
+        <v>128</v>
       </c>
       <c r="C63" t="n">
-        <v>2.719268405</v>
+        <v>5.1805151759</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.4655925258</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>129</v>
       </c>
-      <c r="B64" t="n">
-        <v>3.0353449359</v>
+      <c r="B64" t="s">
+        <v>130</v>
       </c>
       <c r="C64" t="n">
-        <v>2.5672965629</v>
+        <v>2.4966872488</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.2190052239</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>131</v>
       </c>
-      <c r="B65"/>
-      <c r="C65"/>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.45352368</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.144641778</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>133</v>
       </c>
-      <c r="B66" t="n">
-        <v>9.7836437093</v>
+      <c r="B66" t="s">
+        <v>134</v>
       </c>
       <c r="C66" t="n">
-        <v>8.7957083739</v>
+        <v>2.4733316191</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.2774143304</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>135</v>
       </c>
-      <c r="B67" t="n">
-        <v>3.5243349548</v>
+      <c r="B67" t="s">
+        <v>136</v>
       </c>
       <c r="C67" t="n">
-        <v>3.0824324332</v>
+        <v>6.2829600251</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5.5515692476</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>137</v>
       </c>
-      <c r="B68" t="n">
-        <v>4.8703878907</v>
+      <c r="B68" t="s">
+        <v>138</v>
       </c>
       <c r="C68" t="n">
-        <v>4.1635417294</v>
+        <v>3.0353449359</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.5672965629</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>139</v>
       </c>
-      <c r="B69" t="n">
-        <v>6.7308559613</v>
-      </c>
-      <c r="C69" t="n">
-        <v>5.5588703859</v>
-      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>141</v>
       </c>
-      <c r="B70" t="n">
-        <v>3.3791752817</v>
+      <c r="B70" t="s">
+        <v>142</v>
       </c>
       <c r="C70" t="n">
-        <v>3.3988150937</v>
+        <v>3.4465814028</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.0591769556</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>143</v>
       </c>
-      <c r="B71" t="n">
-        <v>11.9778903357</v>
+      <c r="B71" t="s">
+        <v>144</v>
       </c>
       <c r="C71" t="n">
-        <v>10.9557636662</v>
+        <v>2.4807226412</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.1646523053</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>145</v>
       </c>
-      <c r="B72" t="n">
-        <v>4.0547146971</v>
+      <c r="B72" t="s">
+        <v>146</v>
       </c>
       <c r="C72" t="n">
-        <v>3.7087078534</v>
+        <v>6.9806725067</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6.3717304521</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>147</v>
       </c>
-      <c r="B73" t="n">
-        <v>5.2032795239</v>
+      <c r="B73" t="s">
+        <v>148</v>
       </c>
       <c r="C73" t="n">
-        <v>4.7519593954</v>
+        <v>2.7867109541</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.5586433619</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>149</v>
       </c>
-      <c r="B74" t="n">
-        <v>4.0553059789</v>
+      <c r="B74" t="s">
+        <v>150</v>
       </c>
       <c r="C74" t="n">
-        <v>3.7092486785</v>
+        <v>5.9624853089</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5.4474604234</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>151</v>
       </c>
-      <c r="B75" t="n">
-        <v>7.4693668847</v>
+      <c r="B75" t="s">
+        <v>152</v>
       </c>
       <c r="C75" t="n">
-        <v>6.3306277475</v>
+        <v>3.192921526</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.8377090932</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>153</v>
       </c>
-      <c r="B76" t="n">
-        <v>3.6511648932</v>
+      <c r="B76" t="s">
+        <v>154</v>
       </c>
       <c r="C76" t="n">
-        <v>3.1841075446</v>
+        <v>4.4626991144</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.9761458459</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>155</v>
       </c>
-      <c r="B77" t="n">
-        <v>5.9624853089</v>
+      <c r="B77" t="s">
+        <v>156</v>
       </c>
       <c r="C77" t="n">
-        <v>5.4474604234</v>
+        <v>2.0307572187</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.8415093315</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>157</v>
       </c>
-      <c r="B78" t="n">
-        <v>2.6974274077</v>
+      <c r="B78" t="s">
+        <v>158</v>
       </c>
       <c r="C78" t="n">
-        <v>2.2444240017</v>
+        <v>3.3392637626</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.8893578865</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>159</v>
       </c>
-      <c r="B79" t="n">
-        <v>5.8338815252</v>
+      <c r="B79" t="s">
+        <v>160</v>
       </c>
       <c r="C79" t="n">
-        <v>5.0415712154</v>
+        <v>2.7660160923</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.5467452106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>161</v>
       </c>
-      <c r="B80" t="n">
-        <v>2.9632085607</v>
+      <c r="B80" t="s">
+        <v>162</v>
       </c>
       <c r="C80" t="n">
-        <v>2.5829804897</v>
+        <v>2.0819030913</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.9239851533</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>163</v>
       </c>
-      <c r="B81" t="n">
-        <v>3.5459167392</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3.1914086829</v>
-      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>165</v>
       </c>
-      <c r="B82" t="n">
-        <v>3.7980984115</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3.3950293182</v>
-      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>167</v>
       </c>
-      <c r="B83" t="n">
-        <v>6.2829600251</v>
+      <c r="B83" t="s">
+        <v>168</v>
       </c>
       <c r="C83" t="n">
-        <v>5.5515692476</v>
+        <v>9.7836437093</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8.7957083739</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>169</v>
       </c>
-      <c r="B84" t="n">
-        <v>6.1389829155</v>
+      <c r="B84" t="s">
+        <v>170</v>
       </c>
       <c r="C84" t="n">
-        <v>5.6151161922</v>
+        <v>3.5201959824</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.1505763908</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>171</v>
       </c>
-      <c r="B85" t="n">
-        <v>7.3655969351</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4.8225370658</v>
-      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>173</v>
       </c>
-      <c r="B86" t="n">
-        <v>6.1848072522</v>
+      <c r="B86" t="s">
+        <v>174</v>
       </c>
       <c r="C86" t="n">
-        <v>5.2084157466</v>
+        <v>2.4079949842</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.9147911272</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>175</v>
       </c>
-      <c r="B87" t="n">
-        <v>4.1537543926</v>
+      <c r="B87" t="s">
+        <v>176</v>
       </c>
       <c r="C87" t="n">
-        <v>3.1951944583</v>
+        <v>4.8703878907</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4.1635417294</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>177</v>
       </c>
-      <c r="B88" t="n">
-        <v>6.3072025774</v>
+      <c r="B88" t="s">
+        <v>178</v>
       </c>
       <c r="C88" t="n">
-        <v>5.5285841825</v>
+        <v>5.1967754245</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4.7992815882</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>179</v>
       </c>
-      <c r="B89" t="n">
-        <v>4.2424466572</v>
+      <c r="B89" t="s">
+        <v>180</v>
       </c>
       <c r="C89" t="n">
-        <v>3.7368307566</v>
+        <v>5.0430421658</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4.3536417383</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>181</v>
       </c>
-      <c r="B90" t="n">
-        <v>2.1809427868</v>
+      <c r="B90" t="s">
+        <v>182</v>
       </c>
       <c r="C90" t="n">
-        <v>1.9948332362</v>
+        <v>2.3719267966</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.1695197308</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>183</v>
       </c>
-      <c r="B91" t="n">
-        <v>4.1241903044</v>
+      <c r="B91" t="s">
+        <v>184</v>
       </c>
       <c r="C91" t="n">
-        <v>3.65597741</v>
+        <v>2.2397753223</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.0278235649</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>185</v>
       </c>
-      <c r="B92" t="n">
-        <v>3.6881200034</v>
+      <c r="B92" t="s">
+        <v>186</v>
       </c>
       <c r="C92" t="n">
-        <v>3.4026008691</v>
+        <v>6.1389829155</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5.6151161922</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>187</v>
       </c>
-      <c r="B93" t="n">
-        <v>4.9587845144</v>
+      <c r="B93" t="s">
+        <v>188</v>
       </c>
       <c r="C93" t="n">
-        <v>4.4006935185</v>
+        <v>3.5243349548</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.0824324332</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>189</v>
       </c>
-      <c r="B94" t="n">
-        <v>1.5692618019</v>
+      <c r="B94" t="s">
+        <v>190</v>
       </c>
       <c r="C94" t="n">
-        <v>1.4339976483</v>
+        <v>4.9238988903</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.3744635031</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>191</v>
       </c>
-      <c r="B95" t="n">
-        <v>6.999889164</v>
+      <c r="B95" t="s">
+        <v>192</v>
       </c>
       <c r="C95" t="n">
-        <v>6.348745387</v>
+        <v>9.0956873768</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8.2775979658</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>193</v>
       </c>
-      <c r="B96" t="n">
-        <v>4.4626991144</v>
+      <c r="B96" t="s">
+        <v>194</v>
       </c>
       <c r="C96" t="n">
-        <v>3.9761458459</v>
+        <v>3.3646888785</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.0767537701</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>195</v>
       </c>
-      <c r="B97" t="n">
-        <v>2.7660160923</v>
+      <c r="B97" t="s">
+        <v>196</v>
       </c>
       <c r="C97" t="n">
-        <v>2.5467452106</v>
+        <v>7.3655969351</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4.8225370658</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>197</v>
       </c>
-      <c r="B98" t="n">
-        <v>3.3646888785</v>
+      <c r="B98" t="s">
+        <v>198</v>
       </c>
       <c r="C98" t="n">
-        <v>3.0767537701</v>
+        <v>6.1848072522</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5.2084157466</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>199</v>
       </c>
-      <c r="B99" t="n">
-        <v>4.3400081483</v>
+      <c r="B99" t="s">
+        <v>200</v>
       </c>
       <c r="C99" t="n">
-        <v>3.8222811162</v>
+        <v>2.6974274077</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.2444240017</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>201</v>
       </c>
-      <c r="B100" t="n">
-        <v>1.5946869177</v>
+      <c r="B100" t="s">
+        <v>202</v>
       </c>
       <c r="C100" t="n">
-        <v>1.4383242488</v>
+        <v>6.7308559613</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5.5588703859</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>203</v>
       </c>
-      <c r="B101" t="n">
-        <v>5.5273019306</v>
+      <c r="B101" t="s">
+        <v>204</v>
       </c>
       <c r="C101" t="n">
-        <v>5.0369742024</v>
+        <v>3.4252952593</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.116504412</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>205</v>
       </c>
-      <c r="B102" t="n">
-        <v>2.4733316191</v>
+      <c r="B102" t="s">
+        <v>206</v>
       </c>
       <c r="C102" t="n">
-        <v>2.2774143304</v>
+        <v>5.3289268987</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4.8695888461</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>207</v>
       </c>
-      <c r="B103" t="n">
-        <v>5.8235340944</v>
+      <c r="B103" t="s">
+        <v>208</v>
       </c>
       <c r="C103" t="n">
-        <v>5.1335114757</v>
+        <v>2.4387416359</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.188989433</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>209</v>
       </c>
-      <c r="B104" t="n">
-        <v>3.5465080209</v>
+      <c r="B104" t="s">
+        <v>210</v>
       </c>
       <c r="C104" t="n">
-        <v>3.3052523582</v>
+        <v>4.3400081483</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.8222811162</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>211</v>
       </c>
-      <c r="B105" t="n">
-        <v>1.9024490759</v>
+      <c r="B105" t="s">
+        <v>212</v>
       </c>
       <c r="C105" t="n">
-        <v>1.7233390558</v>
+        <v>2.6338646181</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.4091052327</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>213</v>
       </c>
-      <c r="B106" t="n">
-        <v>3.483536513</v>
+      <c r="B106" t="s">
+        <v>214</v>
       </c>
       <c r="C106" t="n">
-        <v>3.0529574674</v>
+        <v>3.9734134546</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.6343444076</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>215</v>
       </c>
-      <c r="B107" t="n">
-        <v>2.446132658</v>
+      <c r="B107" t="s">
+        <v>216</v>
       </c>
       <c r="C107" t="n">
-        <v>2.1527541539</v>
+        <v>3.7132494784</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.3528449635</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>217</v>
       </c>
-      <c r="B108" t="n">
-        <v>2.4759923871</v>
+      <c r="B108" t="s">
+        <v>218</v>
       </c>
       <c r="C108" t="n">
-        <v>2.3763853165</v>
+        <v>3.4312080769</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.884490461</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>219</v>
       </c>
-      <c r="B109" t="n">
-        <v>2.45352368</v>
+      <c r="B109" t="s">
+        <v>220</v>
       </c>
       <c r="C109" t="n">
-        <v>2.144641778</v>
+        <v>2.1989768806</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.0305276902</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>221</v>
       </c>
-      <c r="B110" t="n">
-        <v>2.0819030913</v>
+      <c r="B110" t="s">
+        <v>222</v>
       </c>
       <c r="C110" t="n">
-        <v>1.9239851533</v>
+        <v>3.4043047567</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3.085406971</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>223</v>
       </c>
-      <c r="B111" t="n">
-        <v>9.0956873768</v>
+      <c r="B111" t="s">
+        <v>224</v>
       </c>
       <c r="C111" t="n">
-        <v>8.2775979658</v>
+        <v>1.5328979734</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.3880275182</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>225</v>
       </c>
-      <c r="B112" t="n">
-        <v>2.4387416359</v>
+      <c r="B112" t="s">
+        <v>226</v>
       </c>
       <c r="C112" t="n">
-        <v>2.188989433</v>
+        <v>3.3791752817</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.3988150937</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>227</v>
       </c>
-      <c r="B113" t="n">
-        <v>3.9734134546</v>
+      <c r="B113" t="s">
+        <v>228</v>
       </c>
       <c r="C113" t="n">
-        <v>3.6343444076</v>
+        <v>4.1537543926</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3.1951944583</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-health-funding/uganda-health-funding.xlsx
+++ b/user-data/uganda-health-funding/uganda-health-funding.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,340 +31,676 @@
     <t xml:space="preserve">value-ncu</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
+    <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
+    <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
+    <t xml:space="preserve">Zombo</t>
   </si>
   <si>
     <t xml:space="preserve">2015</t>
@@ -746,22 +1082,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
@@ -769,7 +1105,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
@@ -777,62 +1113,62 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -870,3312 +1206,3760 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" t="n">
         <v>2015</v>
       </c>
       <c r="D2" t="n">
-        <v>29.2669691173</v>
+        <v>11.9778903357</v>
       </c>
       <c r="E2" t="n">
-        <v>98995</v>
+        <v>40515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3"/>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="n">
         <v>2016</v>
       </c>
       <c r="D3" t="n">
-        <v>30.5547230391</v>
+        <v>10.9557636662</v>
       </c>
       <c r="E3" t="n">
-        <v>112993</v>
+        <v>40515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" t="n">
         <v>2015</v>
       </c>
-      <c r="D4"/>
-      <c r="E4"/>
+      <c r="D4" t="n">
+        <v>10.1342737954</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34279</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5"/>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
       <c r="C5" t="n">
         <v>2016</v>
       </c>
-      <c r="D5"/>
-      <c r="E5"/>
+      <c r="D5" t="n">
+        <v>9.0496257399</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33466</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6"/>
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6" t="n">
         <v>2015</v>
       </c>
       <c r="D6" t="n">
-        <v>6.0106747727</v>
+        <v>5.8338815252</v>
       </c>
       <c r="E6" t="n">
-        <v>20331</v>
+        <v>19733</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7"/>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" t="n">
         <v>2016</v>
       </c>
       <c r="D7" t="n">
-        <v>4.5066952304</v>
+        <v>5.0415712154</v>
       </c>
       <c r="E7" t="n">
-        <v>16666</v>
+        <v>18644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8"/>
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" t="n">
         <v>2015</v>
       </c>
       <c r="D8" t="n">
-        <v>3.4465814028</v>
+        <v>2.9632085607</v>
       </c>
       <c r="E8" t="n">
-        <v>11658</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9"/>
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" t="n">
         <v>2016</v>
       </c>
       <c r="D9" t="n">
-        <v>3.0591769556</v>
+        <v>2.5829804897</v>
       </c>
       <c r="E9" t="n">
-        <v>11313</v>
+        <v>9552</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10"/>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="C10" t="n">
         <v>2015</v>
       </c>
       <c r="D10" t="n">
-        <v>3.192921526</v>
+        <v>4.0547146971</v>
       </c>
       <c r="E10" t="n">
-        <v>10800</v>
+        <v>13715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11"/>
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" t="n">
         <v>2016</v>
       </c>
       <c r="D11" t="n">
-        <v>2.8377090932</v>
+        <v>3.7087078534</v>
       </c>
       <c r="E11" t="n">
-        <v>10494</v>
+        <v>13715</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12"/>
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" t="n">
         <v>2015</v>
       </c>
       <c r="D12" t="n">
-        <v>3.5201959824</v>
+        <v>3.5459167392</v>
       </c>
       <c r="E12" t="n">
-        <v>11907</v>
+        <v>11994</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13"/>
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" t="n">
         <v>2016</v>
       </c>
       <c r="D13" t="n">
-        <v>3.1505763908</v>
+        <v>3.1914086829</v>
       </c>
       <c r="E13" t="n">
-        <v>11651</v>
+        <v>11802</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14"/>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
       <c r="C14" t="n">
         <v>2015</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D14" t="n">
+        <v>3.1326107861</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10596</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15"/>
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
       <c r="C15" t="n">
         <v>2016</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="D15" t="n">
+        <v>2.7784887491</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10275</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16"/>
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" t="n">
         <v>2015</v>
       </c>
       <c r="D16" t="n">
-        <v>2.4079949842</v>
+        <v>5.2032795239</v>
       </c>
       <c r="E16" t="n">
-        <v>8145</v>
+        <v>17600</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17"/>
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" t="n">
         <v>2016</v>
       </c>
       <c r="D17" t="n">
-        <v>1.9147911272</v>
+        <v>4.7519593954</v>
       </c>
       <c r="E17" t="n">
-        <v>7081</v>
+        <v>17573</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18"/>
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" t="n">
         <v>2015</v>
       </c>
       <c r="D18" t="n">
-        <v>5.0430421658</v>
+        <v>4.8224940678</v>
       </c>
       <c r="E18" t="n">
-        <v>17058</v>
+        <v>16312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19"/>
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
       <c r="C19" t="n">
         <v>2016</v>
       </c>
       <c r="D19" t="n">
-        <v>4.3536417383</v>
+        <v>4.405020119</v>
       </c>
       <c r="E19" t="n">
-        <v>16100</v>
+        <v>16290</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20"/>
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
       <c r="C20" t="n">
         <v>2015</v>
       </c>
       <c r="D20" t="n">
-        <v>5.3289268987</v>
+        <v>2.8819073181</v>
       </c>
       <c r="E20" t="n">
-        <v>18025</v>
+        <v>9748</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21"/>
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
       <c r="C21" t="n">
         <v>2016</v>
       </c>
       <c r="D21" t="n">
-        <v>4.8695888461</v>
+        <v>2.6000164791</v>
       </c>
       <c r="E21" t="n">
-        <v>18008</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22"/>
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" t="n">
         <v>2015</v>
       </c>
       <c r="D22" t="n">
-        <v>2.1989768806</v>
+        <v>2.854708357</v>
       </c>
       <c r="E22" t="n">
-        <v>7438</v>
+        <v>9656</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23"/>
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
       <c r="C23" t="n">
         <v>2016</v>
       </c>
       <c r="D23" t="n">
-        <v>2.0305276902</v>
+        <v>2.6267873196</v>
       </c>
       <c r="E23" t="n">
-        <v>7509</v>
+        <v>9714</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24"/>
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" t="n">
         <v>2015</v>
       </c>
       <c r="D24" t="n">
-        <v>3.1065943884</v>
+        <v>3.869643505</v>
       </c>
       <c r="E24" t="n">
-        <v>10508</v>
+        <v>13089</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25"/>
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
       <c r="C25" t="n">
         <v>2016</v>
       </c>
       <c r="D25" t="n">
-        <v>3.2390012882</v>
+        <v>3.3030890579</v>
       </c>
       <c r="E25" t="n">
-        <v>11978</v>
+        <v>12215</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26"/>
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
       <c r="C26" t="n">
         <v>2015</v>
       </c>
       <c r="D26" t="n">
-        <v>1.5328979734</v>
+        <v>2.8322396499</v>
       </c>
       <c r="E26" t="n">
-        <v>5185</v>
+        <v>9580</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27"/>
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
       <c r="C27" t="n">
         <v>2016</v>
       </c>
       <c r="D27" t="n">
-        <v>1.3880275182</v>
+        <v>2.5905520405</v>
       </c>
       <c r="E27" t="n">
-        <v>5133</v>
+        <v>9580</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28"/>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
       <c r="C28" t="n">
         <v>2015</v>
       </c>
       <c r="D28" t="n">
-        <v>6.9806725067</v>
+        <v>2.446132658</v>
       </c>
       <c r="E28" t="n">
-        <v>23612</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29"/>
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
       <c r="C29" t="n">
         <v>2016</v>
       </c>
       <c r="D29" t="n">
-        <v>6.3717304521</v>
+        <v>2.1527541539</v>
       </c>
       <c r="E29" t="n">
-        <v>23563</v>
+        <v>7961</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30"/>
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
       <c r="C30" t="n">
         <v>2015</v>
       </c>
-      <c r="D30"/>
-      <c r="E30"/>
+      <c r="D30" t="n">
+        <v>3.1275848911</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10579</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31"/>
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
       <c r="C31" t="n">
         <v>2016</v>
       </c>
-      <c r="D31"/>
-      <c r="E31"/>
+      <c r="D31" t="n">
+        <v>2.8585308581</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10571</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32"/>
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
       <c r="C32" t="n">
         <v>2015</v>
       </c>
       <c r="D32" t="n">
-        <v>5.1967754245</v>
+        <v>2.7060009933</v>
       </c>
       <c r="E32" t="n">
-        <v>17578</v>
+        <v>9153</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33"/>
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
       <c r="C33" t="n">
         <v>2016</v>
       </c>
       <c r="D33" t="n">
-        <v>4.7992815882</v>
+        <v>2.6581551731</v>
       </c>
       <c r="E33" t="n">
-        <v>17748</v>
+        <v>9830</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34"/>
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
       <c r="C34" t="n">
         <v>2015</v>
       </c>
-      <c r="D34" t="n">
-        <v>3.1275848911</v>
-      </c>
-      <c r="E34" t="n">
-        <v>10579</v>
-      </c>
+      <c r="D34"/>
+      <c r="E34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35"/>
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
       <c r="C35" t="n">
         <v>2016</v>
       </c>
-      <c r="D35" t="n">
-        <v>2.8585308581</v>
-      </c>
-      <c r="E35" t="n">
-        <v>10571</v>
-      </c>
+      <c r="D35"/>
+      <c r="E35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36"/>
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
       <c r="C36" t="n">
         <v>2015</v>
       </c>
-      <c r="D36"/>
-      <c r="E36"/>
+      <c r="D36" t="n">
+        <v>8.7982726494</v>
+      </c>
+      <c r="E36" t="n">
+        <v>29760</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37"/>
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
       <c r="C37" t="n">
         <v>2016</v>
       </c>
-      <c r="D37"/>
-      <c r="E37"/>
+      <c r="D37" t="n">
+        <v>8.0223285372</v>
+      </c>
+      <c r="E37" t="n">
+        <v>29667</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38"/>
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
       <c r="C38" t="n">
         <v>2015</v>
       </c>
       <c r="D38" t="n">
-        <v>5.2777810261</v>
+        <v>3.5332041812</v>
       </c>
       <c r="E38" t="n">
-        <v>17852</v>
+        <v>11951</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39"/>
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
       <c r="C39" t="n">
         <v>2016</v>
       </c>
       <c r="D39" t="n">
-        <v>4.8284861415</v>
+        <v>3.3755596161</v>
       </c>
       <c r="E39" t="n">
-        <v>17856</v>
+        <v>12483</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40"/>
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
       <c r="C40" t="n">
         <v>2015</v>
       </c>
       <c r="D40" t="n">
-        <v>5.3309963849</v>
+        <v>5.8235340944</v>
       </c>
       <c r="E40" t="n">
-        <v>18032</v>
+        <v>19698</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41"/>
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
       <c r="C41" t="n">
         <v>2016</v>
       </c>
       <c r="D41" t="n">
-        <v>5.2846720802</v>
+        <v>5.1335114757</v>
       </c>
       <c r="E41" t="n">
-        <v>19543</v>
+        <v>18984</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42"/>
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
       <c r="C42" t="n">
         <v>2015</v>
       </c>
       <c r="D42" t="n">
-        <v>2.1992725215</v>
+        <v>6.3072025774</v>
       </c>
       <c r="E42" t="n">
-        <v>7439</v>
+        <v>21334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43"/>
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
       <c r="C43" t="n">
         <v>2016</v>
       </c>
       <c r="D43" t="n">
-        <v>2.0578393558</v>
+        <v>5.5285841825</v>
       </c>
       <c r="E43" t="n">
-        <v>7610</v>
+        <v>20445</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44"/>
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
       <c r="C44" t="n">
         <v>2015</v>
       </c>
       <c r="D44" t="n">
-        <v>4.8828048077</v>
+        <v>4.2424466572</v>
       </c>
       <c r="E44" t="n">
-        <v>16516</v>
+        <v>14350</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45"/>
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
       <c r="C45" t="n">
         <v>2016</v>
       </c>
       <c r="D45" t="n">
-        <v>4.4309797219</v>
+        <v>3.7368307566</v>
       </c>
       <c r="E45" t="n">
-        <v>16386</v>
+        <v>13819</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46"/>
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
       <c r="C46" t="n">
         <v>2015</v>
       </c>
       <c r="D46" t="n">
-        <v>2.4966872488</v>
+        <v>2.47362726</v>
       </c>
       <c r="E46" t="n">
-        <v>8445</v>
+        <v>8367</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47"/>
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
       <c r="C47" t="n">
         <v>2016</v>
       </c>
       <c r="D47" t="n">
-        <v>2.2190052239</v>
+        <v>2.2409086388</v>
       </c>
       <c r="E47" t="n">
-        <v>8206</v>
+        <v>8287</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48"/>
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
       <c r="C48" t="n">
         <v>2015</v>
       </c>
       <c r="D48" t="n">
-        <v>2.4807226412</v>
+        <v>3.9080768197</v>
       </c>
       <c r="E48" t="n">
-        <v>8391</v>
+        <v>13219</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49"/>
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
       <c r="C49" t="n">
         <v>2016</v>
       </c>
       <c r="D49" t="n">
-        <v>2.1646523053</v>
+        <v>3.5745832384</v>
       </c>
       <c r="E49" t="n">
-        <v>8005</v>
+        <v>13219</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50"/>
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
       <c r="C50" t="n">
         <v>2015</v>
       </c>
       <c r="D50" t="n">
-        <v>2.8322396499</v>
+        <v>5.2777810261</v>
       </c>
       <c r="E50" t="n">
-        <v>9580</v>
+        <v>17852</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51"/>
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
       <c r="C51" t="n">
         <v>2016</v>
       </c>
       <c r="D51" t="n">
-        <v>2.5905520405</v>
+        <v>4.8284861415</v>
       </c>
       <c r="E51" t="n">
-        <v>9580</v>
+        <v>17856</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52"/>
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
       <c r="C52" t="n">
         <v>2015</v>
       </c>
       <c r="D52" t="n">
-        <v>2.47362726</v>
+        <v>5.3309963849</v>
       </c>
       <c r="E52" t="n">
-        <v>8367</v>
+        <v>18032</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53"/>
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
       <c r="C53" t="n">
         <v>2016</v>
       </c>
       <c r="D53" t="n">
-        <v>2.2409086388</v>
+        <v>5.2846720802</v>
       </c>
       <c r="E53" t="n">
-        <v>8287</v>
+        <v>19543</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54"/>
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
       <c r="C54" t="n">
         <v>2015</v>
       </c>
       <c r="D54" t="n">
-        <v>4.7231587314</v>
+        <v>1.4994905537</v>
       </c>
       <c r="E54" t="n">
-        <v>15976</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55"/>
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
       <c r="C55" t="n">
         <v>2016</v>
       </c>
       <c r="D55" t="n">
-        <v>4.2911764437</v>
+        <v>1.3171794352</v>
       </c>
       <c r="E55" t="n">
-        <v>15869</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56"/>
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
       <c r="C56" t="n">
         <v>2015</v>
       </c>
       <c r="D56" t="n">
-        <v>4.5685385501</v>
+        <v>4.0553059789</v>
       </c>
       <c r="E56" t="n">
-        <v>15453</v>
+        <v>13717</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57"/>
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
       <c r="C57" t="n">
         <v>2016</v>
       </c>
       <c r="D57" t="n">
-        <v>4.0789026074</v>
+        <v>3.7092486785</v>
       </c>
       <c r="E57" t="n">
-        <v>15084</v>
+        <v>13717</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58"/>
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
       <c r="C58" t="n">
         <v>2015</v>
       </c>
       <c r="D58" t="n">
-        <v>3.4380078172</v>
+        <v>2.1992725215</v>
       </c>
       <c r="E58" t="n">
-        <v>11629</v>
+        <v>7439</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59"/>
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
       <c r="C59" t="n">
         <v>2016</v>
       </c>
       <c r="D59" t="n">
-        <v>2.5383624222</v>
+        <v>2.0578393558</v>
       </c>
       <c r="E59" t="n">
-        <v>9387</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60"/>
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
       <c r="C60" t="n">
         <v>2015</v>
       </c>
       <c r="D60" t="n">
-        <v>11.7650289007</v>
+        <v>4.3876063303</v>
       </c>
       <c r="E60" t="n">
-        <v>39795</v>
+        <v>14841</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61"/>
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
       <c r="C61" t="n">
         <v>2016</v>
       </c>
       <c r="D61" t="n">
-        <v>10.6848103108</v>
+        <v>3.8850168232</v>
       </c>
       <c r="E61" t="n">
-        <v>39513</v>
+        <v>14367</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62"/>
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
       <c r="C62" t="n">
         <v>2015</v>
       </c>
       <c r="D62" t="n">
-        <v>5.78184873</v>
+        <v>2.1809427868</v>
       </c>
       <c r="E62" t="n">
-        <v>19557</v>
+        <v>7377</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63"/>
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
       <c r="C63" t="n">
         <v>2016</v>
       </c>
       <c r="D63" t="n">
-        <v>5.2589828898</v>
+        <v>1.9948332362</v>
       </c>
       <c r="E63" t="n">
-        <v>19448</v>
+        <v>7377</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64"/>
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
       <c r="C64" t="n">
         <v>2015</v>
       </c>
       <c r="D64" t="n">
-        <v>5.6307762393</v>
+        <v>3.5465080209</v>
       </c>
       <c r="E64" t="n">
-        <v>19046</v>
+        <v>11996</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65"/>
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
       <c r="C65" t="n">
         <v>2016</v>
       </c>
       <c r="D65" t="n">
-        <v>4.4088058944</v>
+        <v>3.3052523582</v>
       </c>
       <c r="E65" t="n">
-        <v>16304</v>
+        <v>12223</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66"/>
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
       <c r="C66" t="n">
         <v>2015</v>
       </c>
       <c r="D66" t="n">
-        <v>3.3392637626</v>
+        <v>4.7231587314</v>
       </c>
       <c r="E66" t="n">
-        <v>11295</v>
+        <v>15976</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67"/>
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
       <c r="C67" t="n">
         <v>2016</v>
       </c>
       <c r="D67" t="n">
-        <v>2.8893578865</v>
+        <v>4.2911764437</v>
       </c>
       <c r="E67" t="n">
-        <v>10685</v>
+        <v>15869</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68"/>
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
       <c r="C68" t="n">
         <v>2015</v>
       </c>
       <c r="D68" t="n">
-        <v>3.4252952593</v>
+        <v>1.9024490759</v>
       </c>
       <c r="E68" t="n">
-        <v>11586</v>
+        <v>6435</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69"/>
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
       <c r="C69" t="n">
         <v>2016</v>
       </c>
       <c r="D69" t="n">
-        <v>3.116504412</v>
+        <v>1.7233390558</v>
       </c>
       <c r="E69" t="n">
-        <v>11525</v>
+        <v>6373</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70"/>
+        <v>73</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
       <c r="C70" t="n">
         <v>2015</v>
       </c>
       <c r="D70" t="n">
-        <v>3.4312080769</v>
+        <v>4.5685385501</v>
       </c>
       <c r="E70" t="n">
-        <v>11606</v>
+        <v>15453</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>39</v>
-      </c>
-      <c r="B71"/>
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
       <c r="C71" t="n">
         <v>2016</v>
       </c>
       <c r="D71" t="n">
-        <v>2.884490461</v>
+        <v>4.0789026074</v>
       </c>
       <c r="E71" t="n">
-        <v>10667</v>
+        <v>15084</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72"/>
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
       <c r="C72" t="n">
         <v>2015</v>
       </c>
       <c r="D72" t="n">
-        <v>3.4043047567</v>
+        <v>7.4693668847</v>
       </c>
       <c r="E72" t="n">
-        <v>11515</v>
+        <v>25265</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73"/>
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
       <c r="C73" t="n">
         <v>2016</v>
       </c>
       <c r="D73" t="n">
-        <v>3.085406971</v>
+        <v>6.3306277475</v>
       </c>
       <c r="E73" t="n">
-        <v>11410</v>
+        <v>23411</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>41</v>
-      </c>
-      <c r="B74"/>
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
       <c r="C74" t="n">
         <v>2015</v>
       </c>
       <c r="D74" t="n">
-        <v>4.0384544486</v>
+        <v>4.1241903044</v>
       </c>
       <c r="E74" t="n">
-        <v>13660</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75"/>
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
       <c r="C75" t="n">
         <v>2016</v>
       </c>
       <c r="D75" t="n">
-        <v>3.6538141098</v>
+        <v>3.65597741</v>
       </c>
       <c r="E75" t="n">
-        <v>13512</v>
+        <v>13520</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76"/>
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
       <c r="C76" t="n">
         <v>2015</v>
       </c>
       <c r="D76" t="n">
-        <v>2.0307572187</v>
+        <v>3.6881200034</v>
       </c>
       <c r="E76" t="n">
-        <v>6869</v>
+        <v>12475</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77"/>
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
       <c r="C77" t="n">
         <v>2016</v>
       </c>
       <c r="D77" t="n">
-        <v>1.8415093315</v>
+        <v>3.4026008691</v>
       </c>
       <c r="E77" t="n">
-        <v>6810</v>
+        <v>12583</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78"/>
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
       <c r="C78" t="n">
         <v>2015</v>
       </c>
       <c r="D78" t="n">
-        <v>3.7132494784</v>
+        <v>4.0384544486</v>
       </c>
       <c r="E78" t="n">
-        <v>12560</v>
+        <v>13660</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79"/>
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
       <c r="C79" t="n">
         <v>2016</v>
       </c>
       <c r="D79" t="n">
-        <v>3.3528449635</v>
+        <v>3.6538141098</v>
       </c>
       <c r="E79" t="n">
-        <v>12399</v>
+        <v>13512</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80"/>
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
       <c r="C80" t="n">
         <v>2015</v>
       </c>
       <c r="D80" t="n">
-        <v>3.1326107861</v>
+        <v>29.2669691173</v>
       </c>
       <c r="E80" t="n">
-        <v>10596</v>
+        <v>98995</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81"/>
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
       <c r="C81" t="n">
         <v>2016</v>
       </c>
       <c r="D81" t="n">
-        <v>2.7784887491</v>
+        <v>30.5547230391</v>
       </c>
       <c r="E81" t="n">
-        <v>10275</v>
+        <v>112993</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82"/>
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
       <c r="C82" t="n">
         <v>2015</v>
       </c>
       <c r="D82" t="n">
-        <v>2.854708357</v>
+        <v>3.8625481238</v>
       </c>
       <c r="E82" t="n">
-        <v>9656</v>
+        <v>13065</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83"/>
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
       <c r="C83" t="n">
         <v>2016</v>
       </c>
       <c r="D83" t="n">
-        <v>2.6267873196</v>
+        <v>3.6567886476</v>
       </c>
       <c r="E83" t="n">
-        <v>9714</v>
+        <v>13523</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84"/>
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
       <c r="C84" t="n">
         <v>2015</v>
       </c>
       <c r="D84" t="n">
-        <v>3.869643505</v>
+        <v>4.8828048077</v>
       </c>
       <c r="E84" t="n">
-        <v>13089</v>
+        <v>16516</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85"/>
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
       <c r="C85" t="n">
         <v>2016</v>
       </c>
       <c r="D85" t="n">
-        <v>3.3030890579</v>
+        <v>4.4309797219</v>
       </c>
       <c r="E85" t="n">
-        <v>12215</v>
+        <v>16386</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86"/>
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
       <c r="C86" t="n">
         <v>2015</v>
       </c>
-      <c r="D86" t="n">
-        <v>2.7060009933</v>
-      </c>
-      <c r="E86" t="n">
-        <v>9153</v>
-      </c>
+      <c r="D86"/>
+      <c r="E86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>47</v>
-      </c>
-      <c r="B87"/>
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
       <c r="C87" t="n">
         <v>2016</v>
       </c>
-      <c r="D87" t="n">
-        <v>2.6581551731</v>
-      </c>
-      <c r="E87" t="n">
-        <v>9830</v>
-      </c>
+      <c r="D87"/>
+      <c r="E87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>48</v>
-      </c>
-      <c r="B88"/>
+        <v>91</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
       <c r="C88" t="n">
         <v>2015</v>
       </c>
       <c r="D88" t="n">
-        <v>8.7982726494</v>
+        <v>3.4380078172</v>
       </c>
       <c r="E88" t="n">
-        <v>29760</v>
+        <v>11629</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89"/>
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
       <c r="C89" t="n">
         <v>2016</v>
       </c>
       <c r="D89" t="n">
-        <v>8.0223285372</v>
+        <v>2.5383624222</v>
       </c>
       <c r="E89" t="n">
-        <v>29667</v>
+        <v>9387</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90"/>
+        <v>93</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
       <c r="C90" t="n">
         <v>2015</v>
       </c>
       <c r="D90" t="n">
-        <v>3.9080768197</v>
+        <v>1.5946869177</v>
       </c>
       <c r="E90" t="n">
-        <v>13219</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91"/>
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
       <c r="C91" t="n">
         <v>2016</v>
       </c>
       <c r="D91" t="n">
-        <v>3.5745832384</v>
+        <v>1.4383242488</v>
       </c>
       <c r="E91" t="n">
-        <v>13219</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92"/>
+        <v>95</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
       <c r="C92" t="n">
         <v>2015</v>
       </c>
       <c r="D92" t="n">
-        <v>3.8625481238</v>
+        <v>5.5273019306</v>
       </c>
       <c r="E92" t="n">
-        <v>13065</v>
+        <v>18696</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>50</v>
-      </c>
-      <c r="B93"/>
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
       <c r="C93" t="n">
         <v>2016</v>
       </c>
       <c r="D93" t="n">
-        <v>3.6567886476</v>
+        <v>5.0369742024</v>
       </c>
       <c r="E93" t="n">
-        <v>13523</v>
+        <v>18627</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94"/>
+        <v>97</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
       <c r="C94" t="n">
         <v>2015</v>
       </c>
       <c r="D94" t="n">
-        <v>2.7867109541</v>
+        <v>11.7650289007</v>
       </c>
       <c r="E94" t="n">
-        <v>9426</v>
+        <v>39795</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>51</v>
-      </c>
-      <c r="B95"/>
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
       <c r="C95" t="n">
         <v>2016</v>
       </c>
       <c r="D95" t="n">
-        <v>2.5586433619</v>
+        <v>10.6848103108</v>
       </c>
       <c r="E95" t="n">
-        <v>9462</v>
+        <v>39513</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>52</v>
-      </c>
-      <c r="B96"/>
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
       <c r="C96" t="n">
         <v>2015</v>
       </c>
       <c r="D96" t="n">
-        <v>2.2397753223</v>
+        <v>4.9587845144</v>
       </c>
       <c r="E96" t="n">
-        <v>7576</v>
+        <v>16773</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>52</v>
-      </c>
-      <c r="B97"/>
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
       <c r="C97" t="n">
         <v>2016</v>
       </c>
       <c r="D97" t="n">
-        <v>2.0278235649</v>
+        <v>4.4006935185</v>
       </c>
       <c r="E97" t="n">
-        <v>7499</v>
+        <v>16274</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B98"/>
+        <v>101</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
       <c r="C98" t="n">
         <v>2015</v>
       </c>
       <c r="D98" t="n">
-        <v>3.5332041812</v>
+        <v>5.78184873</v>
       </c>
       <c r="E98" t="n">
-        <v>11951</v>
+        <v>19557</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>53</v>
-      </c>
-      <c r="B99"/>
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
       <c r="C99" t="n">
         <v>2016</v>
       </c>
       <c r="D99" t="n">
-        <v>3.3755596161</v>
+        <v>5.2589828898</v>
       </c>
       <c r="E99" t="n">
-        <v>12483</v>
+        <v>19448</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100"/>
+        <v>103</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
       <c r="C100" t="n">
         <v>2015</v>
       </c>
       <c r="D100" t="n">
-        <v>1.4994905537</v>
+        <v>3.1065943884</v>
       </c>
       <c r="E100" t="n">
-        <v>5072</v>
+        <v>10508</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101"/>
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
       <c r="C101" t="n">
         <v>2016</v>
       </c>
       <c r="D101" t="n">
-        <v>1.3171794352</v>
+        <v>3.2390012882</v>
       </c>
       <c r="E101" t="n">
-        <v>4871</v>
+        <v>11978</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>55</v>
-      </c>
-      <c r="B102"/>
+        <v>105</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
       <c r="C102" t="n">
         <v>2015</v>
       </c>
       <c r="D102" t="n">
-        <v>1.8300170598</v>
+        <v>1.5692618019</v>
       </c>
       <c r="E102" t="n">
-        <v>6190</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>55</v>
-      </c>
-      <c r="B103"/>
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
       <c r="C103" t="n">
         <v>2016</v>
       </c>
       <c r="D103" t="n">
-        <v>1.7871564129</v>
+        <v>1.4339976483</v>
       </c>
       <c r="E103" t="n">
-        <v>6609</v>
+        <v>5303</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104"/>
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
       <c r="C104" t="n">
         <v>2015</v>
       </c>
       <c r="D104" t="n">
-        <v>5.1805151759</v>
+        <v>6.0106747727</v>
       </c>
       <c r="E104" t="n">
-        <v>17523</v>
+        <v>20331</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105"/>
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
       <c r="C105" t="n">
         <v>2016</v>
       </c>
       <c r="D105" t="n">
-        <v>4.4655925258</v>
+        <v>4.5066952304</v>
       </c>
       <c r="E105" t="n">
-        <v>16514</v>
+        <v>16666</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>57</v>
-      </c>
-      <c r="B106"/>
+        <v>109</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
       <c r="C106" t="n">
         <v>2015</v>
       </c>
-      <c r="D106"/>
-      <c r="E106"/>
+      <c r="D106" t="n">
+        <v>1.8300170598</v>
+      </c>
+      <c r="E106" t="n">
+        <v>6190</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>57</v>
-      </c>
-      <c r="B107"/>
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
       <c r="C107" t="n">
         <v>2016</v>
       </c>
-      <c r="D107"/>
-      <c r="E107"/>
+      <c r="D107" t="n">
+        <v>1.7871564129</v>
+      </c>
+      <c r="E107" t="n">
+        <v>6609</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>58</v>
-      </c>
-      <c r="B108"/>
+        <v>111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
       <c r="C108" t="n">
         <v>2015</v>
       </c>
       <c r="D108" t="n">
-        <v>2.3719267966</v>
+        <v>3.483536513</v>
       </c>
       <c r="E108" t="n">
-        <v>8023</v>
+        <v>11783</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>58</v>
-      </c>
-      <c r="B109"/>
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
       <c r="C109" t="n">
         <v>2016</v>
       </c>
       <c r="D109" t="n">
-        <v>2.1695197308</v>
+        <v>3.0529574674</v>
       </c>
       <c r="E109" t="n">
-        <v>8023</v>
+        <v>11290</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110"/>
+        <v>113</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
       <c r="C110" t="n">
         <v>2015</v>
       </c>
       <c r="D110" t="n">
-        <v>4.9238988903</v>
+        <v>2.4759923871</v>
       </c>
       <c r="E110" t="n">
-        <v>16655</v>
+        <v>8375</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>59</v>
-      </c>
-      <c r="B111"/>
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
       <c r="C111" t="n">
         <v>2016</v>
       </c>
       <c r="D111" t="n">
-        <v>4.3744635031</v>
+        <v>2.3763853165</v>
       </c>
       <c r="E111" t="n">
-        <v>16177</v>
+        <v>8788</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>60</v>
-      </c>
-      <c r="B112"/>
+        <v>115</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
       <c r="C112" t="n">
         <v>2015</v>
       </c>
       <c r="D112" t="n">
-        <v>2.6338646181</v>
+        <v>6.999889164</v>
       </c>
       <c r="E112" t="n">
-        <v>8909</v>
+        <v>23677</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>60</v>
-      </c>
-      <c r="B113"/>
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
       <c r="C113" t="n">
         <v>2016</v>
       </c>
       <c r="D113" t="n">
-        <v>2.4091052327</v>
+        <v>6.348745387</v>
       </c>
       <c r="E113" t="n">
-        <v>8909</v>
+        <v>23478</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>61</v>
-      </c>
-      <c r="B114"/>
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
       <c r="C114" t="n">
         <v>2015</v>
       </c>
       <c r="D114" t="n">
-        <v>10.1342737954</v>
+        <v>6.3553920412</v>
       </c>
       <c r="E114" t="n">
-        <v>34279</v>
+        <v>21497</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>61</v>
-      </c>
-      <c r="B115"/>
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
       <c r="C115" t="n">
         <v>2016</v>
       </c>
       <c r="D115" t="n">
-        <v>9.0496257399</v>
+        <v>5.6099783541</v>
       </c>
       <c r="E115" t="n">
-        <v>33466</v>
+        <v>20746</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116"/>
+        <v>119</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
       <c r="C116" t="n">
         <v>2015</v>
       </c>
       <c r="D116" t="n">
-        <v>4.8224940678</v>
+        <v>3.6511648932</v>
       </c>
       <c r="E116" t="n">
-        <v>16312</v>
+        <v>12350</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>62</v>
-      </c>
-      <c r="B117"/>
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
       <c r="C117" t="n">
         <v>2016</v>
       </c>
       <c r="D117" t="n">
-        <v>4.405020119</v>
+        <v>3.1841075446</v>
       </c>
       <c r="E117" t="n">
-        <v>16290</v>
+        <v>11775</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>63</v>
-      </c>
-      <c r="B118"/>
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
       <c r="C118" t="n">
         <v>2015</v>
       </c>
       <c r="D118" t="n">
-        <v>2.8819073181</v>
+        <v>3.7980984115</v>
       </c>
       <c r="E118" t="n">
-        <v>9748</v>
+        <v>12847</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>63</v>
-      </c>
-      <c r="B119"/>
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
       <c r="C119" t="n">
         <v>2016</v>
       </c>
       <c r="D119" t="n">
-        <v>2.6000164791</v>
+        <v>3.3950293182</v>
       </c>
       <c r="E119" t="n">
-        <v>9615</v>
+        <v>12555</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>64</v>
-      </c>
-      <c r="B120"/>
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
       <c r="C120" t="n">
         <v>2015</v>
       </c>
       <c r="D120" t="n">
-        <v>4.3876063303</v>
+        <v>3.5816892859</v>
       </c>
       <c r="E120" t="n">
-        <v>14841</v>
+        <v>12115</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>64</v>
-      </c>
-      <c r="B121"/>
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
       <c r="C121" t="n">
         <v>2016</v>
       </c>
       <c r="D121" t="n">
-        <v>3.8850168232</v>
+        <v>2.719268405</v>
       </c>
       <c r="E121" t="n">
-        <v>14367</v>
+        <v>10056</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>65</v>
-      </c>
-      <c r="B122"/>
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
       <c r="C122" t="n">
         <v>2015</v>
       </c>
       <c r="D122" t="n">
-        <v>6.3553920412</v>
+        <v>5.6307762393</v>
       </c>
       <c r="E122" t="n">
-        <v>21497</v>
+        <v>19046</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123"/>
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
       <c r="C123" t="n">
         <v>2016</v>
       </c>
       <c r="D123" t="n">
-        <v>5.6099783541</v>
+        <v>4.4088058944</v>
       </c>
       <c r="E123" t="n">
-        <v>20746</v>
+        <v>16304</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>66</v>
-      </c>
-      <c r="B124"/>
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
       <c r="C124" t="n">
         <v>2015</v>
       </c>
       <c r="D124" t="n">
-        <v>3.5816892859</v>
+        <v>5.1805151759</v>
       </c>
       <c r="E124" t="n">
-        <v>12115</v>
+        <v>17523</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>66</v>
-      </c>
-      <c r="B125"/>
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
       <c r="C125" t="n">
         <v>2016</v>
       </c>
       <c r="D125" t="n">
-        <v>2.719268405</v>
+        <v>4.4655925258</v>
       </c>
       <c r="E125" t="n">
-        <v>10056</v>
+        <v>16514</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>67</v>
-      </c>
-      <c r="B126"/>
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
       <c r="C126" t="n">
         <v>2015</v>
       </c>
       <c r="D126" t="n">
-        <v>3.0353449359</v>
+        <v>2.4966872488</v>
       </c>
       <c r="E126" t="n">
-        <v>10267</v>
+        <v>8445</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>67</v>
-      </c>
-      <c r="B127"/>
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
       <c r="C127" t="n">
         <v>2016</v>
       </c>
       <c r="D127" t="n">
-        <v>2.5672965629</v>
+        <v>2.2190052239</v>
       </c>
       <c r="E127" t="n">
-        <v>9494</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>68</v>
-      </c>
-      <c r="B128"/>
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
       <c r="C128" t="n">
         <v>2015</v>
       </c>
-      <c r="D128"/>
-      <c r="E128"/>
+      <c r="D128" t="n">
+        <v>2.45352368</v>
+      </c>
+      <c r="E128" t="n">
+        <v>8299</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>68</v>
-      </c>
-      <c r="B129"/>
+        <v>131</v>
+      </c>
+      <c r="B129" t="s">
+        <v>132</v>
+      </c>
       <c r="C129" t="n">
         <v>2016</v>
       </c>
-      <c r="D129"/>
-      <c r="E129"/>
+      <c r="D129" t="n">
+        <v>2.144641778</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7931</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130"/>
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
       <c r="C130" t="n">
         <v>2015</v>
       </c>
       <c r="D130" t="n">
-        <v>9.7836437093</v>
+        <v>2.4733316191</v>
       </c>
       <c r="E130" t="n">
-        <v>33093</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>69</v>
-      </c>
-      <c r="B131"/>
+        <v>133</v>
+      </c>
+      <c r="B131" t="s">
+        <v>134</v>
+      </c>
       <c r="C131" t="n">
         <v>2016</v>
       </c>
       <c r="D131" t="n">
-        <v>8.7957083739</v>
+        <v>2.2774143304</v>
       </c>
       <c r="E131" t="n">
-        <v>32527</v>
+        <v>8422</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>70</v>
-      </c>
-      <c r="B132"/>
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
       <c r="C132" t="n">
         <v>2015</v>
       </c>
       <c r="D132" t="n">
-        <v>3.5243349548</v>
+        <v>6.2829600251</v>
       </c>
       <c r="E132" t="n">
-        <v>11921</v>
+        <v>21252</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>70</v>
-      </c>
-      <c r="B133"/>
+        <v>135</v>
+      </c>
+      <c r="B133" t="s">
+        <v>136</v>
+      </c>
       <c r="C133" t="n">
         <v>2016</v>
       </c>
       <c r="D133" t="n">
-        <v>3.0824324332</v>
+        <v>5.5515692476</v>
       </c>
       <c r="E133" t="n">
-        <v>11399</v>
+        <v>20530</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>71</v>
-      </c>
-      <c r="B134"/>
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
       <c r="C134" t="n">
         <v>2015</v>
       </c>
       <c r="D134" t="n">
-        <v>4.8703878907</v>
+        <v>3.0353449359</v>
       </c>
       <c r="E134" t="n">
-        <v>16474</v>
+        <v>10267</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>71</v>
-      </c>
-      <c r="B135"/>
+        <v>137</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
       <c r="C135" t="n">
         <v>2016</v>
       </c>
       <c r="D135" t="n">
-        <v>4.1635417294</v>
+        <v>2.5672965629</v>
       </c>
       <c r="E135" t="n">
-        <v>15397</v>
+        <v>9494</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>72</v>
-      </c>
-      <c r="B136"/>
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
       <c r="C136" t="n">
         <v>2015</v>
       </c>
-      <c r="D136" t="n">
-        <v>6.7308559613</v>
-      </c>
-      <c r="E136" t="n">
-        <v>22767</v>
-      </c>
+      <c r="D136"/>
+      <c r="E136"/>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>72</v>
-      </c>
-      <c r="B137"/>
+        <v>139</v>
+      </c>
+      <c r="B137" t="s">
+        <v>140</v>
+      </c>
       <c r="C137" t="n">
         <v>2016</v>
       </c>
-      <c r="D137" t="n">
-        <v>5.5588703859</v>
-      </c>
-      <c r="E137" t="n">
-        <v>20557</v>
-      </c>
+      <c r="D137"/>
+      <c r="E137"/>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>73</v>
-      </c>
-      <c r="B138"/>
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
       <c r="C138" t="n">
         <v>2015</v>
       </c>
       <c r="D138" t="n">
-        <v>3.3791752817</v>
+        <v>3.4465814028</v>
       </c>
       <c r="E138" t="n">
-        <v>11430</v>
+        <v>11658</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>73</v>
-      </c>
-      <c r="B139"/>
+        <v>141</v>
+      </c>
+      <c r="B139" t="s">
+        <v>142</v>
+      </c>
       <c r="C139" t="n">
         <v>2016</v>
       </c>
       <c r="D139" t="n">
-        <v>3.3988150937</v>
+        <v>3.0591769556</v>
       </c>
       <c r="E139" t="n">
-        <v>12569</v>
+        <v>11313</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>74</v>
-      </c>
-      <c r="B140"/>
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
       <c r="C140" t="n">
         <v>2015</v>
       </c>
       <c r="D140" t="n">
-        <v>11.9778903357</v>
+        <v>2.4807226412</v>
       </c>
       <c r="E140" t="n">
-        <v>40515</v>
+        <v>8391</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>74</v>
-      </c>
-      <c r="B141"/>
+        <v>143</v>
+      </c>
+      <c r="B141" t="s">
+        <v>144</v>
+      </c>
       <c r="C141" t="n">
         <v>2016</v>
       </c>
       <c r="D141" t="n">
-        <v>10.9557636662</v>
+        <v>2.1646523053</v>
       </c>
       <c r="E141" t="n">
-        <v>40515</v>
+        <v>8005</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>75</v>
-      </c>
-      <c r="B142"/>
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
       <c r="C142" t="n">
         <v>2015</v>
       </c>
       <c r="D142" t="n">
-        <v>4.0547146971</v>
+        <v>6.9806725067</v>
       </c>
       <c r="E142" t="n">
-        <v>13715</v>
+        <v>23612</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>75</v>
-      </c>
-      <c r="B143"/>
+        <v>145</v>
+      </c>
+      <c r="B143" t="s">
+        <v>146</v>
+      </c>
       <c r="C143" t="n">
         <v>2016</v>
       </c>
       <c r="D143" t="n">
-        <v>3.7087078534</v>
+        <v>6.3717304521</v>
       </c>
       <c r="E143" t="n">
-        <v>13715</v>
+        <v>23563</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>76</v>
-      </c>
-      <c r="B144"/>
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
       <c r="C144" t="n">
         <v>2015</v>
       </c>
       <c r="D144" t="n">
-        <v>5.2032795239</v>
+        <v>2.7867109541</v>
       </c>
       <c r="E144" t="n">
-        <v>17600</v>
+        <v>9426</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>76</v>
-      </c>
-      <c r="B145"/>
+        <v>147</v>
+      </c>
+      <c r="B145" t="s">
+        <v>148</v>
+      </c>
       <c r="C145" t="n">
         <v>2016</v>
       </c>
       <c r="D145" t="n">
-        <v>4.7519593954</v>
+        <v>2.5586433619</v>
       </c>
       <c r="E145" t="n">
-        <v>17573</v>
+        <v>9462</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>77</v>
-      </c>
-      <c r="B146"/>
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
       <c r="C146" t="n">
         <v>2015</v>
       </c>
       <c r="D146" t="n">
-        <v>4.0553059789</v>
+        <v>5.9624853089</v>
       </c>
       <c r="E146" t="n">
-        <v>13717</v>
+        <v>20168</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>77</v>
-      </c>
-      <c r="B147"/>
+        <v>149</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
       <c r="C147" t="n">
         <v>2016</v>
       </c>
       <c r="D147" t="n">
-        <v>3.7092486785</v>
+        <v>5.4474604234</v>
       </c>
       <c r="E147" t="n">
-        <v>13717</v>
+        <v>20145</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>78</v>
-      </c>
-      <c r="B148"/>
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
       <c r="C148" t="n">
         <v>2015</v>
       </c>
       <c r="D148" t="n">
-        <v>7.4693668847</v>
+        <v>3.192921526</v>
       </c>
       <c r="E148" t="n">
-        <v>25265</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>78</v>
-      </c>
-      <c r="B149"/>
+        <v>151</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
       <c r="C149" t="n">
         <v>2016</v>
       </c>
       <c r="D149" t="n">
-        <v>6.3306277475</v>
+        <v>2.8377090932</v>
       </c>
       <c r="E149" t="n">
-        <v>23411</v>
+        <v>10494</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>79</v>
-      </c>
-      <c r="B150"/>
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
       <c r="C150" t="n">
         <v>2015</v>
       </c>
       <c r="D150" t="n">
-        <v>3.6511648932</v>
+        <v>4.4626991144</v>
       </c>
       <c r="E150" t="n">
-        <v>12350</v>
+        <v>15095</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>79</v>
-      </c>
-      <c r="B151"/>
+        <v>153</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
       <c r="C151" t="n">
         <v>2016</v>
       </c>
       <c r="D151" t="n">
-        <v>3.1841075446</v>
+        <v>3.9761458459</v>
       </c>
       <c r="E151" t="n">
-        <v>11775</v>
+        <v>14704</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>80</v>
-      </c>
-      <c r="B152"/>
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
       <c r="C152" t="n">
         <v>2015</v>
       </c>
       <c r="D152" t="n">
-        <v>5.9624853089</v>
+        <v>2.0307572187</v>
       </c>
       <c r="E152" t="n">
-        <v>20168</v>
+        <v>6869</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>80</v>
-      </c>
-      <c r="B153"/>
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
       <c r="C153" t="n">
         <v>2016</v>
       </c>
       <c r="D153" t="n">
-        <v>5.4474604234</v>
+        <v>1.8415093315</v>
       </c>
       <c r="E153" t="n">
-        <v>20145</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>81</v>
-      </c>
-      <c r="B154"/>
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
       <c r="C154" t="n">
         <v>2015</v>
       </c>
       <c r="D154" t="n">
-        <v>2.6974274077</v>
+        <v>3.3392637626</v>
       </c>
       <c r="E154" t="n">
-        <v>9124</v>
+        <v>11295</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>81</v>
-      </c>
-      <c r="B155"/>
+        <v>157</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
       <c r="C155" t="n">
         <v>2016</v>
       </c>
       <c r="D155" t="n">
-        <v>2.2444240017</v>
+        <v>2.8893578865</v>
       </c>
       <c r="E155" t="n">
-        <v>8300</v>
+        <v>10685</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>82</v>
-      </c>
-      <c r="B156"/>
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
       <c r="C156" t="n">
         <v>2015</v>
       </c>
       <c r="D156" t="n">
-        <v>5.8338815252</v>
+        <v>2.7660160923</v>
       </c>
       <c r="E156" t="n">
-        <v>19733</v>
+        <v>9356</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>82</v>
-      </c>
-      <c r="B157"/>
+        <v>159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
       <c r="C157" t="n">
         <v>2016</v>
       </c>
       <c r="D157" t="n">
-        <v>5.0415712154</v>
+        <v>2.5467452106</v>
       </c>
       <c r="E157" t="n">
-        <v>18644</v>
+        <v>9418</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>83</v>
-      </c>
-      <c r="B158"/>
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
       <c r="C158" t="n">
         <v>2015</v>
       </c>
       <c r="D158" t="n">
-        <v>2.9632085607</v>
+        <v>2.0819030913</v>
       </c>
       <c r="E158" t="n">
-        <v>10023</v>
+        <v>7042</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>83</v>
-      </c>
-      <c r="B159"/>
+        <v>161</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
       <c r="C159" t="n">
         <v>2016</v>
       </c>
       <c r="D159" t="n">
-        <v>2.5829804897</v>
+        <v>1.9239851533</v>
       </c>
       <c r="E159" t="n">
-        <v>9552</v>
+        <v>7115</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>84</v>
-      </c>
-      <c r="B160"/>
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
       <c r="C160" t="n">
         <v>2015</v>
       </c>
-      <c r="D160" t="n">
-        <v>3.5459167392</v>
-      </c>
-      <c r="E160" t="n">
-        <v>11994</v>
-      </c>
+      <c r="D160"/>
+      <c r="E160"/>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>84</v>
-      </c>
-      <c r="B161"/>
+        <v>163</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
       <c r="C161" t="n">
         <v>2016</v>
       </c>
-      <c r="D161" t="n">
-        <v>3.1914086829</v>
-      </c>
-      <c r="E161" t="n">
-        <v>11802</v>
-      </c>
+      <c r="D161"/>
+      <c r="E161"/>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>85</v>
-      </c>
-      <c r="B162"/>
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
       <c r="C162" t="n">
         <v>2015</v>
       </c>
-      <c r="D162" t="n">
-        <v>3.7980984115</v>
-      </c>
-      <c r="E162" t="n">
-        <v>12847</v>
-      </c>
+      <c r="D162"/>
+      <c r="E162"/>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>85</v>
-      </c>
-      <c r="B163"/>
+        <v>165</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
       <c r="C163" t="n">
         <v>2016</v>
       </c>
-      <c r="D163" t="n">
-        <v>3.3950293182</v>
-      </c>
-      <c r="E163" t="n">
-        <v>12555</v>
-      </c>
+      <c r="D163"/>
+      <c r="E163"/>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>86</v>
-      </c>
-      <c r="B164"/>
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
       <c r="C164" t="n">
         <v>2015</v>
       </c>
       <c r="D164" t="n">
-        <v>6.2829600251</v>
+        <v>9.7836437093</v>
       </c>
       <c r="E164" t="n">
-        <v>21252</v>
+        <v>33093</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>86</v>
-      </c>
-      <c r="B165"/>
+        <v>167</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
       <c r="C165" t="n">
         <v>2016</v>
       </c>
       <c r="D165" t="n">
-        <v>5.5515692476</v>
+        <v>8.7957083739</v>
       </c>
       <c r="E165" t="n">
-        <v>20530</v>
+        <v>32527</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>87</v>
-      </c>
-      <c r="B166"/>
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
       <c r="C166" t="n">
         <v>2015</v>
       </c>
       <c r="D166" t="n">
-        <v>6.1389829155</v>
+        <v>3.5201959824</v>
       </c>
       <c r="E166" t="n">
-        <v>20765</v>
+        <v>11907</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>87</v>
-      </c>
-      <c r="B167"/>
+        <v>169</v>
+      </c>
+      <c r="B167" t="s">
+        <v>170</v>
+      </c>
       <c r="C167" t="n">
         <v>2016</v>
       </c>
       <c r="D167" t="n">
-        <v>5.6151161922</v>
+        <v>3.1505763908</v>
       </c>
       <c r="E167" t="n">
-        <v>20765</v>
+        <v>11651</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>88</v>
-      </c>
-      <c r="B168"/>
+        <v>171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
       <c r="C168" t="n">
         <v>2015</v>
       </c>
-      <c r="D168" t="n">
-        <v>7.3655969351</v>
-      </c>
-      <c r="E168" t="n">
-        <v>24914</v>
-      </c>
+      <c r="D168"/>
+      <c r="E168"/>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>88</v>
-      </c>
-      <c r="B169"/>
+        <v>171</v>
+      </c>
+      <c r="B169" t="s">
+        <v>172</v>
+      </c>
       <c r="C169" t="n">
         <v>2016</v>
       </c>
-      <c r="D169" t="n">
-        <v>4.8225370658</v>
-      </c>
-      <c r="E169" t="n">
-        <v>17834</v>
-      </c>
+      <c r="D169"/>
+      <c r="E169"/>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>89</v>
-      </c>
-      <c r="B170"/>
+        <v>173</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
       <c r="C170" t="n">
         <v>2015</v>
       </c>
       <c r="D170" t="n">
-        <v>6.1848072522</v>
+        <v>2.4079949842</v>
       </c>
       <c r="E170" t="n">
-        <v>20920</v>
+        <v>8145</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>89</v>
-      </c>
-      <c r="B171"/>
+        <v>173</v>
+      </c>
+      <c r="B171" t="s">
+        <v>174</v>
+      </c>
       <c r="C171" t="n">
         <v>2016</v>
       </c>
       <c r="D171" t="n">
-        <v>5.2084157466</v>
+        <v>1.9147911272</v>
       </c>
       <c r="E171" t="n">
-        <v>19261</v>
+        <v>7081</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>90</v>
-      </c>
-      <c r="B172"/>
+        <v>175</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
       <c r="C172" t="n">
         <v>2015</v>
       </c>
       <c r="D172" t="n">
-        <v>4.1537543926</v>
+        <v>4.8703878907</v>
       </c>
       <c r="E172" t="n">
-        <v>14050</v>
+        <v>16474</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>90</v>
-      </c>
-      <c r="B173"/>
+        <v>175</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
       <c r="C173" t="n">
         <v>2016</v>
       </c>
       <c r="D173" t="n">
-        <v>3.1951944583</v>
+        <v>4.1635417294</v>
       </c>
       <c r="E173" t="n">
-        <v>11816</v>
+        <v>15397</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>91</v>
-      </c>
-      <c r="B174"/>
+        <v>177</v>
+      </c>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
       <c r="C174" t="n">
         <v>2015</v>
       </c>
       <c r="D174" t="n">
-        <v>6.3072025774</v>
+        <v>5.1967754245</v>
       </c>
       <c r="E174" t="n">
-        <v>21334</v>
+        <v>17578</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>91</v>
-      </c>
-      <c r="B175"/>
+        <v>177</v>
+      </c>
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
       <c r="C175" t="n">
         <v>2016</v>
       </c>
       <c r="D175" t="n">
-        <v>5.5285841825</v>
+        <v>4.7992815882</v>
       </c>
       <c r="E175" t="n">
-        <v>20445</v>
+        <v>17748</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>92</v>
-      </c>
-      <c r="B176"/>
+        <v>179</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
       <c r="C176" t="n">
         <v>2015</v>
       </c>
       <c r="D176" t="n">
-        <v>4.2424466572</v>
+        <v>5.0430421658</v>
       </c>
       <c r="E176" t="n">
-        <v>14350</v>
+        <v>17058</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>92</v>
-      </c>
-      <c r="B177"/>
+        <v>179</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
       <c r="C177" t="n">
         <v>2016</v>
       </c>
       <c r="D177" t="n">
-        <v>3.7368307566</v>
+        <v>4.3536417383</v>
       </c>
       <c r="E177" t="n">
-        <v>13819</v>
+        <v>16100</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>93</v>
-      </c>
-      <c r="B178"/>
+        <v>181</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
       <c r="C178" t="n">
         <v>2015</v>
       </c>
       <c r="D178" t="n">
-        <v>2.1809427868</v>
+        <v>2.3719267966</v>
       </c>
       <c r="E178" t="n">
-        <v>7377</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>93</v>
-      </c>
-      <c r="B179"/>
+        <v>181</v>
+      </c>
+      <c r="B179" t="s">
+        <v>182</v>
+      </c>
       <c r="C179" t="n">
         <v>2016</v>
       </c>
       <c r="D179" t="n">
-        <v>1.9948332362</v>
+        <v>2.1695197308</v>
       </c>
       <c r="E179" t="n">
-        <v>7377</v>
+        <v>8023</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>94</v>
-      </c>
-      <c r="B180"/>
+        <v>183</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
       <c r="C180" t="n">
         <v>2015</v>
       </c>
       <c r="D180" t="n">
-        <v>4.1241903044</v>
+        <v>2.2397753223</v>
       </c>
       <c r="E180" t="n">
-        <v>13950</v>
+        <v>7576</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>94</v>
-      </c>
-      <c r="B181"/>
+        <v>183</v>
+      </c>
+      <c r="B181" t="s">
+        <v>184</v>
+      </c>
       <c r="C181" t="n">
         <v>2016</v>
       </c>
       <c r="D181" t="n">
-        <v>3.65597741</v>
+        <v>2.0278235649</v>
       </c>
       <c r="E181" t="n">
-        <v>13520</v>
+        <v>7499</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>95</v>
-      </c>
-      <c r="B182"/>
+        <v>185</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
       <c r="C182" t="n">
         <v>2015</v>
       </c>
       <c r="D182" t="n">
-        <v>3.6881200034</v>
+        <v>6.1389829155</v>
       </c>
       <c r="E182" t="n">
-        <v>12475</v>
+        <v>20765</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>95</v>
-      </c>
-      <c r="B183"/>
+        <v>185</v>
+      </c>
+      <c r="B183" t="s">
+        <v>186</v>
+      </c>
       <c r="C183" t="n">
         <v>2016</v>
       </c>
       <c r="D183" t="n">
-        <v>3.4026008691</v>
+        <v>5.6151161922</v>
       </c>
       <c r="E183" t="n">
-        <v>12583</v>
+        <v>20765</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>96</v>
-      </c>
-      <c r="B184"/>
+        <v>187</v>
+      </c>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
       <c r="C184" t="n">
         <v>2015</v>
       </c>
       <c r="D184" t="n">
-        <v>4.9587845144</v>
+        <v>3.5243349548</v>
       </c>
       <c r="E184" t="n">
-        <v>16773</v>
+        <v>11921</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>96</v>
-      </c>
-      <c r="B185"/>
+        <v>187</v>
+      </c>
+      <c r="B185" t="s">
+        <v>188</v>
+      </c>
       <c r="C185" t="n">
         <v>2016</v>
       </c>
       <c r="D185" t="n">
-        <v>4.4006935185</v>
+        <v>3.0824324332</v>
       </c>
       <c r="E185" t="n">
-        <v>16274</v>
+        <v>11399</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>97</v>
-      </c>
-      <c r="B186"/>
+        <v>189</v>
+      </c>
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
       <c r="C186" t="n">
         <v>2015</v>
       </c>
       <c r="D186" t="n">
-        <v>1.5692618019</v>
+        <v>4.9238988903</v>
       </c>
       <c r="E186" t="n">
-        <v>5308</v>
+        <v>16655</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>97</v>
-      </c>
-      <c r="B187"/>
+        <v>189</v>
+      </c>
+      <c r="B187" t="s">
+        <v>190</v>
+      </c>
       <c r="C187" t="n">
         <v>2016</v>
       </c>
       <c r="D187" t="n">
-        <v>1.4339976483</v>
+        <v>4.3744635031</v>
       </c>
       <c r="E187" t="n">
-        <v>5303</v>
+        <v>16177</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>98</v>
-      </c>
-      <c r="B188"/>
+        <v>191</v>
+      </c>
+      <c r="B188" t="s">
+        <v>192</v>
+      </c>
       <c r="C188" t="n">
         <v>2015</v>
       </c>
       <c r="D188" t="n">
-        <v>6.999889164</v>
+        <v>9.0956873768</v>
       </c>
       <c r="E188" t="n">
-        <v>23677</v>
+        <v>30766</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>98</v>
-      </c>
-      <c r="B189"/>
+        <v>191</v>
+      </c>
+      <c r="B189" t="s">
+        <v>192</v>
+      </c>
       <c r="C189" t="n">
         <v>2016</v>
       </c>
       <c r="D189" t="n">
-        <v>6.348745387</v>
+        <v>8.2775979658</v>
       </c>
       <c r="E189" t="n">
-        <v>23478</v>
+        <v>30611</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>99</v>
-      </c>
-      <c r="B190"/>
+        <v>193</v>
+      </c>
+      <c r="B190" t="s">
+        <v>194</v>
+      </c>
       <c r="C190" t="n">
         <v>2015</v>
       </c>
       <c r="D190" t="n">
-        <v>4.4626991144</v>
+        <v>3.3646888785</v>
       </c>
       <c r="E190" t="n">
-        <v>15095</v>
+        <v>11381</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>99</v>
-      </c>
-      <c r="B191"/>
+        <v>193</v>
+      </c>
+      <c r="B191" t="s">
+        <v>194</v>
+      </c>
       <c r="C191" t="n">
         <v>2016</v>
       </c>
       <c r="D191" t="n">
-        <v>3.9761458459</v>
+        <v>3.0767537701</v>
       </c>
       <c r="E191" t="n">
-        <v>14704</v>
+        <v>11378</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>100</v>
-      </c>
-      <c r="B192"/>
+        <v>195</v>
+      </c>
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
       <c r="C192" t="n">
         <v>2015</v>
       </c>
       <c r="D192" t="n">
-        <v>2.7660160923</v>
+        <v>7.3655969351</v>
       </c>
       <c r="E192" t="n">
-        <v>9356</v>
+        <v>24914</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>100</v>
-      </c>
-      <c r="B193"/>
+        <v>195</v>
+      </c>
+      <c r="B193" t="s">
+        <v>196</v>
+      </c>
       <c r="C193" t="n">
         <v>2016</v>
       </c>
       <c r="D193" t="n">
-        <v>2.5467452106</v>
+        <v>4.8225370658</v>
       </c>
       <c r="E193" t="n">
-        <v>9418</v>
+        <v>17834</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>101</v>
-      </c>
-      <c r="B194"/>
+        <v>197</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
       <c r="C194" t="n">
         <v>2015</v>
       </c>
       <c r="D194" t="n">
-        <v>3.3646888785</v>
+        <v>6.1848072522</v>
       </c>
       <c r="E194" t="n">
-        <v>11381</v>
+        <v>20920</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>101</v>
-      </c>
-      <c r="B195"/>
+        <v>197</v>
+      </c>
+      <c r="B195" t="s">
+        <v>198</v>
+      </c>
       <c r="C195" t="n">
         <v>2016</v>
       </c>
       <c r="D195" t="n">
-        <v>3.0767537701</v>
+        <v>5.2084157466</v>
       </c>
       <c r="E195" t="n">
-        <v>11378</v>
+        <v>19261</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>102</v>
-      </c>
-      <c r="B196"/>
+        <v>199</v>
+      </c>
+      <c r="B196" t="s">
+        <v>200</v>
+      </c>
       <c r="C196" t="n">
         <v>2015</v>
       </c>
       <c r="D196" t="n">
-        <v>4.3400081483</v>
+        <v>2.6974274077</v>
       </c>
       <c r="E196" t="n">
-        <v>14680</v>
+        <v>9124</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>102</v>
-      </c>
-      <c r="B197"/>
+        <v>199</v>
+      </c>
+      <c r="B197" t="s">
+        <v>200</v>
+      </c>
       <c r="C197" t="n">
         <v>2016</v>
       </c>
       <c r="D197" t="n">
-        <v>3.8222811162</v>
+        <v>2.2444240017</v>
       </c>
       <c r="E197" t="n">
-        <v>14135</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>103</v>
-      </c>
-      <c r="B198"/>
+        <v>201</v>
+      </c>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
       <c r="C198" t="n">
         <v>2015</v>
       </c>
       <c r="D198" t="n">
-        <v>1.5946869177</v>
+        <v>6.7308559613</v>
       </c>
       <c r="E198" t="n">
-        <v>5394</v>
+        <v>22767</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>103</v>
-      </c>
-      <c r="B199"/>
+        <v>201</v>
+      </c>
+      <c r="B199" t="s">
+        <v>202</v>
+      </c>
       <c r="C199" t="n">
         <v>2016</v>
       </c>
       <c r="D199" t="n">
-        <v>1.4383242488</v>
+        <v>5.5588703859</v>
       </c>
       <c r="E199" t="n">
-        <v>5319</v>
+        <v>20557</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>104</v>
-      </c>
-      <c r="B200"/>
+        <v>203</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
       <c r="C200" t="n">
         <v>2015</v>
       </c>
       <c r="D200" t="n">
-        <v>5.5273019306</v>
+        <v>3.4252952593</v>
       </c>
       <c r="E200" t="n">
-        <v>18696</v>
+        <v>11586</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>104</v>
-      </c>
-      <c r="B201"/>
+        <v>203</v>
+      </c>
+      <c r="B201" t="s">
+        <v>204</v>
+      </c>
       <c r="C201" t="n">
         <v>2016</v>
       </c>
       <c r="D201" t="n">
-        <v>5.0369742024</v>
+        <v>3.116504412</v>
       </c>
       <c r="E201" t="n">
-        <v>18627</v>
+        <v>11525</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>105</v>
-      </c>
-      <c r="B202"/>
+        <v>205</v>
+      </c>
+      <c r="B202" t="s">
+        <v>206</v>
+      </c>
       <c r="C202" t="n">
         <v>2015</v>
       </c>
       <c r="D202" t="n">
-        <v>2.4733316191</v>
+        <v>5.3289268987</v>
       </c>
       <c r="E202" t="n">
-        <v>8366</v>
+        <v>18025</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>105</v>
-      </c>
-      <c r="B203"/>
+        <v>205</v>
+      </c>
+      <c r="B203" t="s">
+        <v>206</v>
+      </c>
       <c r="C203" t="n">
         <v>2016</v>
       </c>
       <c r="D203" t="n">
-        <v>2.2774143304</v>
+        <v>4.8695888461</v>
       </c>
       <c r="E203" t="n">
-        <v>8422</v>
+        <v>18008</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>106</v>
-      </c>
-      <c r="B204"/>
+        <v>207</v>
+      </c>
+      <c r="B204" t="s">
+        <v>208</v>
+      </c>
       <c r="C204" t="n">
         <v>2015</v>
       </c>
       <c r="D204" t="n">
-        <v>5.8235340944</v>
+        <v>2.4387416359</v>
       </c>
       <c r="E204" t="n">
-        <v>19698</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>106</v>
-      </c>
-      <c r="B205"/>
+        <v>207</v>
+      </c>
+      <c r="B205" t="s">
+        <v>208</v>
+      </c>
       <c r="C205" t="n">
         <v>2016</v>
       </c>
       <c r="D205" t="n">
-        <v>5.1335114757</v>
+        <v>2.188989433</v>
       </c>
       <c r="E205" t="n">
-        <v>18984</v>
+        <v>8095</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>107</v>
-      </c>
-      <c r="B206"/>
+        <v>209</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
       <c r="C206" t="n">
         <v>2015</v>
       </c>
       <c r="D206" t="n">
-        <v>3.5465080209</v>
+        <v>4.3400081483</v>
       </c>
       <c r="E206" t="n">
-        <v>11996</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>107</v>
-      </c>
-      <c r="B207"/>
+        <v>209</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
       <c r="C207" t="n">
         <v>2016</v>
       </c>
       <c r="D207" t="n">
-        <v>3.3052523582</v>
+        <v>3.8222811162</v>
       </c>
       <c r="E207" t="n">
-        <v>12223</v>
+        <v>14135</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>108</v>
-      </c>
-      <c r="B208"/>
+        <v>211</v>
+      </c>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
       <c r="C208" t="n">
         <v>2015</v>
       </c>
       <c r="D208" t="n">
-        <v>1.9024490759</v>
+        <v>2.6338646181</v>
       </c>
       <c r="E208" t="n">
-        <v>6435</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>108</v>
-      </c>
-      <c r="B209"/>
+        <v>211</v>
+      </c>
+      <c r="B209" t="s">
+        <v>212</v>
+      </c>
       <c r="C209" t="n">
         <v>2016</v>
       </c>
       <c r="D209" t="n">
-        <v>1.7233390558</v>
+        <v>2.4091052327</v>
       </c>
       <c r="E209" t="n">
-        <v>6373</v>
+        <v>8909</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>109</v>
-      </c>
-      <c r="B210"/>
+        <v>213</v>
+      </c>
+      <c r="B210" t="s">
+        <v>214</v>
+      </c>
       <c r="C210" t="n">
         <v>2015</v>
       </c>
       <c r="D210" t="n">
-        <v>3.483536513</v>
+        <v>3.9734134546</v>
       </c>
       <c r="E210" t="n">
-        <v>11783</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>109</v>
-      </c>
-      <c r="B211"/>
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>214</v>
+      </c>
       <c r="C211" t="n">
         <v>2016</v>
       </c>
       <c r="D211" t="n">
-        <v>3.0529574674</v>
+        <v>3.6343444076</v>
       </c>
       <c r="E211" t="n">
-        <v>11290</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>110</v>
-      </c>
-      <c r="B212"/>
+        <v>215</v>
+      </c>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
       <c r="C212" t="n">
         <v>2015</v>
       </c>
       <c r="D212" t="n">
-        <v>2.446132658</v>
+        <v>3.7132494784</v>
       </c>
       <c r="E212" t="n">
-        <v>8274</v>
+        <v>12560</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>110</v>
-      </c>
-      <c r="B213"/>
+        <v>215</v>
+      </c>
+      <c r="B213" t="s">
+        <v>216</v>
+      </c>
       <c r="C213" t="n">
         <v>2016</v>
       </c>
       <c r="D213" t="n">
-        <v>2.1527541539</v>
+        <v>3.3528449635</v>
       </c>
       <c r="E213" t="n">
-        <v>7961</v>
+        <v>12399</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>111</v>
-      </c>
-      <c r="B214"/>
+        <v>217</v>
+      </c>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
       <c r="C214" t="n">
         <v>2015</v>
       </c>
       <c r="D214" t="n">
-        <v>2.4759923871</v>
+        <v>3.4312080769</v>
       </c>
       <c r="E214" t="n">
-        <v>8375</v>
+        <v>11606</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>111</v>
-      </c>
-      <c r="B215"/>
+        <v>217</v>
+      </c>
+      <c r="B215" t="s">
+        <v>218</v>
+      </c>
       <c r="C215" t="n">
         <v>2016</v>
       </c>
       <c r="D215" t="n">
-        <v>2.3763853165</v>
+        <v>2.884490461</v>
       </c>
       <c r="E215" t="n">
-        <v>8788</v>
+        <v>10667</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>112</v>
-      </c>
-      <c r="B216"/>
+        <v>219</v>
+      </c>
+      <c r="B216" t="s">
+        <v>220</v>
+      </c>
       <c r="C216" t="n">
         <v>2015</v>
       </c>
       <c r="D216" t="n">
-        <v>2.45352368</v>
+        <v>2.1989768806</v>
       </c>
       <c r="E216" t="n">
-        <v>8299</v>
+        <v>7438</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>112</v>
-      </c>
-      <c r="B217"/>
+        <v>219</v>
+      </c>
+      <c r="B217" t="s">
+        <v>220</v>
+      </c>
       <c r="C217" t="n">
         <v>2016</v>
       </c>
       <c r="D217" t="n">
-        <v>2.144641778</v>
+        <v>2.0305276902</v>
       </c>
       <c r="E217" t="n">
-        <v>7931</v>
+        <v>7509</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>113</v>
-      </c>
-      <c r="B218"/>
+        <v>221</v>
+      </c>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
       <c r="C218" t="n">
         <v>2015</v>
       </c>
       <c r="D218" t="n">
-        <v>2.0819030913</v>
+        <v>3.4043047567</v>
       </c>
       <c r="E218" t="n">
-        <v>7042</v>
+        <v>11515</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>113</v>
-      </c>
-      <c r="B219"/>
+        <v>221</v>
+      </c>
+      <c r="B219" t="s">
+        <v>222</v>
+      </c>
       <c r="C219" t="n">
         <v>2016</v>
       </c>
       <c r="D219" t="n">
-        <v>1.9239851533</v>
+        <v>3.085406971</v>
       </c>
       <c r="E219" t="n">
-        <v>7115</v>
+        <v>11410</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>114</v>
-      </c>
-      <c r="B220"/>
+        <v>223</v>
+      </c>
+      <c r="B220" t="s">
+        <v>224</v>
+      </c>
       <c r="C220" t="n">
         <v>2015</v>
       </c>
       <c r="D220" t="n">
-        <v>9.0956873768</v>
+        <v>1.5328979734</v>
       </c>
       <c r="E220" t="n">
-        <v>30766</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>114</v>
-      </c>
-      <c r="B221"/>
+        <v>223</v>
+      </c>
+      <c r="B221" t="s">
+        <v>224</v>
+      </c>
       <c r="C221" t="n">
         <v>2016</v>
       </c>
       <c r="D221" t="n">
-        <v>8.2775979658</v>
+        <v>1.3880275182</v>
       </c>
       <c r="E221" t="n">
-        <v>30611</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>115</v>
-      </c>
-      <c r="B222"/>
+        <v>225</v>
+      </c>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
       <c r="C222" t="n">
         <v>2015</v>
       </c>
       <c r="D222" t="n">
-        <v>2.4387416359</v>
+        <v>3.3791752817</v>
       </c>
       <c r="E222" t="n">
-        <v>8249</v>
+        <v>11430</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>115</v>
-      </c>
-      <c r="B223"/>
+        <v>225</v>
+      </c>
+      <c r="B223" t="s">
+        <v>226</v>
+      </c>
       <c r="C223" t="n">
         <v>2016</v>
       </c>
       <c r="D223" t="n">
-        <v>2.188989433</v>
+        <v>3.3988150937</v>
       </c>
       <c r="E223" t="n">
-        <v>8095</v>
+        <v>12569</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>116</v>
-      </c>
-      <c r="B224"/>
+        <v>227</v>
+      </c>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
       <c r="C224" t="n">
         <v>2015</v>
       </c>
       <c r="D224" t="n">
-        <v>3.9734134546</v>
+        <v>4.1537543926</v>
       </c>
       <c r="E224" t="n">
-        <v>13440</v>
+        <v>14050</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>116</v>
-      </c>
-      <c r="B225"/>
+        <v>227</v>
+      </c>
+      <c r="B225" t="s">
+        <v>228</v>
+      </c>
       <c r="C225" t="n">
         <v>2016</v>
       </c>
       <c r="D225" t="n">
-        <v>3.6343444076</v>
+        <v>3.1951944583</v>
       </c>
       <c r="E225" t="n">
-        <v>13440</v>
+        <v>11816</v>
       </c>
     </row>
   </sheetData>
@@ -4197,1218 +4981,1557 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>29.2669691173</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>30.5547230391</v>
+        <v>11.9778903357</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.9557636662</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.1342737954</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.0496257399</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6.0106747727</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5066952304</v>
+        <v>5.8338815252</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.0415712154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.4465814028</v>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0591769556</v>
+        <v>2.9632085607</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.5829804897</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.192921526</v>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.8377090932</v>
+        <v>4.0547146971</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.7087078534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.5201959824</v>
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>3.1505763908</v>
+        <v>3.5459167392</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.1914086829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8"/>
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.1326107861</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.7784887491</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2.4079949842</v>
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>1.9147911272</v>
+        <v>5.2032795239</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.7519593954</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5.0430421658</v>
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>4.3536417383</v>
+        <v>4.8224940678</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.405020119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5.3289268987</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>4.8695888461</v>
+        <v>2.8819073181</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.6000164791</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2.1989768806</v>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0305276902</v>
+        <v>2.854708357</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.6267873196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3.1065943884</v>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>3.2390012882</v>
+        <v>3.869643505</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.3030890579</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1.5328979734</v>
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>1.3880275182</v>
+        <v>2.8322396499</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.5905520405</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6.9806725067</v>
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>6.3717304521</v>
+        <v>2.446132658</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.1527541539</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.1275848911</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.8585308581</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5.1967754245</v>
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>4.7992815882</v>
+        <v>2.7060009933</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.6581551731</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3.1275848911</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.8585308581</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.7982726494</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8.0223285372</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5.2777810261</v>
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>4.8284861415</v>
+        <v>3.5332041812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.3755596161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="n">
-        <v>5.3309963849</v>
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
       </c>
       <c r="C21" t="n">
-        <v>5.2846720802</v>
+        <v>5.8235340944</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.1335114757</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2.1992725215</v>
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0578393558</v>
+        <v>6.3072025774</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.5285841825</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n">
-        <v>4.8828048077</v>
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
       </c>
       <c r="C23" t="n">
-        <v>4.4309797219</v>
+        <v>4.2424466572</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.7368307566</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2.4966872488</v>
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>2.2190052239</v>
+        <v>2.47362726</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.2409086388</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2.4807226412</v>
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
       </c>
       <c r="C25" t="n">
-        <v>2.1646523053</v>
+        <v>3.9080768197</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.5745832384</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="n">
-        <v>2.8322396499</v>
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
       </c>
       <c r="C26" t="n">
-        <v>2.5905520405</v>
+        <v>5.2777810261</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.8284861415</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="n">
-        <v>2.47362726</v>
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
       </c>
       <c r="C27" t="n">
-        <v>2.2409086388</v>
+        <v>5.3309963849</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.2846720802</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4.7231587314</v>
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
       </c>
       <c r="C28" t="n">
-        <v>4.2911764437</v>
+        <v>1.4994905537</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.3171794352</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="n">
-        <v>4.5685385501</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>4.0789026074</v>
+        <v>4.0553059789</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.7092486785</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3.4380078172</v>
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>2.5383624222</v>
+        <v>2.1992725215</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.0578393558</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="n">
-        <v>11.7650289007</v>
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>10.6848103108</v>
+        <v>4.3876063303</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.8850168232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="n">
-        <v>5.78184873</v>
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
       </c>
       <c r="C32" t="n">
-        <v>5.2589828898</v>
+        <v>2.1809427868</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.9948332362</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="n">
-        <v>5.6307762393</v>
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
       </c>
       <c r="C33" t="n">
-        <v>4.4088058944</v>
+        <v>3.5465080209</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3.3052523582</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3.3392637626</v>
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
       </c>
       <c r="C34" t="n">
-        <v>2.8893578865</v>
+        <v>4.7231587314</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4.2911764437</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3.4252952593</v>
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
       </c>
       <c r="C35" t="n">
-        <v>3.116504412</v>
+        <v>1.9024490759</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.7233390558</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3.4312080769</v>
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
       </c>
       <c r="C36" t="n">
-        <v>2.884490461</v>
+        <v>4.5685385501</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4.0789026074</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3.4043047567</v>
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
       </c>
       <c r="C37" t="n">
-        <v>3.085406971</v>
+        <v>7.4693668847</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6.3306277475</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" t="n">
-        <v>4.0384544486</v>
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
       </c>
       <c r="C38" t="n">
-        <v>3.6538141098</v>
+        <v>4.1241903044</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3.65597741</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2.0307572187</v>
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
       </c>
       <c r="C39" t="n">
-        <v>1.8415093315</v>
+        <v>3.6881200034</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.4026008691</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3.7132494784</v>
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
       </c>
       <c r="C40" t="n">
-        <v>3.3528449635</v>
+        <v>4.0384544486</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.6538141098</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3.1326107861</v>
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
       </c>
       <c r="C41" t="n">
-        <v>2.7784887491</v>
+        <v>29.2669691173</v>
+      </c>
+      <c r="D41" t="n">
+        <v>30.5547230391</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" t="n">
-        <v>2.854708357</v>
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
       </c>
       <c r="C42" t="n">
-        <v>2.6267873196</v>
+        <v>3.8625481238</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.6567886476</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3.869643505</v>
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
       </c>
       <c r="C43" t="n">
-        <v>3.3030890579</v>
+        <v>4.8828048077</v>
+      </c>
+      <c r="D43" t="n">
+        <v>4.4309797219</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2.7060009933</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2.6581551731</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44"/>
+      <c r="D44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="n">
-        <v>8.7982726494</v>
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
       </c>
       <c r="C45" t="n">
-        <v>8.0223285372</v>
+        <v>3.4380078172</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.5383624222</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3.9080768197</v>
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
       </c>
       <c r="C46" t="n">
-        <v>3.5745832384</v>
+        <v>1.5946869177</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.4383242488</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" t="n">
-        <v>3.8625481238</v>
+        <v>95</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
       </c>
       <c r="C47" t="n">
-        <v>3.6567886476</v>
+        <v>5.5273019306</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5.0369742024</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2.7867109541</v>
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
       </c>
       <c r="C48" t="n">
-        <v>2.5586433619</v>
+        <v>11.7650289007</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10.6848103108</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2.2397753223</v>
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
       </c>
       <c r="C49" t="n">
-        <v>2.0278235649</v>
+        <v>4.9587845144</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4.4006935185</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3.5332041812</v>
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
       </c>
       <c r="C50" t="n">
-        <v>3.3755596161</v>
+        <v>5.78184873</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.2589828898</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1.4994905537</v>
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
       </c>
       <c r="C51" t="n">
-        <v>1.3171794352</v>
+        <v>3.1065943884</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.2390012882</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1.8300170598</v>
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
       </c>
       <c r="C52" t="n">
-        <v>1.7871564129</v>
+        <v>1.5692618019</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.4339976483</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" t="n">
-        <v>5.1805151759</v>
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
       </c>
       <c r="C53" t="n">
-        <v>4.4655925258</v>
+        <v>6.0106747727</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4.5066952304</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.8300170598</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.7871564129</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2.3719267966</v>
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
       </c>
       <c r="C55" t="n">
-        <v>2.1695197308</v>
+        <v>3.483536513</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.0529574674</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" t="n">
-        <v>4.9238988903</v>
+        <v>113</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
       </c>
       <c r="C56" t="n">
-        <v>4.3744635031</v>
+        <v>2.4759923871</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.3763853165</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2.6338646181</v>
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
       </c>
       <c r="C57" t="n">
-        <v>2.4091052327</v>
+        <v>6.999889164</v>
+      </c>
+      <c r="D57" t="n">
+        <v>6.348745387</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" t="n">
-        <v>10.1342737954</v>
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
       </c>
       <c r="C58" t="n">
-        <v>9.0496257399</v>
+        <v>6.3553920412</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.6099783541</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" t="n">
-        <v>4.8224940678</v>
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
       </c>
       <c r="C59" t="n">
-        <v>4.405020119</v>
+        <v>3.6511648932</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.1841075446</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2.8819073181</v>
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
       </c>
       <c r="C60" t="n">
-        <v>2.6000164791</v>
+        <v>3.7980984115</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.3950293182</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.3876063303</v>
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
       </c>
       <c r="C61" t="n">
-        <v>3.8850168232</v>
+        <v>3.5816892859</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2.719268405</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" t="n">
-        <v>6.3553920412</v>
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
       </c>
       <c r="C62" t="n">
-        <v>5.6099783541</v>
+        <v>5.6307762393</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.4088058944</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3.5816892859</v>
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
       </c>
       <c r="C63" t="n">
-        <v>2.719268405</v>
+        <v>5.1805151759</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.4655925258</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" t="n">
-        <v>3.0353449359</v>
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
       </c>
       <c r="C64" t="n">
-        <v>2.5672965629</v>
+        <v>2.4966872488</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2.2190052239</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65"/>
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.45352368</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.144641778</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" t="n">
-        <v>9.7836437093</v>
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
       </c>
       <c r="C66" t="n">
-        <v>8.7957083739</v>
+        <v>2.4733316191</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.2774143304</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" t="n">
-        <v>3.5243349548</v>
+        <v>135</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
       </c>
       <c r="C67" t="n">
-        <v>3.0824324332</v>
+        <v>6.2829600251</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5.5515692476</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" t="n">
-        <v>4.8703878907</v>
+        <v>137</v>
+      </c>
+      <c r="B68" t="s">
+        <v>138</v>
       </c>
       <c r="C68" t="n">
-        <v>4.1635417294</v>
+        <v>3.0353449359</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.5672965629</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" t="n">
-        <v>6.7308559613</v>
-      </c>
-      <c r="C69" t="n">
-        <v>5.5588703859</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" t="n">
-        <v>3.3791752817</v>
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
       </c>
       <c r="C70" t="n">
-        <v>3.3988150937</v>
+        <v>3.4465814028</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3.0591769556</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" t="n">
-        <v>11.9778903357</v>
+        <v>143</v>
+      </c>
+      <c r="B71" t="s">
+        <v>144</v>
       </c>
       <c r="C71" t="n">
-        <v>10.9557636662</v>
+        <v>2.4807226412</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2.1646523053</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" t="n">
-        <v>4.0547146971</v>
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
       </c>
       <c r="C72" t="n">
-        <v>3.7087078534</v>
+        <v>6.9806725067</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6.3717304521</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" t="n">
-        <v>5.2032795239</v>
+        <v>147</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
       </c>
       <c r="C73" t="n">
-        <v>4.7519593954</v>
+        <v>2.7867109541</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.5586433619</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" t="n">
-        <v>4.0553059789</v>
+        <v>149</v>
+      </c>
+      <c r="B74" t="s">
+        <v>150</v>
       </c>
       <c r="C74" t="n">
-        <v>3.7092486785</v>
+        <v>5.9624853089</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5.4474604234</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" t="n">
-        <v>7.4693668847</v>
+        <v>151</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
       </c>
       <c r="C75" t="n">
-        <v>6.3306277475</v>
+        <v>3.192921526</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2.8377090932</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" t="n">
-        <v>3.6511648932</v>
+        <v>153</v>
+      </c>
+      <c r="B76" t="s">
+        <v>154</v>
       </c>
       <c r="C76" t="n">
-        <v>3.1841075446</v>
+        <v>4.4626991144</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.9761458459</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" t="n">
-        <v>5.9624853089</v>
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
       </c>
       <c r="C77" t="n">
-        <v>5.4474604234</v>
+        <v>2.0307572187</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.8415093315</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2.6974274077</v>
+        <v>157</v>
+      </c>
+      <c r="B78" t="s">
+        <v>158</v>
       </c>
       <c r="C78" t="n">
-        <v>2.2444240017</v>
+        <v>3.3392637626</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.8893578865</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" t="n">
-        <v>5.8338815252</v>
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
       </c>
       <c r="C79" t="n">
-        <v>5.0415712154</v>
+        <v>2.7660160923</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.5467452106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2.9632085607</v>
+        <v>161</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
       </c>
       <c r="C80" t="n">
-        <v>2.5829804897</v>
+        <v>2.0819030913</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.9239851533</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" t="n">
-        <v>3.5459167392</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3.1914086829</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81"/>
+      <c r="D81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" t="n">
-        <v>3.7980984115</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3.3950293182</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82"/>
+      <c r="D82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" t="n">
-        <v>6.2829600251</v>
+        <v>167</v>
+      </c>
+      <c r="B83" t="s">
+        <v>168</v>
       </c>
       <c r="C83" t="n">
-        <v>5.5515692476</v>
+        <v>9.7836437093</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8.7957083739</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" t="n">
-        <v>6.1389829155</v>
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
+        <v>170</v>
       </c>
       <c r="C84" t="n">
-        <v>5.6151161922</v>
+        <v>3.5201959824</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.1505763908</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" t="n">
-        <v>7.3655969351</v>
-      </c>
-      <c r="C85" t="n">
-        <v>4.8225370658</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" t="n">
-        <v>6.1848072522</v>
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
       </c>
       <c r="C86" t="n">
-        <v>5.2084157466</v>
+        <v>2.4079949842</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.9147911272</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" t="n">
-        <v>4.1537543926</v>
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
       </c>
       <c r="C87" t="n">
-        <v>3.1951944583</v>
+        <v>4.8703878907</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4.1635417294</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" t="n">
-        <v>6.3072025774</v>
+        <v>177</v>
+      </c>
+      <c r="B88" t="s">
+        <v>178</v>
       </c>
       <c r="C88" t="n">
-        <v>5.5285841825</v>
+        <v>5.1967754245</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4.7992815882</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" t="n">
-        <v>4.2424466572</v>
+        <v>179</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
       </c>
       <c r="C89" t="n">
-        <v>3.7368307566</v>
+        <v>5.0430421658</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4.3536417383</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2.1809427868</v>
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>182</v>
       </c>
       <c r="C90" t="n">
-        <v>1.9948332362</v>
+        <v>2.3719267966</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.1695197308</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" t="n">
-        <v>4.1241903044</v>
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
       </c>
       <c r="C91" t="n">
-        <v>3.65597741</v>
+        <v>2.2397753223</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.0278235649</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" t="n">
-        <v>3.6881200034</v>
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
       </c>
       <c r="C92" t="n">
-        <v>3.4026008691</v>
+        <v>6.1389829155</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5.6151161922</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" t="n">
-        <v>4.9587845144</v>
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>188</v>
       </c>
       <c r="C93" t="n">
-        <v>4.4006935185</v>
+        <v>3.5243349548</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.0824324332</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1.5692618019</v>
+        <v>189</v>
+      </c>
+      <c r="B94" t="s">
+        <v>190</v>
       </c>
       <c r="C94" t="n">
-        <v>1.4339976483</v>
+        <v>4.9238988903</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.3744635031</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" t="n">
-        <v>6.999889164</v>
+        <v>191</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
       </c>
       <c r="C95" t="n">
-        <v>6.348745387</v>
+        <v>9.0956873768</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8.2775979658</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" t="n">
-        <v>4.4626991144</v>
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>194</v>
       </c>
       <c r="C96" t="n">
-        <v>3.9761458459</v>
+        <v>3.3646888785</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.0767537701</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" t="n">
-        <v>2.7660160923</v>
+        <v>195</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
       </c>
       <c r="C97" t="n">
-        <v>2.5467452106</v>
+        <v>7.3655969351</v>
+      </c>
+      <c r="D97" t="n">
+        <v>4.8225370658</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" t="n">
-        <v>3.3646888785</v>
+        <v>197</v>
+      </c>
+      <c r="B98" t="s">
+        <v>198</v>
       </c>
       <c r="C98" t="n">
-        <v>3.0767537701</v>
+        <v>6.1848072522</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5.2084157466</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" t="n">
-        <v>4.3400081483</v>
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
+        <v>200</v>
       </c>
       <c r="C99" t="n">
-        <v>3.8222811162</v>
+        <v>2.6974274077</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.2444240017</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" t="n">
-        <v>1.5946869177</v>
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>202</v>
       </c>
       <c r="C100" t="n">
-        <v>1.4383242488</v>
+        <v>6.7308559613</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5.5588703859</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" t="n">
-        <v>5.5273019306</v>
+        <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>204</v>
       </c>
       <c r="C101" t="n">
-        <v>5.0369742024</v>
+        <v>3.4252952593</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.116504412</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" t="n">
-        <v>2.4733316191</v>
+        <v>205</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
       </c>
       <c r="C102" t="n">
-        <v>2.2774143304</v>
+        <v>5.3289268987</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4.8695888461</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" t="n">
-        <v>5.8235340944</v>
+        <v>207</v>
+      </c>
+      <c r="B103" t="s">
+        <v>208</v>
       </c>
       <c r="C103" t="n">
-        <v>5.1335114757</v>
+        <v>2.4387416359</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.188989433</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" t="n">
-        <v>3.5465080209</v>
+        <v>209</v>
+      </c>
+      <c r="B104" t="s">
+        <v>210</v>
       </c>
       <c r="C104" t="n">
-        <v>3.3052523582</v>
+        <v>4.3400081483</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.8222811162</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" t="n">
-        <v>1.9024490759</v>
+        <v>211</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
       </c>
       <c r="C105" t="n">
-        <v>1.7233390558</v>
+        <v>2.6338646181</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.4091052327</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" t="n">
-        <v>3.483536513</v>
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
       </c>
       <c r="C106" t="n">
-        <v>3.0529574674</v>
+        <v>3.9734134546</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.6343444076</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" t="n">
-        <v>2.446132658</v>
+        <v>215</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
       </c>
       <c r="C107" t="n">
-        <v>2.1527541539</v>
+        <v>3.7132494784</v>
+      </c>
+      <c r="D107" t="n">
+        <v>3.3528449635</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" t="n">
-        <v>2.4759923871</v>
+        <v>217</v>
+      </c>
+      <c r="B108" t="s">
+        <v>218</v>
       </c>
       <c r="C108" t="n">
-        <v>2.3763853165</v>
+        <v>3.4312080769</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.884490461</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" t="n">
-        <v>2.45352368</v>
+        <v>219</v>
+      </c>
+      <c r="B109" t="s">
+        <v>220</v>
       </c>
       <c r="C109" t="n">
-        <v>2.144641778</v>
+        <v>2.1989768806</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2.0305276902</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" t="n">
-        <v>2.0819030913</v>
+        <v>221</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
       </c>
       <c r="C110" t="n">
-        <v>1.9239851533</v>
+        <v>3.4043047567</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3.085406971</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" t="n">
-        <v>9.0956873768</v>
+        <v>223</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
       </c>
       <c r="C111" t="n">
-        <v>8.2775979658</v>
+        <v>1.5328979734</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.3880275182</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112" t="n">
-        <v>2.4387416359</v>
+        <v>225</v>
+      </c>
+      <c r="B112" t="s">
+        <v>226</v>
       </c>
       <c r="C112" t="n">
-        <v>2.188989433</v>
+        <v>3.3791752817</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.3988150937</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" t="n">
-        <v>3.9734134546</v>
+        <v>227</v>
+      </c>
+      <c r="B113" t="s">
+        <v>228</v>
       </c>
       <c r="C113" t="n">
-        <v>3.6343444076</v>
+        <v>4.1537543926</v>
+      </c>
+      <c r="D113" t="n">
+        <v>3.1951944583</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-health-funding/uganda-health-funding.xlsx
+++ b/user-data/uganda-health-funding/uganda-health-funding.xlsx
@@ -724,7 +724,7 @@
     <t xml:space="preserve">Units of measure: US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 25</t>
+    <t xml:space="preserve">Source: 26</t>
   </si>
   <si>
     <t xml:space="preserve"/>
